--- a/13-12-10/zadanie4.xlsx
+++ b/13-12-10/zadanie4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="7020" windowHeight="4740"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="7020" windowHeight="4740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="bmi" localSheetId="0">Arkusz1!$D$7:$E$1006</definedName>
     <definedName name="bmi_1" localSheetId="0">Arkusz1!$H$7:$I$1006</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C6" si="0">COUNTIF(G$7:G$1006,D2)</f>
+        <f t="shared" ref="C2:C5" si="0">COUNTIF(G$7:G$1006,D2)</f>
         <v>395</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1292,7 +1292,7 @@
         <v/>
       </c>
       <c r="L17" s="1" t="str">
-        <f t="shared" ref="L17:AM17" si="3">IF(L19&gt;L20,"TUTAJ","")</f>
+        <f t="shared" ref="L17:AH17" si="3">IF(L19&gt;L20,"TUTAJ","")</f>
         <v/>
       </c>
       <c r="M17" s="1" t="str">
@@ -22712,11 +22712,11 @@
         <v>52</v>
       </c>
       <c r="F968">
-        <f t="shared" ref="F968:F1007" si="34">E968/(D968/100*D968/100)</f>
+        <f t="shared" ref="F968:F1006" si="34">E968/(D968/100*D968/100)</f>
         <v>20.3125</v>
       </c>
       <c r="G968" t="str">
-        <f t="shared" ref="G968:G1007" si="35">IF(F968&lt;F$1,D$1,IF(AND(F968&gt;=E$2,F968&lt;F$2),D$2,IF(AND(F968&gt;=E$3,F968&lt;F$3),D$3,IF(F968&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G968:G1006" si="35">IF(F968&lt;F$1,D$1,IF(AND(F968&gt;=E$2,F968&lt;F$2),D$2,IF(AND(F968&gt;=E$3,F968&lt;F$3),D$3,IF(F968&gt;E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H968">
@@ -23662,7 +23662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/13-12-10/zadanie4.xlsx
+++ b/13-12-10/zadanie4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="7020" windowHeight="4740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="7020" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -217,13 +217,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akcent 3" xfId="5" builtinId="37"/>
@@ -422,7 +423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -505,7 +505,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -889,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT1006"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>18.5</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2">
         <f t="shared" ref="C2:C5" si="0">COUNTIF(G$7:G$1006,D2)</f>
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -931,13 +930,13 @@
         <v>18.5</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -946,13 +945,13 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
@@ -961,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,12 +1012,12 @@
       <c r="E7">
         <v>62</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f>E7/(D7/100*D7/100)</f>
         <v>23.9188302920412</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(F7&lt;F$1,D$1,IF(AND(F7&gt;=E$2,F7&lt;F$2),D$2,IF(AND(F7&gt;=E$3,F7&lt;F$3),D$3,IF(F7&gt;E$5,D$5,D$4))))</f>
+        <f>IF(F7&lt;=F$1,D$1,IF(AND(F7&gt;=E$2,F7&lt;=F$2),D$2,IF(AND(F7&gt;=E$3,F7&lt;=F$3),D$3,IF(F7&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H7">
@@ -1044,12 +1043,12 @@
       <c r="E8">
         <v>78</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" ref="F8:F71" si="1">E8/(D8/100*D8/100)</f>
         <v>20.512820512820511</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:G71" si="2">IF(F8&lt;F$1,D$1,IF(AND(F8&gt;=E$2,F8&lt;F$2),D$2,IF(AND(F8&gt;=E$3,F8&lt;F$3),D$3,IF(F8&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G8:G71" si="2">IF(F8&lt;=F$1,D$1,IF(AND(F8&gt;=E$2,F8&lt;=F$2),D$2,IF(AND(F8&gt;=E$3,F8&lt;=F$3),D$3,IF(F8&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H8">
@@ -1078,7 +1077,7 @@
       <c r="E9">
         <v>91</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>26.588750913075238</v>
       </c>
@@ -1103,7 +1102,7 @@
       <c r="E10">
         <v>88</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>26.277285078682553</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="E11">
         <v>92</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>40.888888888888886</v>
       </c>
@@ -1159,7 +1158,7 @@
       <c r="E12">
         <v>118</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>33.386147578089634</v>
       </c>
@@ -1181,7 +1180,7 @@
       <c r="E13">
         <v>95</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>32.488628979857054</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="E14">
         <v>90</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>31.511501698119812</v>
       </c>
@@ -1225,7 +1224,7 @@
       <c r="E15">
         <v>68</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>26.897670187097027</v>
       </c>
@@ -1247,7 +1246,7 @@
       <c r="E16">
         <v>80</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>25.249337204898371</v>
       </c>
@@ -1270,7 +1269,7 @@
       <c r="E17">
         <v>64</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>16.161208050301759</v>
       </c>
@@ -1396,7 +1395,7 @@
       <c r="E18">
         <v>77</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>23.245984784446321</v>
       </c>
@@ -1529,7 +1528,7 @@
       <c r="E19">
         <v>63</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>19.883853048857468</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="E20">
         <v>76</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>20.193431820597301</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="E21">
         <v>64</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>18.903591682419659</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="E22">
         <v>96</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>37.035608194128308</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="E23">
         <v>105</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>40.507696462327836</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="E24">
         <v>93</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>33.749455653941069</v>
       </c>
@@ -1965,7 +1964,7 @@
       <c r="E25">
         <v>62</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>22.499637102627378</v>
       </c>
@@ -1987,7 +1986,7 @@
       <c r="E26">
         <v>123</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>33.365885416666664</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="E27">
         <v>76</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>23.198315069747565</v>
       </c>
@@ -2031,7 +2030,7 @@
       <c r="E28">
         <v>43</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>18.611495844875346</v>
       </c>
@@ -2053,7 +2052,7 @@
       <c r="E29">
         <v>107</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>37.463674241097998</v>
       </c>
@@ -2075,7 +2074,7 @@
       <c r="E30">
         <v>62</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>18.513541759980889</v>
       </c>
@@ -2097,7 +2096,7 @@
       <c r="E31">
         <v>64</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>20.897959183673468</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="E32">
         <v>65</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>20.983987603305785</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="E33">
         <v>58</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>22.65625</v>
       </c>
@@ -2163,7 +2162,7 @@
       <c r="E34">
         <v>79</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>19.948991187091238</v>
       </c>
@@ -2185,7 +2184,7 @@
       <c r="E35">
         <v>82</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>24.755464315903875</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="E36">
         <v>129</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>36.889816694786809</v>
       </c>
@@ -2229,7 +2228,7 @@
       <c r="E37">
         <v>90</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <f t="shared" si="1"/>
         <v>25.195263290501387</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="E38">
         <v>50</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>19.53125</v>
       </c>
@@ -2273,7 +2272,7 @@
       <c r="E39">
         <v>54</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
         <v>19.596458121643199</v>
       </c>
@@ -2295,7 +2294,7 @@
       <c r="E40">
         <v>126</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
         <v>39.767706097714935</v>
       </c>
@@ -2317,7 +2316,7 @@
       <c r="E41">
         <v>68</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <f t="shared" si="1"/>
         <v>22.720438370810918</v>
       </c>
@@ -2339,7 +2338,7 @@
       <c r="E42">
         <v>46</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
         <v>17.746228926353147</v>
       </c>
@@ -2361,7 +2360,7 @@
       <c r="E43">
         <v>101</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <f t="shared" si="1"/>
         <v>28.274684359340444</v>
       </c>
@@ -2383,7 +2382,7 @@
       <c r="E44">
         <v>123</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <f t="shared" si="1"/>
         <v>41.576527852893463</v>
       </c>
@@ -2405,7 +2404,7 @@
       <c r="E45">
         <v>72</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <f t="shared" si="1"/>
         <v>23.243801652892564</v>
       </c>
@@ -2427,7 +2426,7 @@
       <c r="E46">
         <v>53</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <f t="shared" si="1"/>
         <v>22.939750692520775</v>
       </c>
@@ -2449,7 +2448,7 @@
       <c r="E47">
         <v>74</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <f t="shared" si="1"/>
         <v>27.852007979223909</v>
       </c>
@@ -2471,7 +2470,7 @@
       <c r="E48">
         <v>119</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <f t="shared" si="1"/>
         <v>37.139914484566646</v>
       </c>
@@ -2493,7 +2492,7 @@
       <c r="E49">
         <v>108</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <f t="shared" si="1"/>
         <v>37.813802037743777</v>
       </c>
@@ -2515,7 +2514,7 @@
       <c r="E50">
         <v>66</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <f t="shared" si="1"/>
         <v>19.077349982656951</v>
       </c>
@@ -2537,7 +2536,7 @@
       <c r="E51">
         <v>47</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <f t="shared" si="1"/>
         <v>19.817844493169169</v>
       </c>
@@ -2559,7 +2558,7 @@
       <c r="E52">
         <v>47</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <f t="shared" si="1"/>
         <v>18.827111039897453</v>
       </c>
@@ -2581,7 +2580,7 @@
       <c r="E53">
         <v>89</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <f t="shared" si="1"/>
         <v>24.39626106740495</v>
       </c>
@@ -2603,7 +2602,7 @@
       <c r="E54">
         <v>110</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <f t="shared" si="1"/>
         <v>32.490548204158792</v>
       </c>
@@ -2625,7 +2624,7 @@
       <c r="E55">
         <v>97</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <f t="shared" si="1"/>
         <v>33.962396274640241</v>
       </c>
@@ -2647,7 +2646,7 @@
       <c r="E56">
         <v>66</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="6">
         <f t="shared" si="1"/>
         <v>26.775934114974238</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="E57">
         <v>72</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="6">
         <f t="shared" si="1"/>
         <v>18.934911242603548</v>
       </c>
@@ -2691,7 +2690,7 @@
       <c r="E58">
         <v>56</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="6">
         <f t="shared" si="1"/>
         <v>20.322252866889244</v>
       </c>
@@ -2713,7 +2712,7 @@
       <c r="E59">
         <v>92</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <f t="shared" si="1"/>
         <v>26.592669672794539</v>
       </c>
@@ -2735,7 +2734,7 @@
       <c r="E60">
         <v>81</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="6">
         <f t="shared" si="1"/>
         <v>32.039871840512632</v>
       </c>
@@ -2757,7 +2756,7 @@
       <c r="E61">
         <v>85</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="6">
         <f t="shared" si="1"/>
         <v>25.10633270321361</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="E62">
         <v>98</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <f t="shared" si="1"/>
         <v>27.434842249657066</v>
       </c>
@@ -2801,7 +2800,7 @@
       <c r="E63">
         <v>60</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="6">
         <f t="shared" si="1"/>
         <v>20.047445621303751</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="E64">
         <v>72</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <f t="shared" si="1"/>
         <v>18.552397639722745</v>
       </c>
@@ -2845,7 +2844,7 @@
       <c r="E65">
         <v>89</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <f t="shared" si="1"/>
         <v>23.893258879433006</v>
       </c>
@@ -2867,7 +2866,7 @@
       <c r="E66">
         <v>76</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <f t="shared" si="1"/>
         <v>27.580200319349689</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="E67">
         <v>88</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="6">
         <f t="shared" si="1"/>
         <v>36.628511966701353</v>
       </c>
@@ -2911,7 +2910,7 @@
       <c r="E68">
         <v>53</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="6">
         <f t="shared" si="1"/>
         <v>14.995473064735176</v>
       </c>
@@ -2933,7 +2932,7 @@
       <c r="E69">
         <v>105</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="6">
         <f t="shared" si="1"/>
         <v>45.446675900277008</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="E70">
         <v>91</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="6">
         <f t="shared" si="1"/>
         <v>26.303618915481554</v>
       </c>
@@ -2977,7 +2976,7 @@
       <c r="E71">
         <v>80</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="6">
         <f t="shared" si="1"/>
         <v>32.046146450889282</v>
       </c>
@@ -2999,12 +2998,12 @@
       <c r="E72">
         <v>42</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="6">
         <f t="shared" ref="F72:F135" si="6">E72/(D72/100*D72/100)</f>
         <v>13.872374157748711</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" ref="G72:G135" si="7">IF(F72&lt;F$1,D$1,IF(AND(F72&gt;=E$2,F72&lt;F$2),D$2,IF(AND(F72&gt;=E$3,F72&lt;F$3),D$3,IF(F72&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G72:G135" si="7">IF(F72&lt;=F$1,D$1,IF(AND(F72&gt;=E$2,F72&lt;=F$2),D$2,IF(AND(F72&gt;=E$3,F72&lt;=F$3),D$3,IF(F72&gt;=E$5,D$5,D$4))))</f>
         <v>niedowaga</v>
       </c>
       <c r="H72">
@@ -3021,7 +3020,7 @@
       <c r="E73">
         <v>42</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="6">
         <f t="shared" si="6"/>
         <v>17.709563164108619</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="E74">
         <v>53</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="6">
         <f t="shared" si="6"/>
         <v>21.501886486267189</v>
       </c>
@@ -3065,7 +3064,7 @@
       <c r="E75">
         <v>62</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="6">
         <f t="shared" si="6"/>
         <v>24.835763499439192</v>
       </c>
@@ -3087,7 +3086,7 @@
       <c r="E76">
         <v>127</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="6">
         <f t="shared" si="6"/>
         <v>35.553315976596402</v>
       </c>
@@ -3109,7 +3108,7 @@
       <c r="E77">
         <v>136</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="6">
         <f t="shared" si="6"/>
         <v>34.342567106891245</v>
       </c>
@@ -3131,7 +3130,7 @@
       <c r="E78">
         <v>71</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="6">
         <f t="shared" si="6"/>
         <v>26.078971533516988</v>
       </c>
@@ -3153,7 +3152,7 @@
       <c r="E79">
         <v>98</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="6">
         <f t="shared" si="6"/>
         <v>39.256529402339368</v>
       </c>
@@ -3175,7 +3174,7 @@
       <c r="E80">
         <v>55</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="6">
         <f t="shared" si="6"/>
         <v>16.245274102079396</v>
       </c>
@@ -3197,7 +3196,7 @@
       <c r="E81">
         <v>121</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="6">
         <f t="shared" si="6"/>
         <v>35.73960302457467</v>
       </c>
@@ -3219,7 +3218,7 @@
       <c r="E82">
         <v>93</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="6">
         <f t="shared" si="6"/>
         <v>24.20866305705956</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="E83">
         <v>85</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="6">
         <f t="shared" si="6"/>
         <v>29.411764705882351</v>
       </c>
@@ -3263,7 +3262,7 @@
       <c r="E84">
         <v>70</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="6">
         <f t="shared" si="6"/>
         <v>23.388686558187711</v>
       </c>
@@ -3285,7 +3284,7 @@
       <c r="E85">
         <v>110</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="6">
         <f t="shared" si="6"/>
         <v>29.530994120647534</v>
       </c>
@@ -3307,7 +3306,7 @@
       <c r="E86">
         <v>98</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="6">
         <f t="shared" si="6"/>
         <v>32.368873034746997</v>
       </c>
@@ -3329,7 +3328,7 @@
       <c r="E87">
         <v>56</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="6">
         <f t="shared" si="6"/>
         <v>19.151191819705211</v>
       </c>
@@ -3351,7 +3350,7 @@
       <c r="E88">
         <v>78</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="6">
         <f t="shared" si="6"/>
         <v>22.068809416025353</v>
       </c>
@@ -3373,7 +3372,7 @@
       <c r="E89">
         <v>64</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="6">
         <f t="shared" si="6"/>
         <v>25.636917160711423</v>
       </c>
@@ -3395,7 +3394,7 @@
       <c r="E90">
         <v>70</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="6">
         <f t="shared" si="6"/>
         <v>25.402816083611555</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="E91">
         <v>92</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="6">
         <f t="shared" si="6"/>
         <v>34.626820730927022</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="E92">
         <v>43</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="6">
         <f t="shared" si="6"/>
         <v>18.13121942992073</v>
       </c>
@@ -3461,7 +3460,7 @@
       <c r="E93">
         <v>73</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <f t="shared" si="6"/>
         <v>22.282592106468055</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="E94">
         <v>74</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="6">
         <f t="shared" si="6"/>
         <v>32.454716898381648</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="E95">
         <v>95</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="6">
         <f t="shared" si="6"/>
         <v>34.475250399187111</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="E96">
         <v>62</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="6">
         <f t="shared" si="6"/>
         <v>18.312854442344044</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="E97">
         <v>121</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="6">
         <f t="shared" si="6"/>
         <v>36.529404661272793</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="E98">
         <v>46</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="6">
         <f t="shared" si="6"/>
         <v>18.902038132807363</v>
       </c>
@@ -3593,7 +3592,7 @@
       <c r="E99">
         <v>57</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="6">
         <f t="shared" si="6"/>
         <v>23.422090729783037</v>
       </c>
@@ -3615,7 +3614,7 @@
       <c r="E100">
         <v>57</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="6">
         <f t="shared" si="6"/>
         <v>17.789706937985702</v>
       </c>
@@ -3637,7 +3636,7 @@
       <c r="E101">
         <v>61</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="6">
         <f t="shared" si="6"/>
         <v>16.207886066532044</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="E102">
         <v>84</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="6">
         <f t="shared" si="6"/>
         <v>33.226533760531623</v>
       </c>
@@ -3681,7 +3680,7 @@
       <c r="E103">
         <v>77</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="6">
         <f t="shared" si="6"/>
         <v>20.887586805555557</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="E104">
         <v>68</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="6">
         <f t="shared" si="6"/>
         <v>29.43213296398892</v>
       </c>
@@ -3725,7 +3724,7 @@
       <c r="E105">
         <v>53</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="6">
         <f t="shared" si="6"/>
         <v>23.244594535327398</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="E106">
         <v>64</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="6">
         <f t="shared" si="6"/>
         <v>28.068944344546292</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="E107">
         <v>88</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="6">
         <f t="shared" si="6"/>
         <v>26.566839753652939</v>
       </c>
@@ -3791,7 +3790,7 @@
       <c r="E108">
         <v>61</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="6">
         <f t="shared" si="6"/>
         <v>22.405876951331496</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="E109">
         <v>53</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="6">
         <f t="shared" si="6"/>
         <v>21.501886486267189</v>
       </c>
@@ -3835,7 +3834,7 @@
       <c r="E110">
         <v>76</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="6">
         <f t="shared" si="6"/>
         <v>25.393431120318084</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="E111">
         <v>79</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="6">
         <f t="shared" si="6"/>
         <v>21.655108138483047</v>
       </c>
@@ -3879,7 +3878,7 @@
       <c r="E112">
         <v>70</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="6">
         <f t="shared" si="6"/>
         <v>21.132713440405748</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="E113">
         <v>112</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="6">
         <f t="shared" si="6"/>
         <v>44.864605031244992</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="E114">
         <v>85</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="6">
         <f t="shared" si="6"/>
         <v>33.203125</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="E115">
         <v>94</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="6">
         <f t="shared" si="6"/>
         <v>25.235576794007894</v>
       </c>
@@ -3967,7 +3966,7 @@
       <c r="E116">
         <v>76</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <f t="shared" si="6"/>
         <v>22.205989773557341</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="E117">
         <v>66</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <f t="shared" si="6"/>
         <v>17.006364503079183</v>
       </c>
@@ -4011,7 +4010,7 @@
       <c r="E118">
         <v>94</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <f t="shared" si="6"/>
         <v>37.182073493928243</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="E119">
         <v>39</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="6">
         <f t="shared" si="6"/>
         <v>16.444594366672288</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="E120">
         <v>72</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="6">
         <f t="shared" si="6"/>
         <v>28.125</v>
       </c>
@@ -4077,7 +4076,7 @@
       <c r="E121">
         <v>89</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="6">
         <f t="shared" si="6"/>
         <v>35.651337926614325</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="E122">
         <v>72</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="6">
         <f t="shared" si="6"/>
         <v>30.757400999615534</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="E123">
         <v>116</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="6">
         <f t="shared" si="6"/>
         <v>40.614824410909982</v>
       </c>
@@ -4143,7 +4142,7 @@
       <c r="E124">
         <v>87</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="6">
         <f t="shared" si="6"/>
         <v>22.191613100704007</v>
       </c>
@@ -4165,7 +4164,7 @@
       <c r="E125">
         <v>48</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="6">
         <f t="shared" si="6"/>
         <v>19.227687870533568</v>
       </c>
@@ -4187,7 +4186,7 @@
       <c r="E126">
         <v>93</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="6">
         <f t="shared" si="6"/>
         <v>35.436671239140374</v>
       </c>
@@ -4209,7 +4208,7 @@
       <c r="E127">
         <v>59</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="6">
         <f t="shared" si="6"/>
         <v>18.413907181423799</v>
       </c>
@@ -4231,7 +4230,7 @@
       <c r="E128">
         <v>99</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="6">
         <f t="shared" si="6"/>
         <v>41.74397031539889</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="E129">
         <v>84</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="6">
         <f t="shared" si="6"/>
         <v>28.726787729557817</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="E130">
         <v>126</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="6">
         <f t="shared" si="6"/>
         <v>32.466695869514808</v>
       </c>
@@ -4297,7 +4296,7 @@
       <c r="E131">
         <v>127</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="6">
         <f t="shared" si="6"/>
         <v>38.340780099021856</v>
       </c>
@@ -4319,7 +4318,7 @@
       <c r="E132">
         <v>118</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="6">
         <f t="shared" si="6"/>
         <v>33.744173410735222</v>
       </c>
@@ -4341,7 +4340,7 @@
       <c r="E133">
         <v>56</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="6">
         <f t="shared" si="6"/>
         <v>23.92242299970097</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="E134">
         <v>74</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="6">
         <f t="shared" si="6"/>
         <v>20.284531674022094</v>
       </c>
@@ -4385,7 +4384,7 @@
       <c r="E135">
         <v>101</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="6">
         <f t="shared" si="6"/>
         <v>29.194126488611396</v>
       </c>
@@ -4407,12 +4406,12 @@
       <c r="E136">
         <v>89</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="6">
         <f t="shared" ref="F136:F199" si="8">E136/(D136/100*D136/100)</f>
         <v>22.93282486021284</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" ref="G136:G199" si="9">IF(F136&lt;F$1,D$1,IF(AND(F136&gt;=E$2,F136&lt;F$2),D$2,IF(AND(F136&gt;=E$3,F136&lt;F$3),D$3,IF(F136&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G136:G199" si="9">IF(F136&lt;=F$1,D$1,IF(AND(F136&gt;=E$2,F136&lt;=F$2),D$2,IF(AND(F136&gt;=E$3,F136&lt;=F$3),D$3,IF(F136&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H136">
@@ -4429,7 +4428,7 @@
       <c r="E137">
         <v>72</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="6">
         <f t="shared" si="8"/>
         <v>18.934911242603548</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="E138">
         <v>76</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="6">
         <f t="shared" si="8"/>
         <v>21.502942507922139</v>
       </c>
@@ -4473,7 +4472,7 @@
       <c r="E139">
         <v>55</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="6">
         <f t="shared" si="8"/>
         <v>24.444444444444443</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="E140">
         <v>83</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="6">
         <f t="shared" si="8"/>
         <v>22.282477381943139</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="E141">
         <v>98</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="6">
         <f t="shared" si="8"/>
         <v>30.585811928466647</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="E142">
         <v>60</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="6">
         <f t="shared" si="8"/>
         <v>25.969529085872576</v>
       </c>
@@ -4561,7 +4560,7 @@
       <c r="E143">
         <v>54</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="6">
         <f t="shared" si="8"/>
         <v>18.685121107266436</v>
       </c>
@@ -4583,7 +4582,7 @@
       <c r="E144">
         <v>70</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="6">
         <f t="shared" si="8"/>
         <v>24.221453287197232</v>
       </c>
@@ -4605,7 +4604,7 @@
       <c r="E145">
         <v>51</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="6">
         <f t="shared" si="8"/>
         <v>18.732782369146005</v>
       </c>
@@ -4627,7 +4626,7 @@
       <c r="E146">
         <v>77</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="6">
         <f t="shared" si="8"/>
         <v>22.019502988361118</v>
       </c>
@@ -4649,7 +4648,7 @@
       <c r="E147">
         <v>88</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="6">
         <f t="shared" si="8"/>
         <v>22.22166106916492</v>
       </c>
@@ -4671,7 +4670,7 @@
       <c r="E148">
         <v>82</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="6">
         <f t="shared" si="8"/>
         <v>20.706547814449131</v>
       </c>
@@ -4693,7 +4692,7 @@
       <c r="E149">
         <v>92</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="6">
         <f t="shared" si="8"/>
         <v>30.73941661933242</v>
       </c>
@@ -4715,7 +4714,7 @@
       <c r="E150">
         <v>110</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="6">
         <f t="shared" si="8"/>
         <v>33.576508653582003</v>
       </c>
@@ -4737,7 +4736,7 @@
       <c r="E151">
         <v>55</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="6">
         <f t="shared" si="8"/>
         <v>20.202020202020201</v>
       </c>
@@ -4759,7 +4758,7 @@
       <c r="E152">
         <v>72</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="6">
         <f t="shared" si="8"/>
         <v>20.156210632401109</v>
       </c>
@@ -4781,7 +4780,7 @@
       <c r="E153">
         <v>46</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="6">
         <f t="shared" si="8"/>
         <v>17.96875</v>
       </c>
@@ -4803,7 +4802,7 @@
       <c r="E154">
         <v>48</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="6">
         <f t="shared" si="8"/>
         <v>20.504933999743688</v>
       </c>
@@ -4825,7 +4824,7 @@
       <c r="E155">
         <v>57</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="6">
         <f t="shared" si="8"/>
         <v>19.045073340238563</v>
       </c>
@@ -4847,7 +4846,7 @@
       <c r="E156">
         <v>71</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="6">
         <f t="shared" si="8"/>
         <v>27.390918560240728</v>
       </c>
@@ -4869,7 +4868,7 @@
       <c r="E157">
         <v>98</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="6">
         <f t="shared" si="8"/>
         <v>32.368873034746997</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="E158">
         <v>66</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="6">
         <f t="shared" si="8"/>
         <v>20.145905192149201</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="E159">
         <v>57</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="6">
         <f t="shared" si="8"/>
         <v>24.349609124695629</v>
       </c>
@@ -4935,7 +4934,7 @@
       <c r="E160">
         <v>66</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="6">
         <f t="shared" si="8"/>
         <v>18.673607967406067</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="E161">
         <v>106</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="6">
         <f t="shared" si="8"/>
         <v>38.007816701925492</v>
       </c>
@@ -4979,7 +4978,7 @@
       <c r="E162">
         <v>112</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="6">
         <f t="shared" si="8"/>
         <v>34.955213632533315</v>
       </c>
@@ -5001,7 +5000,7 @@
       <c r="E163">
         <v>107</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="6">
         <f t="shared" si="8"/>
         <v>29.025607638888889</v>
       </c>
@@ -5023,7 +5022,7 @@
       <c r="E164">
         <v>55</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="6">
         <f t="shared" si="8"/>
         <v>13.888538168228076</v>
       </c>
@@ -5045,7 +5044,7 @@
       <c r="E165">
         <v>92</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="6">
         <f t="shared" si="8"/>
         <v>28.39506172839506</v>
       </c>
@@ -5067,7 +5066,7 @@
       <c r="E166">
         <v>54</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="6">
         <f t="shared" si="8"/>
         <v>22.47658688865765</v>
       </c>
@@ -5089,7 +5088,7 @@
       <c r="E167">
         <v>55</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="6">
         <f t="shared" si="8"/>
         <v>19.486961451247165</v>
       </c>
@@ -5111,7 +5110,7 @@
       <c r="E168">
         <v>87</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="6">
         <f t="shared" si="8"/>
         <v>36.68409512565357</v>
       </c>
@@ -5133,7 +5132,7 @@
       <c r="E169">
         <v>87</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="6">
         <f t="shared" si="8"/>
         <v>25.4200146092038</v>
       </c>
@@ -5155,7 +5154,7 @@
       <c r="E170">
         <v>104</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="6">
         <f t="shared" si="8"/>
         <v>34.74890574359317</v>
       </c>
@@ -5177,7 +5176,7 @@
       <c r="E171">
         <v>65</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="6">
         <f t="shared" si="8"/>
         <v>25.076193048107708</v>
       </c>
@@ -5199,7 +5198,7 @@
       <c r="E172">
         <v>74</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="6">
         <f t="shared" si="8"/>
         <v>23.889462809917354</v>
       </c>
@@ -5221,7 +5220,7 @@
       <c r="E173">
         <v>64</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="6">
         <f t="shared" si="8"/>
         <v>25.636917160711423</v>
       </c>
@@ -5243,7 +5242,7 @@
       <c r="E174">
         <v>142</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="6">
         <f t="shared" si="8"/>
         <v>39.335180055401665</v>
       </c>
@@ -5265,7 +5264,7 @@
       <c r="E175">
         <v>61</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="6">
         <f t="shared" si="8"/>
         <v>22.67995240928019</v>
       </c>
@@ -5287,7 +5286,7 @@
       <c r="E176">
         <v>56</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="6">
         <f t="shared" si="8"/>
         <v>21.875</v>
       </c>
@@ -5309,7 +5308,7 @@
       <c r="E177">
         <v>118</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="6">
         <f t="shared" si="8"/>
         <v>32.686980609418285</v>
       </c>
@@ -5331,7 +5330,7 @@
       <c r="E178">
         <v>107</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="6">
         <f t="shared" si="8"/>
         <v>27.019519709098258</v>
       </c>
@@ -5353,7 +5352,7 @@
       <c r="E179">
         <v>71</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="6">
         <f t="shared" si="8"/>
         <v>21.672110130948383</v>
       </c>
@@ -5375,7 +5374,7 @@
       <c r="E180">
         <v>72</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="6">
         <f t="shared" si="8"/>
         <v>21.037253469685904</v>
       </c>
@@ -5397,7 +5396,7 @@
       <c r="E181">
         <v>43</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="6">
         <f t="shared" si="8"/>
         <v>18.13121942992073</v>
       </c>
@@ -5419,7 +5418,7 @@
       <c r="E182">
         <v>66</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="6">
         <f t="shared" si="8"/>
         <v>17.357001972386588</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="E183">
         <v>59</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="6">
         <f t="shared" si="8"/>
         <v>21.155294202015131</v>
       </c>
@@ -5463,7 +5462,7 @@
       <c r="E184">
         <v>61</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="6">
         <f t="shared" si="8"/>
         <v>26.753212578395683</v>
       </c>
@@ -5485,7 +5484,7 @@
       <c r="E185">
         <v>74</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="6">
         <f t="shared" si="8"/>
         <v>20.498614958448755</v>
       </c>
@@ -5507,7 +5506,7 @@
       <c r="E186">
         <v>43</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="6">
         <f t="shared" si="8"/>
         <v>18.369003374770386</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="E187">
         <v>67</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="6">
         <f t="shared" si="8"/>
         <v>27.181630086413239</v>
       </c>
@@ -5551,7 +5550,7 @@
       <c r="E188">
         <v>54</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="6">
         <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
@@ -5573,7 +5572,7 @@
       <c r="E189">
         <v>57</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="6">
         <f t="shared" si="8"/>
         <v>24.349609124695629</v>
       </c>
@@ -5595,7 +5594,7 @@
       <c r="E190">
         <v>63</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="6">
         <f t="shared" si="8"/>
         <v>20.109164033323754</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="E191">
         <v>74</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="6">
         <f t="shared" si="8"/>
         <v>20.937075599818925</v>
       </c>
@@ -5639,7 +5638,7 @@
       <c r="E192">
         <v>78</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="6">
         <f t="shared" si="8"/>
         <v>24.618103774775911</v>
       </c>
@@ -5661,7 +5660,7 @@
       <c r="E193">
         <v>67</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="6">
         <f t="shared" si="8"/>
         <v>19.576333089846603</v>
       </c>
@@ -5683,7 +5682,7 @@
       <c r="E194">
         <v>52</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="6">
         <f t="shared" si="8"/>
         <v>21.926125822229718</v>
       </c>
@@ -5705,7 +5704,7 @@
       <c r="E195">
         <v>58</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="6">
         <f t="shared" si="8"/>
         <v>22.942130453700404</v>
       </c>
@@ -5727,7 +5726,7 @@
       <c r="E196">
         <v>57</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="6">
         <f t="shared" si="8"/>
         <v>20.43816558499767</v>
       </c>
@@ -5749,7 +5748,7 @@
       <c r="E197">
         <v>75</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="6">
         <f t="shared" si="8"/>
         <v>21.22000905387053</v>
       </c>
@@ -5771,7 +5770,7 @@
       <c r="E198">
         <v>94</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="6">
         <f t="shared" si="8"/>
         <v>27.170771187420506</v>
       </c>
@@ -5793,7 +5792,7 @@
       <c r="E199">
         <v>56</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="6">
         <f t="shared" si="8"/>
         <v>16.906170752324599</v>
       </c>
@@ -5815,12 +5814,12 @@
       <c r="E200">
         <v>86</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="6">
         <f t="shared" ref="F200:F263" si="10">E200/(D200/100*D200/100)</f>
         <v>26.25072494734593</v>
       </c>
       <c r="G200" t="str">
-        <f t="shared" ref="G200:G263" si="11">IF(F200&lt;F$1,D$1,IF(AND(F200&gt;=E$2,F200&lt;F$2),D$2,IF(AND(F200&gt;=E$3,F200&lt;F$3),D$3,IF(F200&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G200:G263" si="11">IF(F200&lt;=F$1,D$1,IF(AND(F200&gt;=E$2,F200&lt;=F$2),D$2,IF(AND(F200&gt;=E$3,F200&lt;=F$3),D$3,IF(F200&gt;=E$5,D$5,D$4))))</f>
         <v>nadwaga</v>
       </c>
       <c r="H200">
@@ -5837,7 +5836,7 @@
       <c r="E201">
         <v>118</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="6">
         <f t="shared" si="10"/>
         <v>36.827814362847597</v>
       </c>
@@ -5859,7 +5858,7 @@
       <c r="E202">
         <v>55</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="6">
         <f t="shared" si="10"/>
         <v>17.959183673469386</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="E203">
         <v>101</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="6">
         <f t="shared" si="10"/>
         <v>31.522112293623792</v>
       </c>
@@ -5903,7 +5902,7 @@
       <c r="E204">
         <v>108</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="6">
         <f t="shared" si="10"/>
         <v>32.966026678062327</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="E205">
         <v>89</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="6">
         <f t="shared" si="10"/>
         <v>23.167430237401085</v>
       </c>
@@ -5947,7 +5946,7 @@
       <c r="E206">
         <v>75</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="6">
         <f t="shared" si="10"/>
         <v>20.775623268698062</v>
       </c>
@@ -5969,7 +5968,7 @@
       <c r="E207">
         <v>65</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="6">
         <f t="shared" si="10"/>
         <v>26.370238143535232</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="E208">
         <v>54</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="6">
         <f t="shared" si="10"/>
         <v>17.432851239669422</v>
       </c>
@@ -6013,7 +6012,7 @@
       <c r="E209">
         <v>62</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="6">
         <f t="shared" si="10"/>
         <v>18.115412710007305</v>
       </c>
@@ -6035,7 +6034,7 @@
       <c r="E210">
         <v>70</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="6">
         <f t="shared" si="10"/>
         <v>21.604938271604937</v>
       </c>
@@ -6057,7 +6056,7 @@
       <c r="E211">
         <v>77</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="6">
         <f t="shared" si="10"/>
         <v>21.106877552698666</v>
       </c>
@@ -6079,7 +6078,7 @@
       <c r="E212">
         <v>58</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="6">
         <f t="shared" si="10"/>
         <v>18.938775510204081</v>
       </c>
@@ -6101,7 +6100,7 @@
       <c r="E213">
         <v>73</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="6">
         <f t="shared" si="10"/>
         <v>21.798202394816208</v>
       </c>
@@ -6123,7 +6122,7 @@
       <c r="E214">
         <v>54</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="6">
         <f t="shared" si="10"/>
         <v>19.362472659471475</v>
       </c>
@@ -6145,7 +6144,7 @@
       <c r="E215">
         <v>91</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="6">
         <f t="shared" si="10"/>
         <v>27.472527472527471</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="E216">
         <v>133</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="6">
         <f t="shared" si="10"/>
         <v>38.03368697989648</v>
       </c>
@@ -6189,7 +6188,7 @@
       <c r="E217">
         <v>104</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="6">
         <f t="shared" si="10"/>
         <v>28.80886426592798</v>
       </c>
@@ -6211,7 +6210,7 @@
       <c r="E218">
         <v>64</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="6">
         <f t="shared" si="10"/>
         <v>27.339911999658252</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="E219">
         <v>89</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="6">
         <f t="shared" si="10"/>
         <v>32.690541781450868</v>
       </c>
@@ -6255,7 +6254,7 @@
       <c r="E220">
         <v>84</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="6">
         <f t="shared" si="10"/>
         <v>36.357340720221607</v>
       </c>
@@ -6277,7 +6276,7 @@
       <c r="E221">
         <v>88</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="6">
         <f t="shared" si="10"/>
         <v>27.160493827160494</v>
       </c>
@@ -6299,7 +6298,7 @@
       <c r="E222">
         <v>96</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="6">
         <f t="shared" si="10"/>
         <v>28.666129176744604</v>
       </c>
@@ -6321,7 +6320,7 @@
       <c r="E223">
         <v>58</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="6">
         <f t="shared" si="10"/>
         <v>25.777777777777779</v>
       </c>
@@ -6343,7 +6342,7 @@
       <c r="E224">
         <v>87</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="6">
         <f t="shared" si="10"/>
         <v>26.851851851851851</v>
       </c>
@@ -6365,7 +6364,7 @@
       <c r="E225">
         <v>83</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="6">
         <f t="shared" si="10"/>
         <v>33.247876942797632</v>
       </c>
@@ -6387,7 +6386,7 @@
       <c r="E226">
         <v>74</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="6">
         <f t="shared" si="10"/>
         <v>20.716105372190029</v>
       </c>
@@ -6409,7 +6408,7 @@
       <c r="E227">
         <v>82</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="6">
         <f t="shared" si="10"/>
         <v>29.402273297715947</v>
       </c>
@@ -6431,7 +6430,7 @@
       <c r="E228">
         <v>63</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="6">
         <f t="shared" si="10"/>
         <v>26.91272587466359</v>
       </c>
@@ -6453,7 +6452,7 @@
       <c r="E229">
         <v>81</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="6">
         <f t="shared" si="10"/>
         <v>35.05886426592798</v>
       </c>
@@ -6475,7 +6474,7 @@
       <c r="E230">
         <v>67</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="6">
         <f t="shared" si="10"/>
         <v>20.227025721531216</v>
       </c>
@@ -6497,7 +6496,7 @@
       <c r="E231">
         <v>69</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="6">
         <f t="shared" si="10"/>
         <v>20.603780345785182</v>
       </c>
@@ -6519,7 +6518,7 @@
       <c r="E232">
         <v>40</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="6">
         <f t="shared" si="10"/>
         <v>17.777777777777779</v>
       </c>
@@ -6541,7 +6540,7 @@
       <c r="E233">
         <v>107</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="6">
         <f t="shared" si="10"/>
         <v>27.570924270143525</v>
       </c>
@@ -6563,7 +6562,7 @@
       <c r="E234">
         <v>55</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="6">
         <f t="shared" si="10"/>
         <v>17.959183673469386</v>
       </c>
@@ -6585,7 +6584,7 @@
       <c r="E235">
         <v>64</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="6">
         <f t="shared" si="10"/>
         <v>20.428357113217785</v>
       </c>
@@ -6607,7 +6606,7 @@
       <c r="E236">
         <v>74</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="6">
         <f t="shared" si="10"/>
         <v>21.621621621621621</v>
       </c>
@@ -6629,7 +6628,7 @@
       <c r="E237">
         <v>63</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="6">
         <f t="shared" si="10"/>
         <v>24.304617877396701</v>
       </c>
@@ -6651,7 +6650,7 @@
       <c r="E238">
         <v>68</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="6">
         <f t="shared" si="10"/>
         <v>24.977043158861338</v>
       </c>
@@ -6673,7 +6672,7 @@
       <c r="E239">
         <v>76</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="6">
         <f t="shared" si="10"/>
         <v>20.193431820597301</v>
       </c>
@@ -6695,7 +6694,7 @@
       <c r="E240">
         <v>46</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="6">
         <f t="shared" si="10"/>
         <v>19.146722164412072</v>
       </c>
@@ -6717,7 +6716,7 @@
       <c r="E241">
         <v>55</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="6">
         <f t="shared" si="10"/>
         <v>21.484375</v>
       </c>
@@ -6739,7 +6738,7 @@
       <c r="E242">
         <v>52</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="6">
         <f t="shared" si="10"/>
         <v>16.979591836734695</v>
       </c>
@@ -6761,7 +6760,7 @@
       <c r="E243">
         <v>68</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="6">
         <f t="shared" si="10"/>
         <v>17.700957934194086</v>
       </c>
@@ -6783,7 +6782,7 @@
       <c r="E244">
         <v>106</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="6">
         <f t="shared" si="10"/>
         <v>40.390184423106234</v>
       </c>
@@ -6805,7 +6804,7 @@
       <c r="E245">
         <v>80</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="6">
         <f t="shared" si="10"/>
         <v>28.344671201814059</v>
       </c>
@@ -6827,7 +6826,7 @@
       <c r="E246">
         <v>65</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="6">
         <f t="shared" si="10"/>
         <v>20.515086478979924</v>
       </c>
@@ -6849,7 +6848,7 @@
       <c r="E247">
         <v>67</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="6">
         <f t="shared" si="10"/>
         <v>17.090092847668604</v>
       </c>
@@ -6871,7 +6870,7 @@
       <c r="E248">
         <v>92</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="6">
         <f t="shared" si="10"/>
         <v>23.705841428534622</v>
       </c>
@@ -6893,7 +6892,7 @@
       <c r="E249">
         <v>52</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="6">
         <f t="shared" si="10"/>
         <v>20.3125</v>
       </c>
@@ -6915,7 +6914,7 @@
       <c r="E250">
         <v>73</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="6">
         <f t="shared" si="10"/>
         <v>27.141582391433669</v>
       </c>
@@ -6937,7 +6936,7 @@
       <c r="E251">
         <v>65</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="6">
         <f t="shared" si="10"/>
         <v>28.507521599929827</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="E252">
         <v>65</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="6">
         <f t="shared" si="10"/>
         <v>18.587892133032113</v>
       </c>
@@ -6981,7 +6980,7 @@
       <c r="E253">
         <v>44</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="6">
         <f t="shared" si="10"/>
         <v>19.044321329639889</v>
       </c>
@@ -7003,7 +7002,7 @@
       <c r="E254">
         <v>81</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="6">
         <f t="shared" si="10"/>
         <v>21.301775147928993</v>
       </c>
@@ -7025,7 +7024,7 @@
       <c r="E255">
         <v>77</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="6">
         <f t="shared" si="10"/>
         <v>28.28282828282828</v>
       </c>
@@ -7047,7 +7046,7 @@
       <c r="E256">
         <v>88</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="6">
         <f t="shared" si="10"/>
         <v>34.375</v>
       </c>
@@ -7069,7 +7068,7 @@
       <c r="E257">
         <v>108</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="6">
         <f t="shared" si="10"/>
         <v>33.706813145657122</v>
       </c>
@@ -7091,7 +7090,7 @@
       <c r="E258">
         <v>73</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="6">
         <f t="shared" si="10"/>
         <v>28.162493730951734</v>
       </c>
@@ -7113,7 +7112,7 @@
       <c r="E259">
         <v>72</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="6">
         <f t="shared" si="10"/>
         <v>27.434842249657063</v>
       </c>
@@ -7135,7 +7134,7 @@
       <c r="E260">
         <v>100</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="6">
         <f t="shared" si="10"/>
         <v>30.189590629151066</v>
       </c>
@@ -7157,7 +7156,7 @@
       <c r="E261">
         <v>103</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="6">
         <f t="shared" si="10"/>
         <v>38.766984079190038</v>
       </c>
@@ -7179,7 +7178,7 @@
       <c r="E262">
         <v>53</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="6">
         <f t="shared" si="10"/>
         <v>22.060353798126954</v>
       </c>
@@ -7201,7 +7200,7 @@
       <c r="E263">
         <v>151</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="6">
         <f t="shared" si="10"/>
         <v>43.181103262889984</v>
       </c>
@@ -7223,12 +7222,12 @@
       <c r="E264">
         <v>72</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="6">
         <f t="shared" ref="F264:F327" si="12">E264/(D264/100*D264/100)</f>
         <v>19.130619619513229</v>
       </c>
       <c r="G264" t="str">
-        <f t="shared" ref="G264:G327" si="13">IF(F264&lt;F$1,D$1,IF(AND(F264&gt;=E$2,F264&lt;F$2),D$2,IF(AND(F264&gt;=E$3,F264&lt;F$3),D$3,IF(F264&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G264:G327" si="13">IF(F264&lt;=F$1,D$1,IF(AND(F264&gt;=E$2,F264&lt;=F$2),D$2,IF(AND(F264&gt;=E$3,F264&lt;=F$3),D$3,IF(F264&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H264">
@@ -7245,7 +7244,7 @@
       <c r="E265">
         <v>101</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="6">
         <f t="shared" si="12"/>
         <v>33.359756903157617</v>
       </c>
@@ -7267,7 +7266,7 @@
       <c r="E266">
         <v>60</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="6">
         <f t="shared" si="12"/>
         <v>21.513858510523864</v>
       </c>
@@ -7289,7 +7288,7 @@
       <c r="E267">
         <v>68</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="6">
         <f t="shared" si="12"/>
         <v>17.882971729125575</v>
       </c>
@@ -7311,7 +7310,7 @@
       <c r="E268">
         <v>61</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="6">
         <f t="shared" si="12"/>
         <v>18.827160493827158</v>
       </c>
@@ -7333,7 +7332,7 @@
       <c r="E269">
         <v>65</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="6">
         <f t="shared" si="12"/>
         <v>19.840664204389366</v>
       </c>
@@ -7355,7 +7354,7 @@
       <c r="E270">
         <v>64</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="6">
         <f t="shared" si="12"/>
         <v>17.72853185595568</v>
       </c>
@@ -7377,7 +7376,7 @@
       <c r="E271">
         <v>140</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="6">
         <f t="shared" si="12"/>
         <v>41.351606805293002</v>
       </c>
@@ -7399,7 +7398,7 @@
       <c r="E272">
         <v>85</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="6">
         <f t="shared" si="12"/>
         <v>22.353714661406968</v>
       </c>
@@ -7421,7 +7420,7 @@
       <c r="E273">
         <v>75</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="6">
         <f t="shared" si="12"/>
         <v>20.775623268698062</v>
       </c>
@@ -7443,7 +7442,7 @@
       <c r="E274">
         <v>69</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="6">
         <f t="shared" si="12"/>
         <v>17.961266139108705</v>
       </c>
@@ -7465,7 +7464,7 @@
       <c r="E275">
         <v>95</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="6">
         <f t="shared" si="12"/>
         <v>31.741788900397605</v>
       </c>
@@ -7487,7 +7486,7 @@
       <c r="E276">
         <v>65</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="6">
         <f t="shared" si="12"/>
         <v>27.055150884495319</v>
       </c>
@@ -7509,7 +7508,7 @@
       <c r="E277">
         <v>65</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="6">
         <f t="shared" si="12"/>
         <v>20.286507911738084</v>
       </c>
@@ -7531,7 +7530,7 @@
       <c r="E278">
         <v>59</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="6">
         <f t="shared" si="12"/>
         <v>20.904195011337869</v>
       </c>
@@ -7553,7 +7552,7 @@
       <c r="E279">
         <v>63</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="6">
         <f t="shared" si="12"/>
         <v>24.304617877396701</v>
       </c>
@@ -7575,7 +7574,7 @@
       <c r="E280">
         <v>81</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="6">
         <f t="shared" si="12"/>
         <v>20.661157024793386</v>
       </c>
@@ -7597,7 +7596,7 @@
       <c r="E281">
         <v>78</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="6">
         <f t="shared" si="12"/>
         <v>27.636054421768709</v>
       </c>
@@ -7619,7 +7618,7 @@
       <c r="E282">
         <v>98</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="6">
         <f t="shared" si="12"/>
         <v>37.34186861758878</v>
       </c>
@@ -7641,7 +7640,7 @@
       <c r="E283">
         <v>74</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="6">
         <f t="shared" si="12"/>
         <v>21.161600274528869</v>
       </c>
@@ -7663,7 +7662,7 @@
       <c r="E284">
         <v>92</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="6">
         <f t="shared" si="12"/>
         <v>37.804076265614725</v>
       </c>
@@ -7685,7 +7684,7 @@
       <c r="E285">
         <v>88</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="6">
         <f t="shared" si="12"/>
         <v>26.861206922865602</v>
       </c>
@@ -7707,7 +7706,7 @@
       <c r="E286">
         <v>123</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="6">
         <f t="shared" si="12"/>
         <v>42.560553633217992</v>
       </c>
@@ -7729,7 +7728,7 @@
       <c r="E287">
         <v>92</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="6">
         <f t="shared" si="12"/>
         <v>31.09789075175771</v>
       </c>
@@ -7751,7 +7750,7 @@
       <c r="E288">
         <v>53</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="6">
         <f t="shared" si="12"/>
         <v>23.244594535327398</v>
       </c>
@@ -7773,7 +7772,7 @@
       <c r="E289">
         <v>41</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="6">
         <f t="shared" si="12"/>
         <v>17.514631124781069</v>
       </c>
@@ -7795,7 +7794,7 @@
       <c r="E290">
         <v>55</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="6">
         <f t="shared" si="12"/>
         <v>21.484375</v>
       </c>
@@ -7817,7 +7816,7 @@
       <c r="E291">
         <v>90</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="6">
         <f t="shared" si="12"/>
         <v>36.982248520710058</v>
       </c>
@@ -7839,7 +7838,7 @@
       <c r="E292">
         <v>90</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="6">
         <f t="shared" si="12"/>
         <v>24.161722462347985</v>
       </c>
@@ -7861,7 +7860,7 @@
       <c r="E293">
         <v>96</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="6">
         <f t="shared" si="12"/>
         <v>33.217993079584772</v>
       </c>
@@ -7883,7 +7882,7 @@
       <c r="E294">
         <v>114</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="6">
         <f t="shared" si="12"/>
         <v>36.388011107919176</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="E295">
         <v>81</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="6">
         <f t="shared" si="12"/>
         <v>26.448979591836736</v>
       </c>
@@ -7927,7 +7926,7 @@
       <c r="E296">
         <v>66</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="6">
         <f t="shared" si="12"/>
         <v>26.438070821983658</v>
       </c>
@@ -7949,7 +7948,7 @@
       <c r="E297">
         <v>52</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="6">
         <f t="shared" si="12"/>
         <v>21.367521367521366</v>
       </c>
@@ -7971,7 +7970,7 @@
       <c r="E298">
         <v>86</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="6">
         <f t="shared" si="12"/>
         <v>35.796045785639961</v>
       </c>
@@ -7993,7 +7992,7 @@
       <c r="E299">
         <v>64</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="6">
         <f t="shared" si="12"/>
         <v>19.535423216629528</v>
       </c>
@@ -8015,7 +8014,7 @@
       <c r="E300">
         <v>76</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="6">
         <f t="shared" si="12"/>
         <v>26.297577854671278</v>
       </c>
@@ -8037,13 +8036,13 @@
       <c r="E301">
         <v>98</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="6">
         <f t="shared" si="12"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="13"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H301">
         <v>198</v>
@@ -8059,13 +8058,13 @@
       <c r="E302">
         <v>73</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="6">
         <f t="shared" si="12"/>
         <v>29.996712689020377</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="13"/>
-        <v>nadwaga</v>
+        <v>otylosc</v>
       </c>
       <c r="H302">
         <v>156</v>
@@ -8081,7 +8080,7 @@
       <c r="E303">
         <v>95</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="6">
         <f t="shared" si="12"/>
         <v>24.729279466888798</v>
       </c>
@@ -8103,7 +8102,7 @@
       <c r="E304">
         <v>67</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="6">
         <f t="shared" si="12"/>
         <v>26.502116213757365</v>
       </c>
@@ -8125,7 +8124,7 @@
       <c r="E305">
         <v>53</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="6">
         <f t="shared" si="12"/>
         <v>20.195092211553117</v>
       </c>
@@ -8147,7 +8146,7 @@
       <c r="E306">
         <v>71</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="6">
         <f t="shared" si="12"/>
         <v>27.053802773967384</v>
       </c>
@@ -8169,7 +8168,7 @@
       <c r="E307">
         <v>72</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="6">
         <f t="shared" si="12"/>
         <v>27.099251006812452</v>
       </c>
@@ -8191,7 +8190,7 @@
       <c r="E308">
         <v>54</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="6">
         <f t="shared" si="12"/>
         <v>18.253109789075179</v>
       </c>
@@ -8213,7 +8212,7 @@
       <c r="E309">
         <v>88</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="6">
         <f t="shared" si="12"/>
         <v>22.446689113355777</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="E310">
         <v>101</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="6">
         <f t="shared" si="12"/>
         <v>27.114821874412737</v>
       </c>
@@ -8257,7 +8256,7 @@
       <c r="E311">
         <v>69</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="6">
         <f t="shared" si="12"/>
         <v>20.380434782608695</v>
       </c>
@@ -8279,7 +8278,7 @@
       <c r="E312">
         <v>54</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="6">
         <f t="shared" si="12"/>
         <v>19.834710743801651</v>
       </c>
@@ -8301,7 +8300,7 @@
       <c r="E313">
         <v>102</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="6">
         <f t="shared" si="12"/>
         <v>28.554631729234906</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="E314">
         <v>103</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="6">
         <f t="shared" si="12"/>
         <v>30.756367762548898</v>
       </c>
@@ -8345,7 +8344,7 @@
       <c r="E315">
         <v>48</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="6">
         <f t="shared" si="12"/>
         <v>20.504933999743688</v>
       </c>
@@ -8367,7 +8366,7 @@
       <c r="E316">
         <v>67</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="6">
         <f t="shared" si="12"/>
         <v>17.440649729279468</v>
       </c>
@@ -8389,7 +8388,7 @@
       <c r="E317">
         <v>86</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="6">
         <f t="shared" si="12"/>
         <v>24.332277048438208</v>
       </c>
@@ -8411,7 +8410,7 @@
       <c r="E318">
         <v>79</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="6">
         <f t="shared" si="12"/>
         <v>25.216253311628201</v>
       </c>
@@ -8433,7 +8432,7 @@
       <c r="E319">
         <v>98</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="6">
         <f t="shared" si="12"/>
         <v>33.126014061654949</v>
       </c>
@@ -8455,7 +8454,7 @@
       <c r="E320">
         <v>97</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="6">
         <f t="shared" si="12"/>
         <v>26.040967542752828</v>
       </c>
@@ -8477,7 +8476,7 @@
       <c r="E321">
         <v>101</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="6">
         <f t="shared" si="12"/>
         <v>25.762677277828789</v>
       </c>
@@ -8499,7 +8498,7 @@
       <c r="E322">
         <v>69</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="6">
         <f t="shared" si="12"/>
         <v>19.113573407202217</v>
       </c>
@@ -8521,7 +8520,7 @@
       <c r="E323">
         <v>59</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="6">
         <f t="shared" si="12"/>
         <v>20.904195011337869</v>
       </c>
@@ -8543,7 +8542,7 @@
       <c r="E324">
         <v>96</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="6">
         <f t="shared" si="12"/>
         <v>27.748872702046476</v>
       </c>
@@ -8565,7 +8564,7 @@
       <c r="E325">
         <v>116</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="6">
         <f t="shared" si="12"/>
         <v>33.172238268180386</v>
       </c>
@@ -8587,7 +8586,7 @@
       <c r="E326">
         <v>89</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="6">
         <f t="shared" si="12"/>
         <v>26.287807183364837</v>
       </c>
@@ -8609,7 +8608,7 @@
       <c r="E327">
         <v>116</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="6">
         <f t="shared" si="12"/>
         <v>32.473894907757341</v>
       </c>
@@ -8631,12 +8630,12 @@
       <c r="E328">
         <v>46</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="6">
         <f t="shared" ref="F328:F391" si="14">E328/(D328/100*D328/100)</f>
         <v>20.174553747642648</v>
       </c>
       <c r="G328" t="str">
-        <f t="shared" ref="G328:G391" si="15">IF(F328&lt;F$1,D$1,IF(AND(F328&gt;=E$2,F328&lt;F$2),D$2,IF(AND(F328&gt;=E$3,F328&lt;F$3),D$3,IF(F328&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G328:G391" si="15">IF(F328&lt;=F$1,D$1,IF(AND(F328&gt;=E$2,F328&lt;=F$2),D$2,IF(AND(F328&gt;=E$3,F328&lt;=F$3),D$3,IF(F328&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H328">
@@ -8653,7 +8652,7 @@
       <c r="E329">
         <v>88</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="6">
         <f t="shared" si="14"/>
         <v>38.594798473751148</v>
       </c>
@@ -8675,7 +8674,7 @@
       <c r="E330">
         <v>49</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="6">
         <f t="shared" si="14"/>
         <v>19.140625</v>
       </c>
@@ -8697,7 +8696,7 @@
       <c r="E331">
         <v>75</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="6">
         <f t="shared" si="14"/>
         <v>18.938915683947375</v>
       </c>
@@ -8719,7 +8718,7 @@
       <c r="E332">
         <v>90</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="6">
         <f t="shared" si="14"/>
         <v>30.778701138811947</v>
       </c>
@@ -8741,7 +8740,7 @@
       <c r="E333">
         <v>68</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="6">
         <f t="shared" si="14"/>
         <v>24.382372978593711</v>
       </c>
@@ -8763,7 +8762,7 @@
       <c r="E334">
         <v>67</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="6">
         <f t="shared" si="14"/>
         <v>25.217358575783809</v>
       </c>
@@ -8785,7 +8784,7 @@
       <c r="E335">
         <v>97</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="6">
         <f t="shared" si="14"/>
         <v>36.06484235574063</v>
       </c>
@@ -8807,7 +8806,7 @@
       <c r="E336">
         <v>49</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="6">
         <f t="shared" si="14"/>
         <v>17.15626203564301</v>
       </c>
@@ -8829,7 +8828,7 @@
       <c r="E337">
         <v>108</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="6">
         <f t="shared" si="14"/>
         <v>35.265306122448976</v>
       </c>
@@ -8851,7 +8850,7 @@
       <c r="E338">
         <v>33</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="6">
         <f t="shared" si="14"/>
         <v>13.053281120208851</v>
       </c>
@@ -8873,7 +8872,7 @@
       <c r="E339">
         <v>51</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="6">
         <f t="shared" si="14"/>
         <v>17.856517628934562</v>
       </c>
@@ -8895,7 +8894,7 @@
       <c r="E340">
         <v>72</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="6">
         <f t="shared" si="14"/>
         <v>18.934911242603548</v>
       </c>
@@ -8917,7 +8916,7 @@
       <c r="E341">
         <v>54</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="6">
         <f t="shared" si="14"/>
         <v>18.906901018871888</v>
       </c>
@@ -8939,7 +8938,7 @@
       <c r="E342">
         <v>54</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="6">
         <f t="shared" si="14"/>
         <v>18.685121107266436</v>
       </c>
@@ -8961,7 +8960,7 @@
       <c r="E343">
         <v>51</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="6">
         <f t="shared" si="14"/>
         <v>14.127423822714682</v>
       </c>
@@ -8983,7 +8982,7 @@
       <c r="E344">
         <v>84</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="6">
         <f t="shared" si="14"/>
         <v>23.515579071134628</v>
       </c>
@@ -9005,7 +9004,7 @@
       <c r="E345">
         <v>96</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="6">
         <f t="shared" si="14"/>
         <v>35.693039857227838</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="E346">
         <v>108</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="6">
         <f t="shared" si="14"/>
         <v>34.086605226612804</v>
       </c>
@@ -9049,7 +9048,7 @@
       <c r="E347">
         <v>109</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="6">
         <f t="shared" si="14"/>
         <v>29.568142361111111</v>
       </c>
@@ -9071,7 +9070,7 @@
       <c r="E348">
         <v>63</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="6">
         <f t="shared" si="14"/>
         <v>26.91272587466359</v>
       </c>
@@ -9093,7 +9092,7 @@
       <c r="E349">
         <v>36</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="6">
         <f t="shared" si="14"/>
         <v>14.0625</v>
       </c>
@@ -9115,7 +9114,7 @@
       <c r="E350">
         <v>66</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="6">
         <f t="shared" si="14"/>
         <v>29.333333333333332</v>
       </c>
@@ -9137,7 +9136,7 @@
       <c r="E351">
         <v>108</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="6">
         <f t="shared" si="14"/>
         <v>32.966026678062327</v>
       </c>
@@ -9159,7 +9158,7 @@
       <c r="E352">
         <v>99</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="6">
         <f t="shared" si="14"/>
         <v>26.577894708582782</v>
       </c>
@@ -9181,7 +9180,7 @@
       <c r="E353">
         <v>88</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="6">
         <f t="shared" si="14"/>
         <v>23.381868423849504</v>
       </c>
@@ -9203,7 +9202,7 @@
       <c r="E354">
         <v>73</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="6">
         <f t="shared" si="14"/>
         <v>26.813590449954084</v>
       </c>
@@ -9225,7 +9224,7 @@
       <c r="E355">
         <v>120</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="6">
         <f t="shared" si="14"/>
         <v>35.06208911614317</v>
       </c>
@@ -9247,7 +9246,7 @@
       <c r="E356">
         <v>101</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="6">
         <f t="shared" si="14"/>
         <v>32.979591836734691</v>
       </c>
@@ -9269,7 +9268,7 @@
       <c r="E357">
         <v>97</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="6">
         <f t="shared" si="14"/>
         <v>27.154894879762605</v>
       </c>
@@ -9291,7 +9290,7 @@
       <c r="E358">
         <v>62</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="6">
         <f t="shared" si="14"/>
         <v>20.244897959183675</v>
       </c>
@@ -9313,7 +9312,7 @@
       <c r="E359">
         <v>65</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="6">
         <f t="shared" si="14"/>
         <v>19.409358296754156</v>
       </c>
@@ -9335,7 +9334,7 @@
       <c r="E360">
         <v>115</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="6">
         <f t="shared" si="14"/>
         <v>30.555850781166967</v>
       </c>
@@ -9357,7 +9356,7 @@
       <c r="E361">
         <v>91</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="6">
         <f t="shared" si="14"/>
         <v>27.472527472527471</v>
       </c>
@@ -9379,7 +9378,7 @@
       <c r="E362">
         <v>86</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="6">
         <f t="shared" si="14"/>
         <v>33.177732340573279</v>
       </c>
@@ -9401,7 +9400,7 @@
       <c r="E363">
         <v>94</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="6">
         <f t="shared" si="14"/>
         <v>31.047694543532831</v>
       </c>
@@ -9423,7 +9422,7 @@
       <c r="E364">
         <v>109</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="6">
         <f t="shared" si="14"/>
         <v>41.533302850175275</v>
       </c>
@@ -9445,7 +9444,7 @@
       <c r="E365">
         <v>78</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="6">
         <f t="shared" si="14"/>
         <v>33.320517749583495</v>
       </c>
@@ -9467,7 +9466,7 @@
       <c r="E366">
         <v>116</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="6">
         <f t="shared" si="14"/>
         <v>37.877551020408163</v>
       </c>
@@ -9489,7 +9488,7 @@
       <c r="E367">
         <v>101</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="6">
         <f t="shared" si="14"/>
         <v>30.159156738033385</v>
       </c>
@@ -9511,7 +9510,7 @@
       <c r="E368">
         <v>50</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="6">
         <f t="shared" si="14"/>
         <v>18.818924310286427</v>
       </c>
@@ -9533,7 +9532,7 @@
       <c r="E369">
         <v>69</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="6">
         <f t="shared" si="14"/>
         <v>18.913955209561141</v>
       </c>
@@ -9555,7 +9554,7 @@
       <c r="E370">
         <v>93</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="6">
         <f t="shared" si="14"/>
         <v>27.770312639971333</v>
       </c>
@@ -9577,7 +9576,7 @@
       <c r="E371">
         <v>53</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="6">
         <f t="shared" si="14"/>
         <v>21.230572023714149</v>
       </c>
@@ -9599,7 +9598,7 @@
       <c r="E372">
         <v>57</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="6">
         <f t="shared" si="14"/>
         <v>20.195578231292515</v>
       </c>
@@ -9621,7 +9620,7 @@
       <c r="E373">
         <v>63</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="6">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
@@ -9643,7 +9642,7 @@
       <c r="E374">
         <v>66</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="6">
         <f t="shared" si="14"/>
         <v>21.066743273005841</v>
       </c>
@@ -9665,7 +9664,7 @@
       <c r="E375">
         <v>76</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="6">
         <f t="shared" si="14"/>
         <v>27.915518824609734</v>
       </c>
@@ -9687,7 +9686,7 @@
       <c r="E376">
         <v>106</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="6">
         <f t="shared" si="14"/>
         <v>36.250470230156289</v>
       </c>
@@ -9709,7 +9708,7 @@
       <c r="E377">
         <v>52</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="6">
         <f t="shared" si="14"/>
         <v>13.536026655560184</v>
       </c>
@@ -9731,7 +9730,7 @@
       <c r="E378">
         <v>60</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="6">
         <f t="shared" si="14"/>
         <v>23.733238400379729</v>
       </c>
@@ -9753,7 +9752,7 @@
       <c r="E379">
         <v>105</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="6">
         <f t="shared" si="14"/>
         <v>40.009144947416551</v>
       </c>
@@ -9775,7 +9774,7 @@
       <c r="E380">
         <v>90</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="6">
         <f t="shared" si="14"/>
         <v>25.737081414967541</v>
       </c>
@@ -9797,7 +9796,7 @@
       <c r="E381">
         <v>84</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="6">
         <f t="shared" si="14"/>
         <v>22.550940964858118</v>
       </c>
@@ -9819,7 +9818,7 @@
       <c r="E382">
         <v>53</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="6">
         <f t="shared" si="14"/>
         <v>15.826092149661083</v>
       </c>
@@ -9841,7 +9840,7 @@
       <c r="E383">
         <v>66</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="6">
         <f t="shared" si="14"/>
         <v>21.551020408163264</v>
       </c>
@@ -9863,7 +9862,7 @@
       <c r="E384">
         <v>64</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="6">
         <f t="shared" si="14"/>
         <v>22.675736961451246</v>
       </c>
@@ -9885,7 +9884,7 @@
       <c r="E385">
         <v>82</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="6">
         <f t="shared" si="14"/>
         <v>23.702162099664697</v>
       </c>
@@ -9907,7 +9906,7 @@
       <c r="E386">
         <v>41</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="6">
         <f t="shared" si="14"/>
         <v>15.059687786960513</v>
       </c>
@@ -9929,7 +9928,7 @@
       <c r="E387">
         <v>87</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="6">
         <f t="shared" si="14"/>
         <v>37.165192874535435</v>
       </c>
@@ -9951,7 +9950,7 @@
       <c r="E388">
         <v>59</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="6">
         <f t="shared" si="14"/>
         <v>17.426748582230623</v>
       </c>
@@ -9973,7 +9972,7 @@
       <c r="E389">
         <v>64</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="6">
         <f t="shared" si="14"/>
         <v>23.225431847873423</v>
       </c>
@@ -9995,7 +9994,7 @@
       <c r="E390">
         <v>82</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="6">
         <f t="shared" si="14"/>
         <v>32.435425813852298</v>
       </c>
@@ -10017,7 +10016,7 @@
       <c r="E391">
         <v>81</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="6">
         <f t="shared" si="14"/>
         <v>26.149276859504134</v>
       </c>
@@ -10039,12 +10038,12 @@
       <c r="E392">
         <v>70</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="6">
         <f t="shared" ref="F392:F455" si="16">E392/(D392/100*D392/100)</f>
         <v>24.221453287197232</v>
       </c>
       <c r="G392" t="str">
-        <f t="shared" ref="G392:G455" si="17">IF(F392&lt;F$1,D$1,IF(AND(F392&gt;=E$2,F392&lt;F$2),D$2,IF(AND(F392&gt;=E$3,F392&lt;F$3),D$3,IF(F392&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G392:G455" si="17">IF(F392&lt;=F$1,D$1,IF(AND(F392&gt;=E$2,F392&lt;=F$2),D$2,IF(AND(F392&gt;=E$3,F392&lt;=F$3),D$3,IF(F392&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H392">
@@ -10061,7 +10060,7 @@
       <c r="E393">
         <v>99</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="6">
         <f t="shared" si="16"/>
         <v>30.218857788223804</v>
       </c>
@@ -10083,7 +10082,7 @@
       <c r="E394">
         <v>71</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="6">
         <f t="shared" si="16"/>
         <v>30.330214874620872</v>
       </c>
@@ -10105,7 +10104,7 @@
       <c r="E395">
         <v>92</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="6">
         <f t="shared" si="16"/>
         <v>24.444680624933572</v>
       </c>
@@ -10127,7 +10126,7 @@
       <c r="E396">
         <v>63</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="6">
         <f t="shared" si="16"/>
         <v>18.812147272238647</v>
       </c>
@@ -10149,7 +10148,7 @@
       <c r="E397">
         <v>59</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="6">
         <f t="shared" si="16"/>
         <v>17.053994681466062</v>
       </c>
@@ -10171,7 +10170,7 @@
       <c r="E398">
         <v>52</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="6">
         <f t="shared" si="16"/>
         <v>18.206645425580337</v>
       </c>
@@ -10193,7 +10192,7 @@
       <c r="E399">
         <v>76</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="6">
         <f t="shared" si="16"/>
         <v>29.6875</v>
       </c>
@@ -10215,7 +10214,7 @@
       <c r="E400">
         <v>138</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="6">
         <f t="shared" si="16"/>
         <v>38.227146814404435</v>
       </c>
@@ -10237,7 +10236,7 @@
       <c r="E401">
         <v>108</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="6">
         <f t="shared" si="16"/>
         <v>31.555880204528854</v>
       </c>
@@ -10259,7 +10258,7 @@
       <c r="E402">
         <v>92</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="6">
         <f t="shared" si="16"/>
         <v>24.69864962817794</v>
       </c>
@@ -10281,7 +10280,7 @@
       <c r="E403">
         <v>62</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="6">
         <f t="shared" si="16"/>
         <v>25.153150229218223</v>
       </c>
@@ -10303,7 +10302,7 @@
       <c r="E404">
         <v>101</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="6">
         <f t="shared" si="16"/>
         <v>25.504406454382465</v>
       </c>
@@ -10325,7 +10324,7 @@
       <c r="E405">
         <v>71</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="6">
         <f t="shared" si="16"/>
         <v>27.390918560240728</v>
       </c>
@@ -10347,7 +10346,7 @@
       <c r="E406">
         <v>57</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="6">
         <f t="shared" si="16"/>
         <v>23.124670372023203</v>
       </c>
@@ -10369,7 +10368,7 @@
       <c r="E407">
         <v>71</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="6">
         <f t="shared" si="16"/>
         <v>28.804413972169254</v>
       </c>
@@ -10391,7 +10390,7 @@
       <c r="E408">
         <v>92</v>
       </c>
-      <c r="F408">
+      <c r="F408" s="6">
         <f t="shared" si="16"/>
         <v>29.365763350250564</v>
       </c>
@@ -10413,13 +10412,13 @@
       <c r="E409">
         <v>98</v>
       </c>
-      <c r="F409">
+      <c r="F409" s="6">
         <f t="shared" si="16"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G409" t="str">
         <f t="shared" si="17"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H409">
         <v>198</v>
@@ -10435,7 +10434,7 @@
       <c r="E410">
         <v>64</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="6">
         <f t="shared" si="16"/>
         <v>28.068944344546292</v>
       </c>
@@ -10457,7 +10456,7 @@
       <c r="E411">
         <v>106</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="6">
         <f t="shared" si="16"/>
         <v>32.355544702542659</v>
       </c>
@@ -10479,7 +10478,7 @@
       <c r="E412">
         <v>66</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="6">
         <f t="shared" si="16"/>
         <v>22.571047501795427</v>
       </c>
@@ -10501,7 +10500,7 @@
       <c r="E413">
         <v>56</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="6">
         <f t="shared" si="16"/>
         <v>14.284256708499132</v>
       </c>
@@ -10523,7 +10522,7 @@
       <c r="E414">
         <v>73</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="6">
         <f t="shared" si="16"/>
         <v>21.561909262759922</v>
       </c>
@@ -10545,7 +10544,7 @@
       <c r="E415">
         <v>78</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="6">
         <f t="shared" si="16"/>
         <v>21.158854166666668</v>
       </c>
@@ -10567,7 +10566,7 @@
       <c r="E416">
         <v>65</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="6">
         <f t="shared" si="16"/>
         <v>16.413726926087726</v>
       </c>
@@ -10589,7 +10588,7 @@
       <c r="E417">
         <v>93</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="6">
         <f t="shared" si="16"/>
         <v>29.352354500694357</v>
       </c>
@@ -10611,7 +10610,7 @@
       <c r="E418">
         <v>88</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="6">
         <f t="shared" si="16"/>
         <v>27.774270925388208</v>
       </c>
@@ -10633,7 +10632,7 @@
       <c r="E419">
         <v>81</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="6">
         <f t="shared" si="16"/>
         <v>24.724520008546747</v>
       </c>
@@ -10655,7 +10654,7 @@
       <c r="E420">
         <v>79</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="6">
         <f t="shared" si="16"/>
         <v>33.747703874578157</v>
       </c>
@@ -10677,7 +10676,7 @@
       <c r="E421">
         <v>52</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="6">
         <f t="shared" si="16"/>
         <v>18.424036281179138</v>
       </c>
@@ -10699,7 +10698,7 @@
       <c r="E422">
         <v>49</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="6">
         <f t="shared" si="16"/>
         <v>18.903591682419659</v>
       </c>
@@ -10721,7 +10720,7 @@
       <c r="E423">
         <v>61</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="6">
         <f t="shared" si="16"/>
         <v>15.878800499791755</v>
       </c>
@@ -10743,7 +10742,7 @@
       <c r="E424">
         <v>55</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="6">
         <f t="shared" si="16"/>
         <v>18.166204254194742</v>
       </c>
@@ -10765,7 +10764,7 @@
       <c r="E425">
         <v>101</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="6">
         <f t="shared" si="16"/>
         <v>26.561472715318867</v>
       </c>
@@ -10787,7 +10786,7 @@
       <c r="E426">
         <v>112</v>
       </c>
-      <c r="F426">
+      <c r="F426" s="6">
         <f t="shared" si="16"/>
         <v>30.700912803925331</v>
       </c>
@@ -10809,7 +10808,7 @@
       <c r="E427">
         <v>91</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="6">
         <f t="shared" si="16"/>
         <v>36.452491587886556</v>
       </c>
@@ -10831,7 +10830,7 @@
       <c r="E428">
         <v>102</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="6">
         <f t="shared" si="16"/>
         <v>28.554631729234906</v>
       </c>
@@ -10853,7 +10852,7 @@
       <c r="E429">
         <v>53</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="6">
         <f t="shared" si="16"/>
         <v>21.501886486267189</v>
       </c>
@@ -10875,7 +10874,7 @@
       <c r="E430">
         <v>76</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="6">
         <f t="shared" si="16"/>
         <v>22.694018931589476</v>
       </c>
@@ -10897,7 +10896,7 @@
       <c r="E431">
         <v>86</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="6">
         <f t="shared" si="16"/>
         <v>30.470521541950113</v>
       </c>
@@ -10919,7 +10918,7 @@
       <c r="E432">
         <v>62</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="6">
         <f t="shared" si="16"/>
         <v>24.21875</v>
       </c>
@@ -10941,7 +10940,7 @@
       <c r="E433">
         <v>74</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="6">
         <f t="shared" si="16"/>
         <v>19.866305135708341</v>
       </c>
@@ -10963,7 +10962,7 @@
       <c r="E434">
         <v>56</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="6">
         <f t="shared" si="16"/>
         <v>21.875</v>
       </c>
@@ -10985,7 +10984,7 @@
       <c r="E435">
         <v>70</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="6">
         <f t="shared" si="16"/>
         <v>28.04037814452812</v>
       </c>
@@ -11007,7 +11006,7 @@
       <c r="E436">
         <v>52</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="6">
         <f t="shared" si="16"/>
         <v>21.644120707596255</v>
       </c>
@@ -11029,7 +11028,7 @@
       <c r="E437">
         <v>63</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="6">
         <f t="shared" si="16"/>
         <v>18.812147272238647</v>
       </c>
@@ -11051,7 +11050,7 @@
       <c r="E438">
         <v>55</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="6">
         <f t="shared" si="16"/>
         <v>20.202020202020201</v>
       </c>
@@ -11073,7 +11072,7 @@
       <c r="E439">
         <v>65</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="6">
         <f t="shared" si="16"/>
         <v>20.286507911738084</v>
       </c>
@@ -11095,7 +11094,7 @@
       <c r="E440">
         <v>66</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="6">
         <f t="shared" si="16"/>
         <v>19.707963809011915</v>
       </c>
@@ -11117,7 +11116,7 @@
       <c r="E441">
         <v>95</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="6">
         <f t="shared" si="16"/>
         <v>42.222222222222221</v>
       </c>
@@ -11139,7 +11138,7 @@
       <c r="E442">
         <v>76</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="6">
         <f t="shared" si="16"/>
         <v>21.05263157894737</v>
       </c>
@@ -11161,7 +11160,7 @@
       <c r="E443">
         <v>63</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="6">
         <f t="shared" si="16"/>
         <v>19.230182228869694</v>
       </c>
@@ -11183,7 +11182,7 @@
       <c r="E444">
         <v>110</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="6">
         <f t="shared" si="16"/>
         <v>30.470914127423825</v>
       </c>
@@ -11205,7 +11204,7 @@
       <c r="E445">
         <v>86</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="6">
         <f t="shared" si="16"/>
         <v>21.71662331759299</v>
       </c>
@@ -11227,7 +11226,7 @@
       <c r="E446">
         <v>96</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="6">
         <f t="shared" si="16"/>
         <v>31.708283789139912</v>
       </c>
@@ -11249,7 +11248,7 @@
       <c r="E447">
         <v>68</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="6">
         <f t="shared" si="16"/>
         <v>19.868517165814463</v>
       </c>
@@ -11271,7 +11270,7 @@
       <c r="E448">
         <v>98</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="6">
         <f t="shared" si="16"/>
         <v>31.28092182961473</v>
       </c>
@@ -11293,7 +11292,7 @@
       <c r="E449">
         <v>101</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="6">
         <f t="shared" si="16"/>
         <v>28.274684359340444</v>
       </c>
@@ -11315,7 +11314,7 @@
       <c r="E450">
         <v>67</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="6">
         <f t="shared" si="16"/>
         <v>26.838647652619773</v>
       </c>
@@ -11337,7 +11336,7 @@
       <c r="E451">
         <v>126</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="6">
         <f t="shared" si="16"/>
         <v>34.1796875</v>
       </c>
@@ -11359,7 +11358,7 @@
       <c r="E452">
         <v>109</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="6">
         <f t="shared" si="16"/>
         <v>33.271267665822165</v>
       </c>
@@ -11381,7 +11380,7 @@
       <c r="E453">
         <v>75</v>
       </c>
-      <c r="F453">
+      <c r="F453" s="6">
         <f t="shared" si="16"/>
         <v>29.666548000474663</v>
       </c>
@@ -11403,7 +11402,7 @@
       <c r="E454">
         <v>60</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="6">
         <f t="shared" si="16"/>
         <v>21.773842357381334</v>
       </c>
@@ -11425,7 +11424,7 @@
       <c r="E455">
         <v>73</v>
       </c>
-      <c r="F455">
+      <c r="F455" s="6">
         <f t="shared" si="16"/>
         <v>20.875632703251451</v>
       </c>
@@ -11447,12 +11446,12 @@
       <c r="E456">
         <v>93</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="6">
         <f t="shared" ref="F456:F519" si="18">E456/(D456/100*D456/100)</f>
         <v>33.749455653941069</v>
       </c>
       <c r="G456" t="str">
-        <f t="shared" ref="G456:G519" si="19">IF(F456&lt;F$1,D$1,IF(AND(F456&gt;=E$2,F456&lt;F$2),D$2,IF(AND(F456&gt;=E$3,F456&lt;F$3),D$3,IF(F456&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G456:G519" si="19">IF(F456&lt;=F$1,D$1,IF(AND(F456&gt;=E$2,F456&lt;=F$2),D$2,IF(AND(F456&gt;=E$3,F456&lt;=F$3),D$3,IF(F456&gt;=E$5,D$5,D$4))))</f>
         <v>otylosc</v>
       </c>
       <c r="H456">
@@ -11469,7 +11468,7 @@
       <c r="E457">
         <v>93</v>
       </c>
-      <c r="F457">
+      <c r="F457" s="6">
         <f t="shared" si="18"/>
         <v>28.076319285110493</v>
       </c>
@@ -11491,7 +11490,7 @@
       <c r="E458">
         <v>115</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="6">
         <f t="shared" si="18"/>
         <v>30.555850781166967</v>
       </c>
@@ -11513,7 +11512,7 @@
       <c r="E459">
         <v>65</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="6">
         <f t="shared" si="18"/>
         <v>20.286507911738084</v>
       </c>
@@ -11535,7 +11534,7 @@
       <c r="E460">
         <v>60</v>
       </c>
-      <c r="F460">
+      <c r="F460" s="6">
         <f t="shared" si="18"/>
         <v>15.779092702169624</v>
       </c>
@@ -11557,7 +11556,7 @@
       <c r="E461">
         <v>56</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="6">
         <f t="shared" si="18"/>
         <v>19.151191819705211</v>
       </c>
@@ -11579,7 +11578,7 @@
       <c r="E462">
         <v>49</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="6">
         <f t="shared" si="18"/>
         <v>17.15626203564301</v>
       </c>
@@ -11601,7 +11600,7 @@
       <c r="E463">
         <v>114</v>
       </c>
-      <c r="F463">
+      <c r="F463" s="6">
         <f t="shared" si="18"/>
         <v>32.254413761883207</v>
       </c>
@@ -11623,13 +11622,13 @@
       <c r="E464">
         <v>98</v>
       </c>
-      <c r="F464">
+      <c r="F464" s="6">
         <f t="shared" si="18"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G464" t="str">
         <f t="shared" si="19"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H464">
         <v>198</v>
@@ -11645,7 +11644,7 @@
       <c r="E465">
         <v>56</v>
       </c>
-      <c r="F465">
+      <c r="F465" s="6">
         <f t="shared" si="18"/>
         <v>20.820939916716242</v>
       </c>
@@ -11667,7 +11666,7 @@
       <c r="E466">
         <v>53</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="6">
         <f t="shared" si="18"/>
         <v>18.556773222226113</v>
       </c>
@@ -11689,7 +11688,7 @@
       <c r="E467">
         <v>49</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="6">
         <f t="shared" si="18"/>
         <v>18.442545824080696</v>
       </c>
@@ -11711,7 +11710,7 @@
       <c r="E468">
         <v>80</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="6">
         <f t="shared" si="18"/>
         <v>27.681660899653977</v>
       </c>
@@ -11733,7 +11732,7 @@
       <c r="E469">
         <v>83</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="6">
         <f t="shared" si="18"/>
         <v>32.020369584506767</v>
       </c>
@@ -11755,7 +11754,7 @@
       <c r="E470">
         <v>67</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="6">
         <f t="shared" si="18"/>
         <v>24.023808670084982</v>
       </c>
@@ -11777,7 +11776,7 @@
       <c r="E471">
         <v>65</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="6">
         <f t="shared" si="18"/>
         <v>28.133656509695292</v>
       </c>
@@ -11799,7 +11798,7 @@
       <c r="E472">
         <v>51</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="6">
         <f t="shared" si="18"/>
         <v>15.917106207671418</v>
       </c>
@@ -11821,7 +11820,7 @@
       <c r="E473">
         <v>102</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="6">
         <f t="shared" si="18"/>
         <v>27.959759875003428</v>
       </c>
@@ -11843,7 +11842,7 @@
       <c r="E474">
         <v>93</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="6">
         <f t="shared" si="18"/>
         <v>29.684956430144592</v>
       </c>
@@ -11865,7 +11864,7 @@
       <c r="E475">
         <v>54</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="6">
         <f t="shared" si="18"/>
         <v>22.47658688865765</v>
       </c>
@@ -11887,7 +11886,7 @@
       <c r="E476">
         <v>120</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="6">
         <f t="shared" si="18"/>
         <v>32.893835147062859</v>
       </c>
@@ -11909,7 +11908,7 @@
       <c r="E477">
         <v>79</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="6">
         <f t="shared" si="18"/>
         <v>24.382716049382715</v>
       </c>
@@ -11931,7 +11930,7 @@
       <c r="E478">
         <v>93</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="6">
         <f t="shared" si="18"/>
         <v>27.469281663516067</v>
       </c>
@@ -11953,7 +11952,7 @@
       <c r="E479">
         <v>65</v>
       </c>
-      <c r="F479">
+      <c r="F479" s="6">
         <f t="shared" si="18"/>
         <v>23.030045351473923</v>
       </c>
@@ -11975,7 +11974,7 @@
       <c r="E480">
         <v>48</v>
       </c>
-      <c r="F480">
+      <c r="F480" s="6">
         <f t="shared" si="18"/>
         <v>18.986590720303784</v>
       </c>
@@ -11997,7 +11996,7 @@
       <c r="E481">
         <v>75</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="6">
         <f t="shared" si="18"/>
         <v>18.938915683947375</v>
       </c>
@@ -12019,7 +12018,7 @@
       <c r="E482">
         <v>97</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="6">
         <f t="shared" si="18"/>
         <v>33.564013840830448</v>
       </c>
@@ -12041,7 +12040,7 @@
       <c r="E483">
         <v>82</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="6">
         <f t="shared" si="18"/>
         <v>28.373702422145328</v>
       </c>
@@ -12063,7 +12062,7 @@
       <c r="E484">
         <v>102</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="6">
         <f t="shared" si="18"/>
         <v>31.134580751503311</v>
       </c>
@@ -12085,7 +12084,7 @@
       <c r="E485">
         <v>50</v>
       </c>
-      <c r="F485">
+      <c r="F485" s="6">
         <f t="shared" si="18"/>
         <v>18.5901249256395</v>
       </c>
@@ -12107,7 +12106,7 @@
       <c r="E486">
         <v>99</v>
       </c>
-      <c r="F486">
+      <c r="F486" s="6">
         <f t="shared" si="18"/>
         <v>33.464034613304491</v>
       </c>
@@ -12129,7 +12128,7 @@
       <c r="E487">
         <v>44</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="6">
         <f t="shared" si="18"/>
         <v>18.796189499765049</v>
       </c>
@@ -12151,7 +12150,7 @@
       <c r="E488">
         <v>75</v>
       </c>
-      <c r="F488">
+      <c r="F488" s="6">
         <f t="shared" si="18"/>
         <v>26.892323138154829</v>
       </c>
@@ -12173,7 +12172,7 @@
       <c r="E489">
         <v>97</v>
       </c>
-      <c r="F489">
+      <c r="F489" s="6">
         <f t="shared" si="18"/>
         <v>36.06484235574063</v>
       </c>
@@ -12195,7 +12194,7 @@
       <c r="E490">
         <v>95</v>
       </c>
-      <c r="F490">
+      <c r="F490" s="6">
         <f t="shared" si="18"/>
         <v>25.50404037692287</v>
       </c>
@@ -12217,7 +12216,7 @@
       <c r="E491">
         <v>106</v>
       </c>
-      <c r="F491">
+      <c r="F491" s="6">
         <f t="shared" si="18"/>
         <v>31.652184299322165</v>
       </c>
@@ -12239,7 +12238,7 @@
       <c r="E492">
         <v>91</v>
       </c>
-      <c r="F492">
+      <c r="F492" s="6">
         <f t="shared" si="18"/>
         <v>27.776929886145112</v>
       </c>
@@ -12261,7 +12260,7 @@
       <c r="E493">
         <v>120</v>
       </c>
-      <c r="F493">
+      <c r="F493" s="6">
         <f t="shared" si="18"/>
         <v>32.215629949797311</v>
       </c>
@@ -12283,7 +12282,7 @@
       <c r="E494">
         <v>125</v>
       </c>
-      <c r="F494">
+      <c r="F494" s="6">
         <f t="shared" si="18"/>
         <v>34.626038781163437</v>
       </c>
@@ -12305,7 +12304,7 @@
       <c r="E495">
         <v>57</v>
       </c>
-      <c r="F495">
+      <c r="F495" s="6">
         <f t="shared" si="18"/>
         <v>20.9366391184573</v>
       </c>
@@ -12327,7 +12326,7 @@
       <c r="E496">
         <v>72</v>
       </c>
-      <c r="F496">
+      <c r="F496" s="6">
         <f t="shared" si="18"/>
         <v>19.736301088237713</v>
       </c>
@@ -12349,7 +12348,7 @@
       <c r="E497">
         <v>55</v>
       </c>
-      <c r="F497">
+      <c r="F497" s="6">
         <f t="shared" si="18"/>
         <v>21.218317194552675</v>
       </c>
@@ -12371,7 +12370,7 @@
       <c r="E498">
         <v>67</v>
       </c>
-      <c r="F498">
+      <c r="F498" s="6">
         <f t="shared" si="18"/>
         <v>24.023808670084982</v>
       </c>
@@ -12393,7 +12392,7 @@
       <c r="E499">
         <v>131</v>
       </c>
-      <c r="F499">
+      <c r="F499" s="6">
         <f t="shared" si="18"/>
         <v>37.064282480760525</v>
       </c>
@@ -12415,7 +12414,7 @@
       <c r="E500">
         <v>79</v>
       </c>
-      <c r="F500">
+      <c r="F500" s="6">
         <f t="shared" si="18"/>
         <v>22.591438130915954</v>
       </c>
@@ -12437,7 +12436,7 @@
       <c r="E501">
         <v>65</v>
       </c>
-      <c r="F501">
+      <c r="F501" s="6">
         <f t="shared" si="18"/>
         <v>28.133656509695292</v>
       </c>
@@ -12459,7 +12458,7 @@
       <c r="E502">
         <v>99</v>
       </c>
-      <c r="F502">
+      <c r="F502" s="6">
         <f t="shared" si="18"/>
         <v>26.85546875</v>
       </c>
@@ -12481,7 +12480,7 @@
       <c r="E503">
         <v>67</v>
       </c>
-      <c r="F503">
+      <c r="F503" s="6">
         <f t="shared" si="18"/>
         <v>24.910767400356931</v>
       </c>
@@ -12503,7 +12502,7 @@
       <c r="E504">
         <v>52</v>
       </c>
-      <c r="F504">
+      <c r="F504" s="6">
         <f t="shared" si="18"/>
         <v>18.645344042454013</v>
       </c>
@@ -12525,7 +12524,7 @@
       <c r="E505">
         <v>89</v>
       </c>
-      <c r="F505">
+      <c r="F505" s="6">
         <f t="shared" si="18"/>
         <v>29.737044338267232</v>
       </c>
@@ -12547,7 +12546,7 @@
       <c r="E506">
         <v>71</v>
       </c>
-      <c r="F506">
+      <c r="F506" s="6">
         <f t="shared" si="18"/>
         <v>23.450918219051392</v>
       </c>
@@ -12569,7 +12568,7 @@
       <c r="E507">
         <v>74</v>
       </c>
-      <c r="F507">
+      <c r="F507" s="6">
         <f t="shared" si="18"/>
         <v>27.852007979223909</v>
       </c>
@@ -12591,7 +12590,7 @@
       <c r="E508">
         <v>119</v>
       </c>
-      <c r="F508">
+      <c r="F508" s="6">
         <f t="shared" si="18"/>
         <v>37.139914484566646</v>
       </c>
@@ -12613,7 +12612,7 @@
       <c r="E509">
         <v>108</v>
       </c>
-      <c r="F509">
+      <c r="F509" s="6">
         <f t="shared" si="18"/>
         <v>37.813802037743777</v>
       </c>
@@ -12635,7 +12634,7 @@
       <c r="E510">
         <v>66</v>
       </c>
-      <c r="F510">
+      <c r="F510" s="6">
         <f t="shared" si="18"/>
         <v>19.077349982656951</v>
       </c>
@@ -12657,7 +12656,7 @@
       <c r="E511">
         <v>47</v>
       </c>
-      <c r="F511">
+      <c r="F511" s="6">
         <f t="shared" si="18"/>
         <v>19.817844493169169</v>
       </c>
@@ -12679,7 +12678,7 @@
       <c r="E512">
         <v>47</v>
       </c>
-      <c r="F512">
+      <c r="F512" s="6">
         <f t="shared" si="18"/>
         <v>18.827111039897453</v>
       </c>
@@ -12701,7 +12700,7 @@
       <c r="E513">
         <v>89</v>
       </c>
-      <c r="F513">
+      <c r="F513" s="6">
         <f t="shared" si="18"/>
         <v>24.39626106740495</v>
       </c>
@@ -12723,7 +12722,7 @@
       <c r="E514">
         <v>110</v>
       </c>
-      <c r="F514">
+      <c r="F514" s="6">
         <f t="shared" si="18"/>
         <v>32.490548204158792</v>
       </c>
@@ -12745,7 +12744,7 @@
       <c r="E515">
         <v>97</v>
       </c>
-      <c r="F515">
+      <c r="F515" s="6">
         <f t="shared" si="18"/>
         <v>33.962396274640241</v>
       </c>
@@ -12767,7 +12766,7 @@
       <c r="E516">
         <v>66</v>
       </c>
-      <c r="F516">
+      <c r="F516" s="6">
         <f t="shared" si="18"/>
         <v>26.775934114974238</v>
       </c>
@@ -12789,7 +12788,7 @@
       <c r="E517">
         <v>72</v>
       </c>
-      <c r="F517">
+      <c r="F517" s="6">
         <f t="shared" si="18"/>
         <v>18.934911242603548</v>
       </c>
@@ -12811,7 +12810,7 @@
       <c r="E518">
         <v>56</v>
       </c>
-      <c r="F518">
+      <c r="F518" s="6">
         <f t="shared" si="18"/>
         <v>20.322252866889244</v>
       </c>
@@ -12833,7 +12832,7 @@
       <c r="E519">
         <v>113</v>
       </c>
-      <c r="F519">
+      <c r="F519" s="6">
         <f t="shared" si="18"/>
         <v>32.662735576367204</v>
       </c>
@@ -12855,12 +12854,12 @@
       <c r="E520">
         <v>81</v>
       </c>
-      <c r="F520">
+      <c r="F520" s="6">
         <f t="shared" ref="F520:F583" si="20">E520/(D520/100*D520/100)</f>
         <v>32.039871840512632</v>
       </c>
       <c r="G520" t="str">
-        <f t="shared" ref="G520:G583" si="21">IF(F520&lt;F$1,D$1,IF(AND(F520&gt;=E$2,F520&lt;F$2),D$2,IF(AND(F520&gt;=E$3,F520&lt;F$3),D$3,IF(F520&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G520:G583" si="21">IF(F520&lt;=F$1,D$1,IF(AND(F520&gt;=E$2,F520&lt;=F$2),D$2,IF(AND(F520&gt;=E$3,F520&lt;=F$3),D$3,IF(F520&gt;=E$5,D$5,D$4))))</f>
         <v>otylosc</v>
       </c>
       <c r="H520">
@@ -12877,7 +12876,7 @@
       <c r="E521">
         <v>85</v>
       </c>
-      <c r="F521">
+      <c r="F521" s="6">
         <f t="shared" si="20"/>
         <v>25.10633270321361</v>
       </c>
@@ -12899,7 +12898,7 @@
       <c r="E522">
         <v>117</v>
       </c>
-      <c r="F522">
+      <c r="F522" s="6">
         <f t="shared" si="20"/>
         <v>32.753842277651806</v>
       </c>
@@ -12921,7 +12920,7 @@
       <c r="E523">
         <v>55</v>
       </c>
-      <c r="F523">
+      <c r="F523" s="6">
         <f t="shared" si="20"/>
         <v>18.376825152861773</v>
       </c>
@@ -12943,7 +12942,7 @@
       <c r="E524">
         <v>72</v>
       </c>
-      <c r="F524">
+      <c r="F524" s="6">
         <f t="shared" si="20"/>
         <v>18.552397639722745</v>
       </c>
@@ -12965,7 +12964,7 @@
       <c r="E525">
         <v>81</v>
       </c>
-      <c r="F525">
+      <c r="F525" s="6">
         <f t="shared" si="20"/>
         <v>26.448979591836736</v>
       </c>
@@ -12987,7 +12986,7 @@
       <c r="E526">
         <v>66</v>
       </c>
-      <c r="F526">
+      <c r="F526" s="6">
         <f t="shared" si="20"/>
         <v>26.438070821983658</v>
       </c>
@@ -13009,7 +13008,7 @@
       <c r="E527">
         <v>52</v>
       </c>
-      <c r="F527">
+      <c r="F527" s="6">
         <f t="shared" si="20"/>
         <v>21.367521367521366</v>
       </c>
@@ -13031,7 +13030,7 @@
       <c r="E528">
         <v>86</v>
       </c>
-      <c r="F528">
+      <c r="F528" s="6">
         <f t="shared" si="20"/>
         <v>35.796045785639961</v>
       </c>
@@ -13053,7 +13052,7 @@
       <c r="E529">
         <v>64</v>
       </c>
-      <c r="F529">
+      <c r="F529" s="6">
         <f t="shared" si="20"/>
         <v>19.535423216629528</v>
       </c>
@@ -13075,7 +13074,7 @@
       <c r="E530">
         <v>76</v>
       </c>
-      <c r="F530">
+      <c r="F530" s="6">
         <f t="shared" si="20"/>
         <v>26.297577854671278</v>
       </c>
@@ -13097,13 +13096,13 @@
       <c r="E531">
         <v>98</v>
       </c>
-      <c r="F531">
+      <c r="F531" s="6">
         <f t="shared" si="20"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G531" t="str">
         <f t="shared" si="21"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H531">
         <v>198</v>
@@ -13119,13 +13118,13 @@
       <c r="E532">
         <v>73</v>
       </c>
-      <c r="F532">
+      <c r="F532" s="6">
         <f t="shared" si="20"/>
         <v>29.996712689020377</v>
       </c>
       <c r="G532" t="str">
         <f t="shared" si="21"/>
-        <v>nadwaga</v>
+        <v>otylosc</v>
       </c>
       <c r="H532">
         <v>156</v>
@@ -13141,7 +13140,7 @@
       <c r="E533">
         <v>95</v>
       </c>
-      <c r="F533">
+      <c r="F533" s="6">
         <f t="shared" si="20"/>
         <v>24.729279466888798</v>
       </c>
@@ -13163,7 +13162,7 @@
       <c r="E534">
         <v>67</v>
       </c>
-      <c r="F534">
+      <c r="F534" s="6">
         <f t="shared" si="20"/>
         <v>26.502116213757365</v>
       </c>
@@ -13185,7 +13184,7 @@
       <c r="E535">
         <v>53</v>
       </c>
-      <c r="F535">
+      <c r="F535" s="6">
         <f t="shared" si="20"/>
         <v>20.195092211553117</v>
       </c>
@@ -13207,7 +13206,7 @@
       <c r="E536">
         <v>71</v>
       </c>
-      <c r="F536">
+      <c r="F536" s="6">
         <f t="shared" si="20"/>
         <v>27.053802773967384</v>
       </c>
@@ -13229,7 +13228,7 @@
       <c r="E537">
         <v>72</v>
       </c>
-      <c r="F537">
+      <c r="F537" s="6">
         <f t="shared" si="20"/>
         <v>27.099251006812452</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="E538">
         <v>54</v>
       </c>
-      <c r="F538">
+      <c r="F538" s="6">
         <f t="shared" si="20"/>
         <v>18.253109789075179</v>
       </c>
@@ -13273,7 +13272,7 @@
       <c r="E539">
         <v>88</v>
       </c>
-      <c r="F539">
+      <c r="F539" s="6">
         <f t="shared" si="20"/>
         <v>22.446689113355777</v>
       </c>
@@ -13295,7 +13294,7 @@
       <c r="E540">
         <v>101</v>
       </c>
-      <c r="F540">
+      <c r="F540" s="6">
         <f t="shared" si="20"/>
         <v>25.504406454382465</v>
       </c>
@@ -13317,7 +13316,7 @@
       <c r="E541">
         <v>71</v>
       </c>
-      <c r="F541">
+      <c r="F541" s="6">
         <f t="shared" si="20"/>
         <v>26.078971533516988</v>
       </c>
@@ -13339,7 +13338,7 @@
       <c r="E542">
         <v>98</v>
       </c>
-      <c r="F542">
+      <c r="F542" s="6">
         <f t="shared" si="20"/>
         <v>39.256529402339368</v>
       </c>
@@ -13361,7 +13360,7 @@
       <c r="E543">
         <v>55</v>
       </c>
-      <c r="F543">
+      <c r="F543" s="6">
         <f t="shared" si="20"/>
         <v>16.245274102079396</v>
       </c>
@@ -13383,7 +13382,7 @@
       <c r="E544">
         <v>101</v>
       </c>
-      <c r="F544">
+      <c r="F544" s="6">
         <f t="shared" si="20"/>
         <v>29.832230623818525</v>
       </c>
@@ -13405,7 +13404,7 @@
       <c r="E545">
         <v>93</v>
       </c>
-      <c r="F545">
+      <c r="F545" s="6">
         <f t="shared" si="20"/>
         <v>24.20866305705956</v>
       </c>
@@ -13427,7 +13426,7 @@
       <c r="E546">
         <v>85</v>
       </c>
-      <c r="F546">
+      <c r="F546" s="6">
         <f t="shared" si="20"/>
         <v>29.411764705882351</v>
       </c>
@@ -13449,7 +13448,7 @@
       <c r="E547">
         <v>70</v>
       </c>
-      <c r="F547">
+      <c r="F547" s="6">
         <f t="shared" si="20"/>
         <v>23.388686558187711</v>
       </c>
@@ -13471,7 +13470,7 @@
       <c r="E548">
         <v>98</v>
       </c>
-      <c r="F548">
+      <c r="F548" s="6">
         <f t="shared" si="20"/>
         <v>26.309431125667803</v>
       </c>
@@ -13493,7 +13492,7 @@
       <c r="E549">
         <v>98</v>
       </c>
-      <c r="F549">
+      <c r="F549" s="6">
         <f t="shared" si="20"/>
         <v>32.368873034746997</v>
       </c>
@@ -13515,7 +13514,7 @@
       <c r="E550">
         <v>56</v>
       </c>
-      <c r="F550">
+      <c r="F550" s="6">
         <f t="shared" si="20"/>
         <v>19.151191819705211</v>
       </c>
@@ -13537,7 +13536,7 @@
       <c r="E551">
         <v>78</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="6">
         <f t="shared" si="20"/>
         <v>22.068809416025353</v>
       </c>
@@ -13559,7 +13558,7 @@
       <c r="E552">
         <v>64</v>
       </c>
-      <c r="F552">
+      <c r="F552" s="6">
         <f t="shared" si="20"/>
         <v>25.636917160711423</v>
       </c>
@@ -13581,7 +13580,7 @@
       <c r="E553">
         <v>70</v>
       </c>
-      <c r="F553">
+      <c r="F553" s="6">
         <f t="shared" si="20"/>
         <v>25.402816083611555</v>
       </c>
@@ -13603,7 +13602,7 @@
       <c r="E554">
         <v>92</v>
       </c>
-      <c r="F554">
+      <c r="F554" s="6">
         <f t="shared" si="20"/>
         <v>34.626820730927022</v>
       </c>
@@ -13625,7 +13624,7 @@
       <c r="E555">
         <v>43</v>
       </c>
-      <c r="F555">
+      <c r="F555" s="6">
         <f t="shared" si="20"/>
         <v>18.13121942992073</v>
       </c>
@@ -13647,7 +13646,7 @@
       <c r="E556">
         <v>73</v>
       </c>
-      <c r="F556">
+      <c r="F556" s="6">
         <f t="shared" si="20"/>
         <v>22.282592106468055</v>
       </c>
@@ -13669,7 +13668,7 @@
       <c r="E557">
         <v>74</v>
       </c>
-      <c r="F557">
+      <c r="F557" s="6">
         <f t="shared" si="20"/>
         <v>32.454716898381648</v>
       </c>
@@ -13691,7 +13690,7 @@
       <c r="E558">
         <v>95</v>
       </c>
-      <c r="F558">
+      <c r="F558" s="6">
         <f t="shared" si="20"/>
         <v>34.475250399187111</v>
       </c>
@@ -13713,7 +13712,7 @@
       <c r="E559">
         <v>62</v>
       </c>
-      <c r="F559">
+      <c r="F559" s="6">
         <f t="shared" si="20"/>
         <v>18.312854442344044</v>
       </c>
@@ -13735,7 +13734,7 @@
       <c r="E560">
         <v>121</v>
       </c>
-      <c r="F560">
+      <c r="F560" s="6">
         <f t="shared" si="20"/>
         <v>36.529404661272793</v>
       </c>
@@ -13757,7 +13756,7 @@
       <c r="E561">
         <v>46</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="6">
         <f t="shared" si="20"/>
         <v>18.902038132807363</v>
       </c>
@@ -13779,7 +13778,7 @@
       <c r="E562">
         <v>57</v>
       </c>
-      <c r="F562">
+      <c r="F562" s="6">
         <f t="shared" si="20"/>
         <v>23.422090729783037</v>
       </c>
@@ -13801,7 +13800,7 @@
       <c r="E563">
         <v>57</v>
       </c>
-      <c r="F563">
+      <c r="F563" s="6">
         <f t="shared" si="20"/>
         <v>17.789706937985702</v>
       </c>
@@ -13823,7 +13822,7 @@
       <c r="E564">
         <v>61</v>
       </c>
-      <c r="F564">
+      <c r="F564" s="6">
         <f t="shared" si="20"/>
         <v>16.207886066532044</v>
       </c>
@@ -13845,7 +13844,7 @@
       <c r="E565">
         <v>84</v>
       </c>
-      <c r="F565">
+      <c r="F565" s="6">
         <f t="shared" si="20"/>
         <v>33.226533760531623</v>
       </c>
@@ -13867,7 +13866,7 @@
       <c r="E566">
         <v>77</v>
       </c>
-      <c r="F566">
+      <c r="F566" s="6">
         <f t="shared" si="20"/>
         <v>20.887586805555557</v>
       </c>
@@ -13889,7 +13888,7 @@
       <c r="E567">
         <v>68</v>
       </c>
-      <c r="F567">
+      <c r="F567" s="6">
         <f t="shared" si="20"/>
         <v>29.43213296398892</v>
       </c>
@@ -13911,7 +13910,7 @@
       <c r="E568">
         <v>53</v>
       </c>
-      <c r="F568">
+      <c r="F568" s="6">
         <f t="shared" si="20"/>
         <v>23.244594535327398</v>
       </c>
@@ -13933,7 +13932,7 @@
       <c r="E569">
         <v>64</v>
       </c>
-      <c r="F569">
+      <c r="F569" s="6">
         <f t="shared" si="20"/>
         <v>28.068944344546292</v>
       </c>
@@ -13955,7 +13954,7 @@
       <c r="E570">
         <v>112</v>
       </c>
-      <c r="F570">
+      <c r="F570" s="6">
         <f t="shared" si="20"/>
         <v>33.812341504649197</v>
       </c>
@@ -13977,7 +13976,7 @@
       <c r="E571">
         <v>61</v>
       </c>
-      <c r="F571">
+      <c r="F571" s="6">
         <f t="shared" si="20"/>
         <v>22.405876951331496</v>
       </c>
@@ -13999,7 +13998,7 @@
       <c r="E572">
         <v>53</v>
       </c>
-      <c r="F572">
+      <c r="F572" s="6">
         <f t="shared" si="20"/>
         <v>21.501886486267189</v>
       </c>
@@ -14021,7 +14020,7 @@
       <c r="E573">
         <v>87</v>
       </c>
-      <c r="F573">
+      <c r="F573" s="6">
         <f t="shared" si="20"/>
         <v>25.4200146092038</v>
       </c>
@@ -14043,7 +14042,7 @@
       <c r="E574">
         <v>78</v>
       </c>
-      <c r="F574">
+      <c r="F574" s="6">
         <f t="shared" si="20"/>
         <v>26.061679307694877</v>
       </c>
@@ -14065,7 +14064,7 @@
       <c r="E575">
         <v>65</v>
       </c>
-      <c r="F575">
+      <c r="F575" s="6">
         <f t="shared" si="20"/>
         <v>25.076193048107708</v>
       </c>
@@ -14087,7 +14086,7 @@
       <c r="E576">
         <v>74</v>
       </c>
-      <c r="F576">
+      <c r="F576" s="6">
         <f t="shared" si="20"/>
         <v>23.889462809917354</v>
       </c>
@@ -14109,7 +14108,7 @@
       <c r="E577">
         <v>64</v>
       </c>
-      <c r="F577">
+      <c r="F577" s="6">
         <f t="shared" si="20"/>
         <v>25.636917160711423</v>
       </c>
@@ -14131,7 +14130,7 @@
       <c r="E578">
         <v>142</v>
       </c>
-      <c r="F578">
+      <c r="F578" s="6">
         <f t="shared" si="20"/>
         <v>39.335180055401665</v>
       </c>
@@ -14153,7 +14152,7 @@
       <c r="E579">
         <v>61</v>
       </c>
-      <c r="F579">
+      <c r="F579" s="6">
         <f t="shared" si="20"/>
         <v>22.67995240928019</v>
       </c>
@@ -14175,7 +14174,7 @@
       <c r="E580">
         <v>56</v>
       </c>
-      <c r="F580">
+      <c r="F580" s="6">
         <f t="shared" si="20"/>
         <v>21.875</v>
       </c>
@@ -14197,7 +14196,7 @@
       <c r="E581">
         <v>81</v>
       </c>
-      <c r="F581">
+      <c r="F581" s="6">
         <f t="shared" si="20"/>
         <v>22.437673130193907</v>
       </c>
@@ -14219,7 +14218,7 @@
       <c r="E582">
         <v>107</v>
       </c>
-      <c r="F582">
+      <c r="F582" s="6">
         <f t="shared" si="20"/>
         <v>27.019519709098258</v>
       </c>
@@ -14241,7 +14240,7 @@
       <c r="E583">
         <v>71</v>
       </c>
-      <c r="F583">
+      <c r="F583" s="6">
         <f t="shared" si="20"/>
         <v>21.672110130948383</v>
       </c>
@@ -14263,12 +14262,12 @@
       <c r="E584">
         <v>72</v>
       </c>
-      <c r="F584">
+      <c r="F584" s="6">
         <f t="shared" ref="F584:F647" si="22">E584/(D584/100*D584/100)</f>
         <v>21.037253469685904</v>
       </c>
       <c r="G584" t="str">
-        <f t="shared" ref="G584:G647" si="23">IF(F584&lt;F$1,D$1,IF(AND(F584&gt;=E$2,F584&lt;F$2),D$2,IF(AND(F584&gt;=E$3,F584&lt;F$3),D$3,IF(F584&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G584:G647" si="23">IF(F584&lt;=F$1,D$1,IF(AND(F584&gt;=E$2,F584&lt;=F$2),D$2,IF(AND(F584&gt;=E$3,F584&lt;=F$3),D$3,IF(F584&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H584">
@@ -14285,7 +14284,7 @@
       <c r="E585">
         <v>43</v>
       </c>
-      <c r="F585">
+      <c r="F585" s="6">
         <f t="shared" si="22"/>
         <v>18.13121942992073</v>
       </c>
@@ -14307,7 +14306,7 @@
       <c r="E586">
         <v>66</v>
       </c>
-      <c r="F586">
+      <c r="F586" s="6">
         <f t="shared" si="22"/>
         <v>17.357001972386588</v>
       </c>
@@ -14329,7 +14328,7 @@
       <c r="E587">
         <v>59</v>
       </c>
-      <c r="F587">
+      <c r="F587" s="6">
         <f t="shared" si="22"/>
         <v>21.155294202015131</v>
       </c>
@@ -14351,7 +14350,7 @@
       <c r="E588">
         <v>61</v>
       </c>
-      <c r="F588">
+      <c r="F588" s="6">
         <f t="shared" si="22"/>
         <v>26.753212578395683</v>
       </c>
@@ -14373,7 +14372,7 @@
       <c r="E589">
         <v>74</v>
       </c>
-      <c r="F589">
+      <c r="F589" s="6">
         <f t="shared" si="22"/>
         <v>20.498614958448755</v>
       </c>
@@ -14395,7 +14394,7 @@
       <c r="E590">
         <v>43</v>
       </c>
-      <c r="F590">
+      <c r="F590" s="6">
         <f t="shared" si="22"/>
         <v>18.369003374770386</v>
       </c>
@@ -14417,7 +14416,7 @@
       <c r="E591">
         <v>67</v>
       </c>
-      <c r="F591">
+      <c r="F591" s="6">
         <f t="shared" si="22"/>
         <v>27.181630086413239</v>
       </c>
@@ -14439,7 +14438,7 @@
       <c r="E592">
         <v>54</v>
       </c>
-      <c r="F592">
+      <c r="F592" s="6">
         <f t="shared" si="22"/>
         <v>16.666666666666664</v>
       </c>
@@ -14461,7 +14460,7 @@
       <c r="E593">
         <v>57</v>
       </c>
-      <c r="F593">
+      <c r="F593" s="6">
         <f t="shared" si="22"/>
         <v>24.349609124695629</v>
       </c>
@@ -14483,7 +14482,7 @@
       <c r="E594">
         <v>63</v>
       </c>
-      <c r="F594">
+      <c r="F594" s="6">
         <f t="shared" si="22"/>
         <v>20.109164033323754</v>
       </c>
@@ -14505,7 +14504,7 @@
       <c r="E595">
         <v>74</v>
       </c>
-      <c r="F595">
+      <c r="F595" s="6">
         <f t="shared" si="22"/>
         <v>20.937075599818925</v>
       </c>
@@ -14527,7 +14526,7 @@
       <c r="E596">
         <v>78</v>
       </c>
-      <c r="F596">
+      <c r="F596" s="6">
         <f t="shared" si="22"/>
         <v>24.618103774775911</v>
       </c>
@@ -14549,7 +14548,7 @@
       <c r="E597">
         <v>67</v>
       </c>
-      <c r="F597">
+      <c r="F597" s="6">
         <f t="shared" si="22"/>
         <v>19.576333089846603</v>
       </c>
@@ -14571,7 +14570,7 @@
       <c r="E598">
         <v>52</v>
       </c>
-      <c r="F598">
+      <c r="F598" s="6">
         <f t="shared" si="22"/>
         <v>21.926125822229718</v>
       </c>
@@ -14593,7 +14592,7 @@
       <c r="E599">
         <v>58</v>
       </c>
-      <c r="F599">
+      <c r="F599" s="6">
         <f t="shared" si="22"/>
         <v>22.942130453700404</v>
       </c>
@@ -14615,7 +14614,7 @@
       <c r="E600">
         <v>57</v>
       </c>
-      <c r="F600">
+      <c r="F600" s="6">
         <f t="shared" si="22"/>
         <v>20.43816558499767</v>
       </c>
@@ -14637,7 +14636,7 @@
       <c r="E601">
         <v>75</v>
       </c>
-      <c r="F601">
+      <c r="F601" s="6">
         <f t="shared" si="22"/>
         <v>21.22000905387053</v>
       </c>
@@ -14659,7 +14658,7 @@
       <c r="E602">
         <v>94</v>
       </c>
-      <c r="F602">
+      <c r="F602" s="6">
         <f t="shared" si="22"/>
         <v>27.170771187420506</v>
       </c>
@@ -14681,7 +14680,7 @@
       <c r="E603">
         <v>56</v>
       </c>
-      <c r="F603">
+      <c r="F603" s="6">
         <f t="shared" si="22"/>
         <v>16.906170752324599</v>
       </c>
@@ -14703,7 +14702,7 @@
       <c r="E604">
         <v>86</v>
       </c>
-      <c r="F604">
+      <c r="F604" s="6">
         <f t="shared" si="22"/>
         <v>26.25072494734593</v>
       </c>
@@ -14725,7 +14724,7 @@
       <c r="E605">
         <v>118</v>
       </c>
-      <c r="F605">
+      <c r="F605" s="6">
         <f t="shared" si="22"/>
         <v>36.827814362847597</v>
       </c>
@@ -14747,7 +14746,7 @@
       <c r="E606">
         <v>55</v>
       </c>
-      <c r="F606">
+      <c r="F606" s="6">
         <f t="shared" si="22"/>
         <v>17.959183673469386</v>
       </c>
@@ -14769,7 +14768,7 @@
       <c r="E607">
         <v>101</v>
       </c>
-      <c r="F607">
+      <c r="F607" s="6">
         <f t="shared" si="22"/>
         <v>31.522112293623792</v>
       </c>
@@ -14791,7 +14790,7 @@
       <c r="E608">
         <v>108</v>
       </c>
-      <c r="F608">
+      <c r="F608" s="6">
         <f t="shared" si="22"/>
         <v>32.966026678062327</v>
       </c>
@@ -14813,7 +14812,7 @@
       <c r="E609">
         <v>89</v>
       </c>
-      <c r="F609">
+      <c r="F609" s="6">
         <f t="shared" si="22"/>
         <v>23.167430237401085</v>
       </c>
@@ -14835,7 +14834,7 @@
       <c r="E610">
         <v>75</v>
       </c>
-      <c r="F610">
+      <c r="F610" s="6">
         <f t="shared" si="22"/>
         <v>20.775623268698062</v>
       </c>
@@ -14857,7 +14856,7 @@
       <c r="E611">
         <v>65</v>
       </c>
-      <c r="F611">
+      <c r="F611" s="6">
         <f t="shared" si="22"/>
         <v>26.370238143535232</v>
       </c>
@@ -14879,7 +14878,7 @@
       <c r="E612">
         <v>54</v>
       </c>
-      <c r="F612">
+      <c r="F612" s="6">
         <f t="shared" si="22"/>
         <v>17.432851239669422</v>
       </c>
@@ -14901,7 +14900,7 @@
       <c r="E613">
         <v>62</v>
       </c>
-      <c r="F613">
+      <c r="F613" s="6">
         <f t="shared" si="22"/>
         <v>18.115412710007305</v>
       </c>
@@ -14923,7 +14922,7 @@
       <c r="E614">
         <v>70</v>
       </c>
-      <c r="F614">
+      <c r="F614" s="6">
         <f t="shared" si="22"/>
         <v>21.604938271604937</v>
       </c>
@@ -14945,7 +14944,7 @@
       <c r="E615">
         <v>67</v>
       </c>
-      <c r="F615">
+      <c r="F615" s="6">
         <f t="shared" si="22"/>
         <v>18.36572462377676</v>
       </c>
@@ -14967,7 +14966,7 @@
       <c r="E616">
         <v>58</v>
       </c>
-      <c r="F616">
+      <c r="F616" s="6">
         <f t="shared" si="22"/>
         <v>18.938775510204081</v>
       </c>
@@ -14989,7 +14988,7 @@
       <c r="E617">
         <v>73</v>
       </c>
-      <c r="F617">
+      <c r="F617" s="6">
         <f t="shared" si="22"/>
         <v>21.798202394816208</v>
       </c>
@@ -15011,7 +15010,7 @@
       <c r="E618">
         <v>54</v>
       </c>
-      <c r="F618">
+      <c r="F618" s="6">
         <f t="shared" si="22"/>
         <v>19.362472659471475</v>
       </c>
@@ -15033,7 +15032,7 @@
       <c r="E619">
         <v>91</v>
       </c>
-      <c r="F619">
+      <c r="F619" s="6">
         <f t="shared" si="22"/>
         <v>27.472527472527471</v>
       </c>
@@ -15055,7 +15054,7 @@
       <c r="E620">
         <v>92</v>
       </c>
-      <c r="F620">
+      <c r="F620" s="6">
         <f t="shared" si="22"/>
         <v>26.309016557522376</v>
       </c>
@@ -15077,7 +15076,7 @@
       <c r="E621">
         <v>104</v>
       </c>
-      <c r="F621">
+      <c r="F621" s="6">
         <f t="shared" si="22"/>
         <v>28.80886426592798</v>
       </c>
@@ -15099,7 +15098,7 @@
       <c r="E622">
         <v>64</v>
       </c>
-      <c r="F622">
+      <c r="F622" s="6">
         <f t="shared" si="22"/>
         <v>27.339911999658252</v>
       </c>
@@ -15121,7 +15120,7 @@
       <c r="E623">
         <v>89</v>
       </c>
-      <c r="F623">
+      <c r="F623" s="6">
         <f t="shared" si="22"/>
         <v>32.690541781450868</v>
       </c>
@@ -15143,7 +15142,7 @@
       <c r="E624">
         <v>84</v>
       </c>
-      <c r="F624">
+      <c r="F624" s="6">
         <f t="shared" si="22"/>
         <v>36.357340720221607</v>
       </c>
@@ -15165,7 +15164,7 @@
       <c r="E625">
         <v>101</v>
       </c>
-      <c r="F625">
+      <c r="F625" s="6">
         <f t="shared" si="22"/>
         <v>31.172839506172838</v>
       </c>
@@ -15187,7 +15186,7 @@
       <c r="E626">
         <v>96</v>
       </c>
-      <c r="F626">
+      <c r="F626" s="6">
         <f t="shared" si="22"/>
         <v>28.666129176744604</v>
       </c>
@@ -15209,7 +15208,7 @@
       <c r="E627">
         <v>58</v>
       </c>
-      <c r="F627">
+      <c r="F627" s="6">
         <f t="shared" si="22"/>
         <v>25.777777777777779</v>
       </c>
@@ -15231,7 +15230,7 @@
       <c r="E628">
         <v>87</v>
       </c>
-      <c r="F628">
+      <c r="F628" s="6">
         <f t="shared" si="22"/>
         <v>26.851851851851851</v>
       </c>
@@ -15253,7 +15252,7 @@
       <c r="E629">
         <v>83</v>
       </c>
-      <c r="F629">
+      <c r="F629" s="6">
         <f t="shared" si="22"/>
         <v>33.247876942797632</v>
       </c>
@@ -15275,7 +15274,7 @@
       <c r="E630">
         <v>74</v>
       </c>
-      <c r="F630">
+      <c r="F630" s="6">
         <f t="shared" si="22"/>
         <v>20.716105372190029</v>
       </c>
@@ -15297,7 +15296,7 @@
       <c r="E631">
         <v>82</v>
       </c>
-      <c r="F631">
+      <c r="F631" s="6">
         <f t="shared" si="22"/>
         <v>29.402273297715947</v>
       </c>
@@ -15319,7 +15318,7 @@
       <c r="E632">
         <v>63</v>
       </c>
-      <c r="F632">
+      <c r="F632" s="6">
         <f t="shared" si="22"/>
         <v>26.91272587466359</v>
       </c>
@@ -15341,7 +15340,7 @@
       <c r="E633">
         <v>81</v>
       </c>
-      <c r="F633">
+      <c r="F633" s="6">
         <f t="shared" si="22"/>
         <v>35.05886426592798</v>
       </c>
@@ -15363,7 +15362,7 @@
       <c r="E634">
         <v>67</v>
       </c>
-      <c r="F634">
+      <c r="F634" s="6">
         <f t="shared" si="22"/>
         <v>20.227025721531216</v>
       </c>
@@ -15385,7 +15384,7 @@
       <c r="E635">
         <v>69</v>
       </c>
-      <c r="F635">
+      <c r="F635" s="6">
         <f t="shared" si="22"/>
         <v>20.603780345785182</v>
       </c>
@@ -15407,7 +15406,7 @@
       <c r="E636">
         <v>40</v>
       </c>
-      <c r="F636">
+      <c r="F636" s="6">
         <f t="shared" si="22"/>
         <v>17.777777777777779</v>
       </c>
@@ -15429,7 +15428,7 @@
       <c r="E637">
         <v>107</v>
       </c>
-      <c r="F637">
+      <c r="F637" s="6">
         <f t="shared" si="22"/>
         <v>27.570924270143525</v>
       </c>
@@ -15451,7 +15450,7 @@
       <c r="E638">
         <v>55</v>
       </c>
-      <c r="F638">
+      <c r="F638" s="6">
         <f t="shared" si="22"/>
         <v>17.959183673469386</v>
       </c>
@@ -15473,7 +15472,7 @@
       <c r="E639">
         <v>64</v>
       </c>
-      <c r="F639">
+      <c r="F639" s="6">
         <f t="shared" si="22"/>
         <v>20.428357113217785</v>
       </c>
@@ -15495,7 +15494,7 @@
       <c r="E640">
         <v>74</v>
       </c>
-      <c r="F640">
+      <c r="F640" s="6">
         <f t="shared" si="22"/>
         <v>21.621621621621621</v>
       </c>
@@ -15517,7 +15516,7 @@
       <c r="E641">
         <v>63</v>
       </c>
-      <c r="F641">
+      <c r="F641" s="6">
         <f t="shared" si="22"/>
         <v>24.304617877396701</v>
       </c>
@@ -15539,7 +15538,7 @@
       <c r="E642">
         <v>68</v>
       </c>
-      <c r="F642">
+      <c r="F642" s="6">
         <f t="shared" si="22"/>
         <v>24.977043158861338</v>
       </c>
@@ -15561,7 +15560,7 @@
       <c r="E643">
         <v>76</v>
       </c>
-      <c r="F643">
+      <c r="F643" s="6">
         <f t="shared" si="22"/>
         <v>20.193431820597301</v>
       </c>
@@ -15583,7 +15582,7 @@
       <c r="E644">
         <v>46</v>
       </c>
-      <c r="F644">
+      <c r="F644" s="6">
         <f t="shared" si="22"/>
         <v>19.146722164412072</v>
       </c>
@@ -15605,7 +15604,7 @@
       <c r="E645">
         <v>55</v>
       </c>
-      <c r="F645">
+      <c r="F645" s="6">
         <f t="shared" si="22"/>
         <v>21.484375</v>
       </c>
@@ -15627,7 +15626,7 @@
       <c r="E646">
         <v>52</v>
       </c>
-      <c r="F646">
+      <c r="F646" s="6">
         <f t="shared" si="22"/>
         <v>16.979591836734695</v>
       </c>
@@ -15649,7 +15648,7 @@
       <c r="E647">
         <v>68</v>
       </c>
-      <c r="F647">
+      <c r="F647" s="6">
         <f t="shared" si="22"/>
         <v>17.700957934194086</v>
       </c>
@@ -15671,12 +15670,12 @@
       <c r="E648">
         <v>106</v>
       </c>
-      <c r="F648">
+      <c r="F648" s="6">
         <f t="shared" ref="F648:F711" si="24">E648/(D648/100*D648/100)</f>
         <v>40.390184423106234</v>
       </c>
       <c r="G648" t="str">
-        <f t="shared" ref="G648:G711" si="25">IF(F648&lt;F$1,D$1,IF(AND(F648&gt;=E$2,F648&lt;F$2),D$2,IF(AND(F648&gt;=E$3,F648&lt;F$3),D$3,IF(F648&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G648:G711" si="25">IF(F648&lt;=F$1,D$1,IF(AND(F648&gt;=E$2,F648&lt;=F$2),D$2,IF(AND(F648&gt;=E$3,F648&lt;=F$3),D$3,IF(F648&gt;=E$5,D$5,D$4))))</f>
         <v>duza otylosc</v>
       </c>
       <c r="H648">
@@ -15693,7 +15692,7 @@
       <c r="E649">
         <v>97</v>
       </c>
-      <c r="F649">
+      <c r="F649" s="6">
         <f t="shared" si="24"/>
         <v>34.367913832199548</v>
       </c>
@@ -15715,7 +15714,7 @@
       <c r="E650">
         <v>65</v>
       </c>
-      <c r="F650">
+      <c r="F650" s="6">
         <f t="shared" si="24"/>
         <v>20.515086478979924</v>
       </c>
@@ -15737,7 +15736,7 @@
       <c r="E651">
         <v>67</v>
       </c>
-      <c r="F651">
+      <c r="F651" s="6">
         <f t="shared" si="24"/>
         <v>17.090092847668604</v>
       </c>
@@ -15759,7 +15758,7 @@
       <c r="E652">
         <v>92</v>
       </c>
-      <c r="F652">
+      <c r="F652" s="6">
         <f t="shared" si="24"/>
         <v>23.705841428534622</v>
       </c>
@@ -15781,7 +15780,7 @@
       <c r="E653">
         <v>52</v>
       </c>
-      <c r="F653">
+      <c r="F653" s="6">
         <f t="shared" si="24"/>
         <v>20.3125</v>
       </c>
@@ -15803,7 +15802,7 @@
       <c r="E654">
         <v>73</v>
       </c>
-      <c r="F654">
+      <c r="F654" s="6">
         <f t="shared" si="24"/>
         <v>27.141582391433669</v>
       </c>
@@ -15825,7 +15824,7 @@
       <c r="E655">
         <v>75</v>
       </c>
-      <c r="F655">
+      <c r="F655" s="6">
         <f t="shared" si="24"/>
         <v>32.893294153765183</v>
       </c>
@@ -15847,7 +15846,7 @@
       <c r="E656">
         <v>51</v>
       </c>
-      <c r="F656">
+      <c r="F656" s="6">
         <f t="shared" si="24"/>
         <v>14.584346135148273</v>
       </c>
@@ -15869,7 +15868,7 @@
       <c r="E657">
         <v>44</v>
       </c>
-      <c r="F657">
+      <c r="F657" s="6">
         <f t="shared" si="24"/>
         <v>19.044321329639889</v>
       </c>
@@ -15891,7 +15890,7 @@
       <c r="E658">
         <v>83</v>
       </c>
-      <c r="F658">
+      <c r="F658" s="6">
         <f t="shared" si="24"/>
         <v>21.827744904667981</v>
       </c>
@@ -15913,7 +15912,7 @@
       <c r="E659">
         <v>77</v>
       </c>
-      <c r="F659">
+      <c r="F659" s="6">
         <f t="shared" si="24"/>
         <v>28.28282828282828</v>
       </c>
@@ -15935,7 +15934,7 @@
       <c r="E660">
         <v>88</v>
       </c>
-      <c r="F660">
+      <c r="F660" s="6">
         <f t="shared" si="24"/>
         <v>34.375</v>
       </c>
@@ -15957,7 +15956,7 @@
       <c r="E661">
         <v>108</v>
       </c>
-      <c r="F661">
+      <c r="F661" s="6">
         <f t="shared" si="24"/>
         <v>33.706813145657122</v>
       </c>
@@ -15979,7 +15978,7 @@
       <c r="E662">
         <v>73</v>
       </c>
-      <c r="F662">
+      <c r="F662" s="6">
         <f t="shared" si="24"/>
         <v>28.162493730951734</v>
       </c>
@@ -16001,7 +16000,7 @@
       <c r="E663">
         <v>72</v>
       </c>
-      <c r="F663">
+      <c r="F663" s="6">
         <f t="shared" si="24"/>
         <v>27.434842249657063</v>
       </c>
@@ -16023,7 +16022,7 @@
       <c r="E664">
         <v>100</v>
       </c>
-      <c r="F664">
+      <c r="F664" s="6">
         <f t="shared" si="24"/>
         <v>30.189590629151066</v>
       </c>
@@ -16045,7 +16044,7 @@
       <c r="E665">
         <v>103</v>
       </c>
-      <c r="F665">
+      <c r="F665" s="6">
         <f t="shared" si="24"/>
         <v>38.766984079190038</v>
       </c>
@@ -16067,7 +16066,7 @@
       <c r="E666">
         <v>53</v>
       </c>
-      <c r="F666">
+      <c r="F666" s="6">
         <f t="shared" si="24"/>
         <v>22.060353798126954</v>
       </c>
@@ -16089,7 +16088,7 @@
       <c r="E667">
         <v>151</v>
       </c>
-      <c r="F667">
+      <c r="F667" s="6">
         <f t="shared" si="24"/>
         <v>43.181103262889984</v>
       </c>
@@ -16111,7 +16110,7 @@
       <c r="E668">
         <v>72</v>
       </c>
-      <c r="F668">
+      <c r="F668" s="6">
         <f t="shared" si="24"/>
         <v>19.130619619513229</v>
       </c>
@@ -16133,7 +16132,7 @@
       <c r="E669">
         <v>101</v>
       </c>
-      <c r="F669">
+      <c r="F669" s="6">
         <f t="shared" si="24"/>
         <v>33.359756903157617</v>
       </c>
@@ -16155,7 +16154,7 @@
       <c r="E670">
         <v>60</v>
       </c>
-      <c r="F670">
+      <c r="F670" s="6">
         <f t="shared" si="24"/>
         <v>21.513858510523864</v>
       </c>
@@ -16177,7 +16176,7 @@
       <c r="E671">
         <v>68</v>
       </c>
-      <c r="F671">
+      <c r="F671" s="6">
         <f t="shared" si="24"/>
         <v>17.882971729125575</v>
       </c>
@@ -16199,7 +16198,7 @@
       <c r="E672">
         <v>61</v>
       </c>
-      <c r="F672">
+      <c r="F672" s="6">
         <f t="shared" si="24"/>
         <v>18.827160493827158</v>
       </c>
@@ -16221,7 +16220,7 @@
       <c r="E673">
         <v>65</v>
       </c>
-      <c r="F673">
+      <c r="F673" s="6">
         <f t="shared" si="24"/>
         <v>19.840664204389366</v>
       </c>
@@ -16243,7 +16242,7 @@
       <c r="E674">
         <v>64</v>
       </c>
-      <c r="F674">
+      <c r="F674" s="6">
         <f t="shared" si="24"/>
         <v>17.72853185595568</v>
       </c>
@@ -16265,7 +16264,7 @@
       <c r="E675">
         <v>140</v>
       </c>
-      <c r="F675">
+      <c r="F675" s="6">
         <f t="shared" si="24"/>
         <v>41.351606805293002</v>
       </c>
@@ -16287,7 +16286,7 @@
       <c r="E676">
         <v>85</v>
       </c>
-      <c r="F676">
+      <c r="F676" s="6">
         <f t="shared" si="24"/>
         <v>22.353714661406968</v>
       </c>
@@ -16309,7 +16308,7 @@
       <c r="E677">
         <v>75</v>
       </c>
-      <c r="F677">
+      <c r="F677" s="6">
         <f t="shared" si="24"/>
         <v>20.775623268698062</v>
       </c>
@@ -16331,7 +16330,7 @@
       <c r="E678">
         <v>69</v>
       </c>
-      <c r="F678">
+      <c r="F678" s="6">
         <f t="shared" si="24"/>
         <v>17.961266139108705</v>
       </c>
@@ -16353,7 +16352,7 @@
       <c r="E679">
         <v>95</v>
       </c>
-      <c r="F679">
+      <c r="F679" s="6">
         <f t="shared" si="24"/>
         <v>31.741788900397605</v>
       </c>
@@ -16375,7 +16374,7 @@
       <c r="E680">
         <v>65</v>
       </c>
-      <c r="F680">
+      <c r="F680" s="6">
         <f t="shared" si="24"/>
         <v>27.055150884495319</v>
       </c>
@@ -16397,7 +16396,7 @@
       <c r="E681">
         <v>50</v>
       </c>
-      <c r="F681">
+      <c r="F681" s="6">
         <f t="shared" si="24"/>
         <v>15.605006085952372</v>
       </c>
@@ -16419,7 +16418,7 @@
       <c r="E682">
         <v>59</v>
       </c>
-      <c r="F682">
+      <c r="F682" s="6">
         <f t="shared" si="24"/>
         <v>20.904195011337869</v>
       </c>
@@ -16441,7 +16440,7 @@
       <c r="E683">
         <v>63</v>
       </c>
-      <c r="F683">
+      <c r="F683" s="6">
         <f t="shared" si="24"/>
         <v>24.304617877396701</v>
       </c>
@@ -16463,7 +16462,7 @@
       <c r="E684">
         <v>81</v>
       </c>
-      <c r="F684">
+      <c r="F684" s="6">
         <f t="shared" si="24"/>
         <v>20.661157024793386</v>
       </c>
@@ -16485,7 +16484,7 @@
       <c r="E685">
         <v>78</v>
       </c>
-      <c r="F685">
+      <c r="F685" s="6">
         <f t="shared" si="24"/>
         <v>27.636054421768709</v>
       </c>
@@ -16507,7 +16506,7 @@
       <c r="E686">
         <v>98</v>
       </c>
-      <c r="F686">
+      <c r="F686" s="6">
         <f t="shared" si="24"/>
         <v>37.34186861758878</v>
       </c>
@@ -16529,7 +16528,7 @@
       <c r="E687">
         <v>74</v>
       </c>
-      <c r="F687">
+      <c r="F687" s="6">
         <f t="shared" si="24"/>
         <v>21.161600274528869</v>
       </c>
@@ -16551,7 +16550,7 @@
       <c r="E688">
         <v>92</v>
       </c>
-      <c r="F688">
+      <c r="F688" s="6">
         <f t="shared" si="24"/>
         <v>37.804076265614725</v>
       </c>
@@ -16573,7 +16572,7 @@
       <c r="E689">
         <v>110</v>
       </c>
-      <c r="F689">
+      <c r="F689" s="6">
         <f t="shared" si="24"/>
         <v>33.576508653582003</v>
       </c>
@@ -16595,7 +16594,7 @@
       <c r="E690">
         <v>65</v>
       </c>
-      <c r="F690">
+      <c r="F690" s="6">
         <f t="shared" si="24"/>
         <v>22.491349480968857</v>
       </c>
@@ -16617,7 +16616,7 @@
       <c r="E691">
         <v>79</v>
       </c>
-      <c r="F691">
+      <c r="F691" s="6">
         <f t="shared" si="24"/>
         <v>26.703623580313685</v>
       </c>
@@ -16639,7 +16638,7 @@
       <c r="E692">
         <v>53</v>
       </c>
-      <c r="F692">
+      <c r="F692" s="6">
         <f t="shared" si="24"/>
         <v>23.244594535327398</v>
       </c>
@@ -16661,7 +16660,7 @@
       <c r="E693">
         <v>41</v>
       </c>
-      <c r="F693">
+      <c r="F693" s="6">
         <f t="shared" si="24"/>
         <v>17.514631124781069</v>
       </c>
@@ -16683,7 +16682,7 @@
       <c r="E694">
         <v>55</v>
       </c>
-      <c r="F694">
+      <c r="F694" s="6">
         <f t="shared" si="24"/>
         <v>21.484375</v>
       </c>
@@ -16705,7 +16704,7 @@
       <c r="E695">
         <v>90</v>
       </c>
-      <c r="F695">
+      <c r="F695" s="6">
         <f t="shared" si="24"/>
         <v>36.982248520710058</v>
       </c>
@@ -16727,7 +16726,7 @@
       <c r="E696">
         <v>90</v>
       </c>
-      <c r="F696">
+      <c r="F696" s="6">
         <f t="shared" si="24"/>
         <v>24.161722462347985</v>
       </c>
@@ -16749,7 +16748,7 @@
       <c r="E697">
         <v>96</v>
       </c>
-      <c r="F697">
+      <c r="F697" s="6">
         <f t="shared" si="24"/>
         <v>33.217993079584772</v>
       </c>
@@ -16771,7 +16770,7 @@
       <c r="E698">
         <v>114</v>
       </c>
-      <c r="F698">
+      <c r="F698" s="6">
         <f t="shared" si="24"/>
         <v>36.388011107919176</v>
       </c>
@@ -16793,7 +16792,7 @@
       <c r="E699">
         <v>81</v>
       </c>
-      <c r="F699">
+      <c r="F699" s="6">
         <f t="shared" si="24"/>
         <v>26.448979591836736</v>
       </c>
@@ -16815,7 +16814,7 @@
       <c r="E700">
         <v>66</v>
       </c>
-      <c r="F700">
+      <c r="F700" s="6">
         <f t="shared" si="24"/>
         <v>26.438070821983658</v>
       </c>
@@ -16837,7 +16836,7 @@
       <c r="E701">
         <v>52</v>
       </c>
-      <c r="F701">
+      <c r="F701" s="6">
         <f t="shared" si="24"/>
         <v>21.367521367521366</v>
       </c>
@@ -16859,7 +16858,7 @@
       <c r="E702">
         <v>86</v>
       </c>
-      <c r="F702">
+      <c r="F702" s="6">
         <f t="shared" si="24"/>
         <v>35.796045785639961</v>
       </c>
@@ -16881,7 +16880,7 @@
       <c r="E703">
         <v>64</v>
       </c>
-      <c r="F703">
+      <c r="F703" s="6">
         <f t="shared" si="24"/>
         <v>19.535423216629528</v>
       </c>
@@ -16903,7 +16902,7 @@
       <c r="E704">
         <v>76</v>
       </c>
-      <c r="F704">
+      <c r="F704" s="6">
         <f t="shared" si="24"/>
         <v>26.297577854671278</v>
       </c>
@@ -16925,13 +16924,13 @@
       <c r="E705">
         <v>98</v>
       </c>
-      <c r="F705">
+      <c r="F705" s="6">
         <f t="shared" si="24"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G705" t="str">
         <f t="shared" si="25"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H705">
         <v>198</v>
@@ -16947,13 +16946,13 @@
       <c r="E706">
         <v>73</v>
       </c>
-      <c r="F706">
+      <c r="F706" s="6">
         <f t="shared" si="24"/>
         <v>29.996712689020377</v>
       </c>
       <c r="G706" t="str">
         <f t="shared" si="25"/>
-        <v>nadwaga</v>
+        <v>otylosc</v>
       </c>
       <c r="H706">
         <v>156</v>
@@ -16969,7 +16968,7 @@
       <c r="E707">
         <v>95</v>
       </c>
-      <c r="F707">
+      <c r="F707" s="6">
         <f t="shared" si="24"/>
         <v>24.729279466888798</v>
       </c>
@@ -16991,7 +16990,7 @@
       <c r="E708">
         <v>67</v>
       </c>
-      <c r="F708">
+      <c r="F708" s="6">
         <f t="shared" si="24"/>
         <v>26.502116213757365</v>
       </c>
@@ -17013,7 +17012,7 @@
       <c r="E709">
         <v>53</v>
       </c>
-      <c r="F709">
+      <c r="F709" s="6">
         <f t="shared" si="24"/>
         <v>20.195092211553117</v>
       </c>
@@ -17035,7 +17034,7 @@
       <c r="E710">
         <v>71</v>
       </c>
-      <c r="F710">
+      <c r="F710" s="6">
         <f t="shared" si="24"/>
         <v>27.053802773967384</v>
       </c>
@@ -17057,7 +17056,7 @@
       <c r="E711">
         <v>72</v>
       </c>
-      <c r="F711">
+      <c r="F711" s="6">
         <f t="shared" si="24"/>
         <v>27.099251006812452</v>
       </c>
@@ -17079,12 +17078,12 @@
       <c r="E712">
         <v>54</v>
       </c>
-      <c r="F712">
+      <c r="F712" s="6">
         <f t="shared" ref="F712:F775" si="26">E712/(D712/100*D712/100)</f>
         <v>18.253109789075179</v>
       </c>
       <c r="G712" t="str">
-        <f t="shared" ref="G712:G775" si="27">IF(F712&lt;F$1,D$1,IF(AND(F712&gt;=E$2,F712&lt;F$2),D$2,IF(AND(F712&gt;=E$3,F712&lt;F$3),D$3,IF(F712&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G712:G775" si="27">IF(F712&lt;=F$1,D$1,IF(AND(F712&gt;=E$2,F712&lt;=F$2),D$2,IF(AND(F712&gt;=E$3,F712&lt;=F$3),D$3,IF(F712&gt;=E$5,D$5,D$4))))</f>
         <v>niedowaga</v>
       </c>
       <c r="H712">
@@ -17101,7 +17100,7 @@
       <c r="E713">
         <v>88</v>
       </c>
-      <c r="F713">
+      <c r="F713" s="6">
         <f t="shared" si="26"/>
         <v>22.446689113355777</v>
       </c>
@@ -17123,7 +17122,7 @@
       <c r="E714">
         <v>149</v>
       </c>
-      <c r="F714">
+      <c r="F714" s="6">
         <f t="shared" si="26"/>
         <v>40.001073854331658</v>
       </c>
@@ -17145,7 +17144,7 @@
       <c r="E715">
         <v>69</v>
       </c>
-      <c r="F715">
+      <c r="F715" s="6">
         <f t="shared" si="26"/>
         <v>20.380434782608695</v>
       </c>
@@ -17167,7 +17166,7 @@
       <c r="E716">
         <v>54</v>
       </c>
-      <c r="F716">
+      <c r="F716" s="6">
         <f t="shared" si="26"/>
         <v>19.834710743801651</v>
       </c>
@@ -17189,7 +17188,7 @@
       <c r="E717">
         <v>102</v>
       </c>
-      <c r="F717">
+      <c r="F717" s="6">
         <f t="shared" si="26"/>
         <v>28.554631729234906</v>
       </c>
@@ -17211,7 +17210,7 @@
       <c r="E718">
         <v>103</v>
       </c>
-      <c r="F718">
+      <c r="F718" s="6">
         <f t="shared" si="26"/>
         <v>30.756367762548898</v>
       </c>
@@ -17233,7 +17232,7 @@
       <c r="E719">
         <v>48</v>
       </c>
-      <c r="F719">
+      <c r="F719" s="6">
         <f t="shared" si="26"/>
         <v>20.504933999743688</v>
       </c>
@@ -17255,7 +17254,7 @@
       <c r="E720">
         <v>67</v>
       </c>
-      <c r="F720">
+      <c r="F720" s="6">
         <f t="shared" si="26"/>
         <v>17.440649729279468</v>
       </c>
@@ -17277,7 +17276,7 @@
       <c r="E721">
         <v>86</v>
       </c>
-      <c r="F721">
+      <c r="F721" s="6">
         <f t="shared" si="26"/>
         <v>24.332277048438208</v>
       </c>
@@ -17299,7 +17298,7 @@
       <c r="E722">
         <v>79</v>
       </c>
-      <c r="F722">
+      <c r="F722" s="6">
         <f t="shared" si="26"/>
         <v>25.216253311628201</v>
       </c>
@@ -17321,7 +17320,7 @@
       <c r="E723">
         <v>98</v>
       </c>
-      <c r="F723">
+      <c r="F723" s="6">
         <f t="shared" si="26"/>
         <v>33.126014061654949</v>
       </c>
@@ -17343,7 +17342,7 @@
       <c r="E724">
         <v>97</v>
       </c>
-      <c r="F724">
+      <c r="F724" s="6">
         <f t="shared" si="26"/>
         <v>26.040967542752828</v>
       </c>
@@ -17365,7 +17364,7 @@
       <c r="E725">
         <v>101</v>
       </c>
-      <c r="F725">
+      <c r="F725" s="6">
         <f t="shared" si="26"/>
         <v>25.762677277828789</v>
       </c>
@@ -17387,7 +17386,7 @@
       <c r="E726">
         <v>69</v>
       </c>
-      <c r="F726">
+      <c r="F726" s="6">
         <f t="shared" si="26"/>
         <v>19.113573407202217</v>
       </c>
@@ -17409,7 +17408,7 @@
       <c r="E727">
         <v>59</v>
       </c>
-      <c r="F727">
+      <c r="F727" s="6">
         <f t="shared" si="26"/>
         <v>20.904195011337869</v>
       </c>
@@ -17431,7 +17430,7 @@
       <c r="E728">
         <v>96</v>
       </c>
-      <c r="F728">
+      <c r="F728" s="6">
         <f t="shared" si="26"/>
         <v>27.748872702046476</v>
       </c>
@@ -17453,7 +17452,7 @@
       <c r="E729">
         <v>88</v>
       </c>
-      <c r="F729">
+      <c r="F729" s="6">
         <f t="shared" si="26"/>
         <v>25.165146272412709</v>
       </c>
@@ -17475,7 +17474,7 @@
       <c r="E730">
         <v>89</v>
       </c>
-      <c r="F730">
+      <c r="F730" s="6">
         <f t="shared" si="26"/>
         <v>26.287807183364837</v>
       </c>
@@ -17497,7 +17496,7 @@
       <c r="E731">
         <v>116</v>
       </c>
-      <c r="F731">
+      <c r="F731" s="6">
         <f t="shared" si="26"/>
         <v>32.473894907757341</v>
       </c>
@@ -17519,7 +17518,7 @@
       <c r="E732">
         <v>46</v>
       </c>
-      <c r="F732">
+      <c r="F732" s="6">
         <f t="shared" si="26"/>
         <v>20.174553747642648</v>
       </c>
@@ -17541,7 +17540,7 @@
       <c r="E733">
         <v>88</v>
       </c>
-      <c r="F733">
+      <c r="F733" s="6">
         <f t="shared" si="26"/>
         <v>38.594798473751148</v>
       </c>
@@ -17563,7 +17562,7 @@
       <c r="E734">
         <v>49</v>
       </c>
-      <c r="F734">
+      <c r="F734" s="6">
         <f t="shared" si="26"/>
         <v>19.140625</v>
       </c>
@@ -17585,7 +17584,7 @@
       <c r="E735">
         <v>75</v>
       </c>
-      <c r="F735">
+      <c r="F735" s="6">
         <f t="shared" si="26"/>
         <v>18.938915683947375</v>
       </c>
@@ -17607,7 +17606,7 @@
       <c r="E736">
         <v>90</v>
       </c>
-      <c r="F736">
+      <c r="F736" s="6">
         <f t="shared" si="26"/>
         <v>30.778701138811947</v>
       </c>
@@ -17629,7 +17628,7 @@
       <c r="E737">
         <v>68</v>
       </c>
-      <c r="F737">
+      <c r="F737" s="6">
         <f t="shared" si="26"/>
         <v>24.382372978593711</v>
       </c>
@@ -17651,7 +17650,7 @@
       <c r="E738">
         <v>67</v>
       </c>
-      <c r="F738">
+      <c r="F738" s="6">
         <f t="shared" si="26"/>
         <v>25.217358575783809</v>
       </c>
@@ -17673,7 +17672,7 @@
       <c r="E739">
         <v>97</v>
       </c>
-      <c r="F739">
+      <c r="F739" s="6">
         <f t="shared" si="26"/>
         <v>36.06484235574063</v>
       </c>
@@ -17695,7 +17694,7 @@
       <c r="E740">
         <v>49</v>
       </c>
-      <c r="F740">
+      <c r="F740" s="6">
         <f t="shared" si="26"/>
         <v>17.15626203564301</v>
       </c>
@@ -17717,7 +17716,7 @@
       <c r="E741">
         <v>98</v>
       </c>
-      <c r="F741">
+      <c r="F741" s="6">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
@@ -17739,7 +17738,7 @@
       <c r="E742">
         <v>33</v>
       </c>
-      <c r="F742">
+      <c r="F742" s="6">
         <f t="shared" si="26"/>
         <v>13.053281120208851</v>
       </c>
@@ -17761,7 +17760,7 @@
       <c r="E743">
         <v>51</v>
       </c>
-      <c r="F743">
+      <c r="F743" s="6">
         <f t="shared" si="26"/>
         <v>17.856517628934562</v>
       </c>
@@ -17783,7 +17782,7 @@
       <c r="E744">
         <v>72</v>
       </c>
-      <c r="F744">
+      <c r="F744" s="6">
         <f t="shared" si="26"/>
         <v>18.934911242603548</v>
       </c>
@@ -17805,7 +17804,7 @@
       <c r="E745">
         <v>54</v>
       </c>
-      <c r="F745">
+      <c r="F745" s="6">
         <f t="shared" si="26"/>
         <v>18.906901018871888</v>
       </c>
@@ -17827,7 +17826,7 @@
       <c r="E746">
         <v>54</v>
       </c>
-      <c r="F746">
+      <c r="F746" s="6">
         <f t="shared" si="26"/>
         <v>18.685121107266436</v>
       </c>
@@ -17849,7 +17848,7 @@
       <c r="E747">
         <v>51</v>
       </c>
-      <c r="F747">
+      <c r="F747" s="6">
         <f t="shared" si="26"/>
         <v>14.127423822714682</v>
       </c>
@@ -17871,7 +17870,7 @@
       <c r="E748">
         <v>84</v>
       </c>
-      <c r="F748">
+      <c r="F748" s="6">
         <f t="shared" si="26"/>
         <v>23.515579071134628</v>
       </c>
@@ -17893,7 +17892,7 @@
       <c r="E749">
         <v>96</v>
       </c>
-      <c r="F749">
+      <c r="F749" s="6">
         <f t="shared" si="26"/>
         <v>35.693039857227838</v>
       </c>
@@ -17915,7 +17914,7 @@
       <c r="E750">
         <v>108</v>
       </c>
-      <c r="F750">
+      <c r="F750" s="6">
         <f t="shared" si="26"/>
         <v>34.086605226612804</v>
       </c>
@@ -17937,7 +17936,7 @@
       <c r="E751">
         <v>109</v>
       </c>
-      <c r="F751">
+      <c r="F751" s="6">
         <f t="shared" si="26"/>
         <v>29.568142361111111</v>
       </c>
@@ -17959,7 +17958,7 @@
       <c r="E752">
         <v>63</v>
       </c>
-      <c r="F752">
+      <c r="F752" s="6">
         <f t="shared" si="26"/>
         <v>26.91272587466359</v>
       </c>
@@ -17981,7 +17980,7 @@
       <c r="E753">
         <v>36</v>
       </c>
-      <c r="F753">
+      <c r="F753" s="6">
         <f t="shared" si="26"/>
         <v>14.0625</v>
       </c>
@@ -18003,7 +18002,7 @@
       <c r="E754">
         <v>66</v>
       </c>
-      <c r="F754">
+      <c r="F754" s="6">
         <f t="shared" si="26"/>
         <v>29.333333333333332</v>
       </c>
@@ -18025,7 +18024,7 @@
       <c r="E755">
         <v>135</v>
       </c>
-      <c r="F755">
+      <c r="F755" s="6">
         <f t="shared" si="26"/>
         <v>41.207533347577915</v>
       </c>
@@ -18047,7 +18046,7 @@
       <c r="E756">
         <v>133</v>
       </c>
-      <c r="F756">
+      <c r="F756" s="6">
         <f t="shared" si="26"/>
         <v>35.705656527692021</v>
       </c>
@@ -18069,7 +18068,7 @@
       <c r="E757">
         <v>88</v>
       </c>
-      <c r="F757">
+      <c r="F757" s="6">
         <f t="shared" si="26"/>
         <v>23.381868423849504</v>
       </c>
@@ -18091,7 +18090,7 @@
       <c r="E758">
         <v>73</v>
       </c>
-      <c r="F758">
+      <c r="F758" s="6">
         <f t="shared" si="26"/>
         <v>26.813590449954084</v>
       </c>
@@ -18113,7 +18112,7 @@
       <c r="E759">
         <v>81</v>
       </c>
-      <c r="F759">
+      <c r="F759" s="6">
         <f t="shared" si="26"/>
         <v>23.666910153396639</v>
       </c>
@@ -18135,7 +18134,7 @@
       <c r="E760">
         <v>101</v>
       </c>
-      <c r="F760">
+      <c r="F760" s="6">
         <f t="shared" si="26"/>
         <v>32.979591836734691</v>
       </c>
@@ -18157,7 +18156,7 @@
       <c r="E761">
         <v>97</v>
       </c>
-      <c r="F761">
+      <c r="F761" s="6">
         <f t="shared" si="26"/>
         <v>27.154894879762605</v>
       </c>
@@ -18179,7 +18178,7 @@
       <c r="E762">
         <v>62</v>
       </c>
-      <c r="F762">
+      <c r="F762" s="6">
         <f t="shared" si="26"/>
         <v>20.244897959183675</v>
       </c>
@@ -18201,7 +18200,7 @@
       <c r="E763">
         <v>65</v>
       </c>
-      <c r="F763">
+      <c r="F763" s="6">
         <f t="shared" si="26"/>
         <v>19.409358296754156</v>
       </c>
@@ -18223,7 +18222,7 @@
       <c r="E764">
         <v>115</v>
       </c>
-      <c r="F764">
+      <c r="F764" s="6">
         <f t="shared" si="26"/>
         <v>30.555850781166967</v>
       </c>
@@ -18245,7 +18244,7 @@
       <c r="E765">
         <v>91</v>
       </c>
-      <c r="F765">
+      <c r="F765" s="6">
         <f t="shared" si="26"/>
         <v>27.472527472527471</v>
       </c>
@@ -18267,7 +18266,7 @@
       <c r="E766">
         <v>86</v>
       </c>
-      <c r="F766">
+      <c r="F766" s="6">
         <f t="shared" si="26"/>
         <v>33.177732340573279</v>
       </c>
@@ -18289,7 +18288,7 @@
       <c r="E767">
         <v>94</v>
       </c>
-      <c r="F767">
+      <c r="F767" s="6">
         <f t="shared" si="26"/>
         <v>31.047694543532831</v>
       </c>
@@ -18311,7 +18310,7 @@
       <c r="E768">
         <v>101</v>
       </c>
-      <c r="F768">
+      <c r="F768" s="6">
         <f t="shared" si="26"/>
         <v>38.484987044657828</v>
       </c>
@@ -18333,7 +18332,7 @@
       <c r="E769">
         <v>78</v>
       </c>
-      <c r="F769">
+      <c r="F769" s="6">
         <f t="shared" si="26"/>
         <v>33.320517749583495</v>
       </c>
@@ -18355,7 +18354,7 @@
       <c r="E770">
         <v>106</v>
       </c>
-      <c r="F770">
+      <c r="F770" s="6">
         <f t="shared" si="26"/>
         <v>34.612244897959187</v>
       </c>
@@ -18377,7 +18376,7 @@
       <c r="E771">
         <v>115</v>
       </c>
-      <c r="F771">
+      <c r="F771" s="6">
         <f t="shared" si="26"/>
         <v>34.339633909641975</v>
       </c>
@@ -18399,7 +18398,7 @@
       <c r="E772">
         <v>50</v>
       </c>
-      <c r="F772">
+      <c r="F772" s="6">
         <f t="shared" si="26"/>
         <v>18.818924310286427</v>
       </c>
@@ -18421,7 +18420,7 @@
       <c r="E773">
         <v>69</v>
       </c>
-      <c r="F773">
+      <c r="F773" s="6">
         <f t="shared" si="26"/>
         <v>18.913955209561141</v>
       </c>
@@ -18443,7 +18442,7 @@
       <c r="E774">
         <v>93</v>
       </c>
-      <c r="F774">
+      <c r="F774" s="6">
         <f t="shared" si="26"/>
         <v>27.770312639971333</v>
       </c>
@@ -18465,7 +18464,7 @@
       <c r="E775">
         <v>53</v>
       </c>
-      <c r="F775">
+      <c r="F775" s="6">
         <f t="shared" si="26"/>
         <v>21.230572023714149</v>
       </c>
@@ -18487,12 +18486,12 @@
       <c r="E776">
         <v>57</v>
       </c>
-      <c r="F776">
+      <c r="F776" s="6">
         <f t="shared" ref="F776:F839" si="28">E776/(D776/100*D776/100)</f>
         <v>20.195578231292515</v>
       </c>
       <c r="G776" t="str">
-        <f t="shared" ref="G776:G839" si="29">IF(F776&lt;F$1,D$1,IF(AND(F776&gt;=E$2,F776&lt;F$2),D$2,IF(AND(F776&gt;=E$3,F776&lt;F$3),D$3,IF(F776&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G776:G839" si="29">IF(F776&lt;=F$1,D$1,IF(AND(F776&gt;=E$2,F776&lt;=F$2),D$2,IF(AND(F776&gt;=E$3,F776&lt;=F$3),D$3,IF(F776&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H776">
@@ -18509,7 +18508,7 @@
       <c r="E777">
         <v>63</v>
       </c>
-      <c r="F777">
+      <c r="F777" s="6">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
@@ -18531,7 +18530,7 @@
       <c r="E778">
         <v>66</v>
       </c>
-      <c r="F778">
+      <c r="F778" s="6">
         <f t="shared" si="28"/>
         <v>21.066743273005841</v>
       </c>
@@ -18553,7 +18552,7 @@
       <c r="E779">
         <v>76</v>
       </c>
-      <c r="F779">
+      <c r="F779" s="6">
         <f t="shared" si="28"/>
         <v>27.915518824609734</v>
       </c>
@@ -18575,7 +18574,7 @@
       <c r="E780">
         <v>106</v>
       </c>
-      <c r="F780">
+      <c r="F780" s="6">
         <f t="shared" si="28"/>
         <v>36.250470230156289</v>
       </c>
@@ -18597,7 +18596,7 @@
       <c r="E781">
         <v>52</v>
       </c>
-      <c r="F781">
+      <c r="F781" s="6">
         <f t="shared" si="28"/>
         <v>13.536026655560184</v>
       </c>
@@ -18619,7 +18618,7 @@
       <c r="E782">
         <v>60</v>
       </c>
-      <c r="F782">
+      <c r="F782" s="6">
         <f t="shared" si="28"/>
         <v>23.733238400379729</v>
       </c>
@@ -18641,7 +18640,7 @@
       <c r="E783">
         <v>105</v>
       </c>
-      <c r="F783">
+      <c r="F783" s="6">
         <f t="shared" si="28"/>
         <v>40.009144947416551</v>
       </c>
@@ -18663,7 +18662,7 @@
       <c r="E784">
         <v>90</v>
       </c>
-      <c r="F784">
+      <c r="F784" s="6">
         <f t="shared" si="28"/>
         <v>25.737081414967541</v>
       </c>
@@ -18685,7 +18684,7 @@
       <c r="E785">
         <v>84</v>
       </c>
-      <c r="F785">
+      <c r="F785" s="6">
         <f t="shared" si="28"/>
         <v>22.550940964858118</v>
       </c>
@@ -18707,7 +18706,7 @@
       <c r="E786">
         <v>53</v>
       </c>
-      <c r="F786">
+      <c r="F786" s="6">
         <f t="shared" si="28"/>
         <v>15.826092149661083</v>
       </c>
@@ -18729,7 +18728,7 @@
       <c r="E787">
         <v>66</v>
       </c>
-      <c r="F787">
+      <c r="F787" s="6">
         <f t="shared" si="28"/>
         <v>21.551020408163264</v>
       </c>
@@ -18751,7 +18750,7 @@
       <c r="E788">
         <v>64</v>
       </c>
-      <c r="F788">
+      <c r="F788" s="6">
         <f t="shared" si="28"/>
         <v>22.675736961451246</v>
       </c>
@@ -18773,7 +18772,7 @@
       <c r="E789">
         <v>82</v>
       </c>
-      <c r="F789">
+      <c r="F789" s="6">
         <f t="shared" si="28"/>
         <v>23.702162099664697</v>
       </c>
@@ -18795,7 +18794,7 @@
       <c r="E790">
         <v>41</v>
       </c>
-      <c r="F790">
+      <c r="F790" s="6">
         <f t="shared" si="28"/>
         <v>15.059687786960513</v>
       </c>
@@ -18817,7 +18816,7 @@
       <c r="E791">
         <v>87</v>
       </c>
-      <c r="F791">
+      <c r="F791" s="6">
         <f t="shared" si="28"/>
         <v>37.165192874535435</v>
       </c>
@@ -18839,7 +18838,7 @@
       <c r="E792">
         <v>62</v>
       </c>
-      <c r="F792">
+      <c r="F792" s="6">
         <f t="shared" si="28"/>
         <v>18.312854442344044</v>
       </c>
@@ -18861,7 +18860,7 @@
       <c r="E793">
         <v>64</v>
       </c>
-      <c r="F793">
+      <c r="F793" s="6">
         <f t="shared" si="28"/>
         <v>23.225431847873423</v>
       </c>
@@ -18883,7 +18882,7 @@
       <c r="E794">
         <v>82</v>
       </c>
-      <c r="F794">
+      <c r="F794" s="6">
         <f t="shared" si="28"/>
         <v>32.435425813852298</v>
       </c>
@@ -18905,7 +18904,7 @@
       <c r="E795">
         <v>81</v>
       </c>
-      <c r="F795">
+      <c r="F795" s="6">
         <f t="shared" si="28"/>
         <v>26.149276859504134</v>
       </c>
@@ -18927,7 +18926,7 @@
       <c r="E796">
         <v>70</v>
       </c>
-      <c r="F796">
+      <c r="F796" s="6">
         <f t="shared" si="28"/>
         <v>24.221453287197232</v>
       </c>
@@ -18949,7 +18948,7 @@
       <c r="E797">
         <v>80</v>
       </c>
-      <c r="F797">
+      <c r="F797" s="6">
         <f t="shared" si="28"/>
         <v>24.419279020786909</v>
       </c>
@@ -18971,7 +18970,7 @@
       <c r="E798">
         <v>71</v>
       </c>
-      <c r="F798">
+      <c r="F798" s="6">
         <f t="shared" si="28"/>
         <v>30.330214874620872</v>
       </c>
@@ -18993,7 +18992,7 @@
       <c r="E799">
         <v>92</v>
       </c>
-      <c r="F799">
+      <c r="F799" s="6">
         <f t="shared" si="28"/>
         <v>24.444680624933572</v>
       </c>
@@ -19015,7 +19014,7 @@
       <c r="E800">
         <v>63</v>
       </c>
-      <c r="F800">
+      <c r="F800" s="6">
         <f t="shared" si="28"/>
         <v>18.812147272238647</v>
       </c>
@@ -19037,7 +19036,7 @@
       <c r="E801">
         <v>59</v>
       </c>
-      <c r="F801">
+      <c r="F801" s="6">
         <f t="shared" si="28"/>
         <v>17.053994681466062</v>
       </c>
@@ -19059,7 +19058,7 @@
       <c r="E802">
         <v>52</v>
       </c>
-      <c r="F802">
+      <c r="F802" s="6">
         <f t="shared" si="28"/>
         <v>18.206645425580337</v>
       </c>
@@ -19081,7 +19080,7 @@
       <c r="E803">
         <v>76</v>
       </c>
-      <c r="F803">
+      <c r="F803" s="6">
         <f t="shared" si="28"/>
         <v>29.6875</v>
       </c>
@@ -19103,7 +19102,7 @@
       <c r="E804">
         <v>138</v>
       </c>
-      <c r="F804">
+      <c r="F804" s="6">
         <f t="shared" si="28"/>
         <v>38.227146814404435</v>
       </c>
@@ -19125,7 +19124,7 @@
       <c r="E805">
         <v>108</v>
       </c>
-      <c r="F805">
+      <c r="F805" s="6">
         <f t="shared" si="28"/>
         <v>31.555880204528854</v>
       </c>
@@ -19147,7 +19146,7 @@
       <c r="E806">
         <v>92</v>
       </c>
-      <c r="F806">
+      <c r="F806" s="6">
         <f t="shared" si="28"/>
         <v>24.69864962817794</v>
       </c>
@@ -19169,7 +19168,7 @@
       <c r="E807">
         <v>62</v>
       </c>
-      <c r="F807">
+      <c r="F807" s="6">
         <f t="shared" si="28"/>
         <v>25.153150229218223</v>
       </c>
@@ -19191,7 +19190,7 @@
       <c r="E808">
         <v>107</v>
       </c>
-      <c r="F808">
+      <c r="F808" s="6">
         <f t="shared" si="28"/>
         <v>27.019519709098258</v>
       </c>
@@ -19213,7 +19212,7 @@
       <c r="E809">
         <v>71</v>
       </c>
-      <c r="F809">
+      <c r="F809" s="6">
         <f t="shared" si="28"/>
         <v>27.390918560240728</v>
       </c>
@@ -19235,7 +19234,7 @@
       <c r="E810">
         <v>57</v>
       </c>
-      <c r="F810">
+      <c r="F810" s="6">
         <f t="shared" si="28"/>
         <v>23.124670372023203</v>
       </c>
@@ -19257,7 +19256,7 @@
       <c r="E811">
         <v>71</v>
       </c>
-      <c r="F811">
+      <c r="F811" s="6">
         <f t="shared" si="28"/>
         <v>28.804413972169254</v>
       </c>
@@ -19279,7 +19278,7 @@
       <c r="E812">
         <v>82</v>
       </c>
-      <c r="F812">
+      <c r="F812" s="6">
         <f t="shared" si="28"/>
         <v>26.173832551310287</v>
       </c>
@@ -19301,13 +19300,13 @@
       <c r="E813">
         <v>98</v>
       </c>
-      <c r="F813">
+      <c r="F813" s="6">
         <f t="shared" si="28"/>
         <v>24.997449239873479</v>
       </c>
       <c r="G813" t="str">
         <f t="shared" si="29"/>
-        <v>prawidlowa masa ciala</v>
+        <v>otylosc</v>
       </c>
       <c r="H813">
         <v>198</v>
@@ -19323,7 +19322,7 @@
       <c r="E814">
         <v>64</v>
       </c>
-      <c r="F814">
+      <c r="F814" s="6">
         <f t="shared" si="28"/>
         <v>28.068944344546292</v>
       </c>
@@ -19345,7 +19344,7 @@
       <c r="E815">
         <v>100</v>
       </c>
-      <c r="F815">
+      <c r="F815" s="6">
         <f t="shared" si="28"/>
         <v>30.524098775983639</v>
       </c>
@@ -19367,7 +19366,7 @@
       <c r="E816">
         <v>66</v>
       </c>
-      <c r="F816">
+      <c r="F816" s="6">
         <f t="shared" si="28"/>
         <v>22.571047501795427</v>
       </c>
@@ -19389,7 +19388,7 @@
       <c r="E817">
         <v>56</v>
       </c>
-      <c r="F817">
+      <c r="F817" s="6">
         <f t="shared" si="28"/>
         <v>14.284256708499132</v>
       </c>
@@ -19411,7 +19410,7 @@
       <c r="E818">
         <v>73</v>
       </c>
-      <c r="F818">
+      <c r="F818" s="6">
         <f t="shared" si="28"/>
         <v>21.561909262759922</v>
       </c>
@@ -19433,7 +19432,7 @@
       <c r="E819">
         <v>78</v>
       </c>
-      <c r="F819">
+      <c r="F819" s="6">
         <f t="shared" si="28"/>
         <v>21.158854166666668</v>
       </c>
@@ -19455,7 +19454,7 @@
       <c r="E820">
         <v>65</v>
       </c>
-      <c r="F820">
+      <c r="F820" s="6">
         <f t="shared" si="28"/>
         <v>16.413726926087726</v>
       </c>
@@ -19477,7 +19476,7 @@
       <c r="E821">
         <v>93</v>
       </c>
-      <c r="F821">
+      <c r="F821" s="6">
         <f t="shared" si="28"/>
         <v>29.352354500694357</v>
       </c>
@@ -19499,7 +19498,7 @@
       <c r="E822">
         <v>88</v>
       </c>
-      <c r="F822">
+      <c r="F822" s="6">
         <f t="shared" si="28"/>
         <v>27.774270925388208</v>
       </c>
@@ -19521,7 +19520,7 @@
       <c r="E823">
         <v>81</v>
       </c>
-      <c r="F823">
+      <c r="F823" s="6">
         <f t="shared" si="28"/>
         <v>24.724520008546747</v>
       </c>
@@ -19543,7 +19542,7 @@
       <c r="E824">
         <v>79</v>
       </c>
-      <c r="F824">
+      <c r="F824" s="6">
         <f t="shared" si="28"/>
         <v>33.747703874578157</v>
       </c>
@@ -19565,7 +19564,7 @@
       <c r="E825">
         <v>52</v>
       </c>
-      <c r="F825">
+      <c r="F825" s="6">
         <f t="shared" si="28"/>
         <v>18.424036281179138</v>
       </c>
@@ -19587,7 +19586,7 @@
       <c r="E826">
         <v>49</v>
       </c>
-      <c r="F826">
+      <c r="F826" s="6">
         <f t="shared" si="28"/>
         <v>18.903591682419659</v>
       </c>
@@ -19609,7 +19608,7 @@
       <c r="E827">
         <v>61</v>
       </c>
-      <c r="F827">
+      <c r="F827" s="6">
         <f t="shared" si="28"/>
         <v>15.878800499791755</v>
       </c>
@@ -19631,7 +19630,7 @@
       <c r="E828">
         <v>55</v>
       </c>
-      <c r="F828">
+      <c r="F828" s="6">
         <f t="shared" si="28"/>
         <v>20.449137418203449</v>
       </c>
@@ -19653,7 +19652,7 @@
       <c r="E829">
         <v>111</v>
       </c>
-      <c r="F829">
+      <c r="F829" s="6">
         <f t="shared" si="28"/>
         <v>29.191321499013807</v>
       </c>
@@ -19675,7 +19674,7 @@
       <c r="E830">
         <v>112</v>
       </c>
-      <c r="F830">
+      <c r="F830" s="6">
         <f t="shared" si="28"/>
         <v>30.700912803925331</v>
       </c>
@@ -19697,7 +19696,7 @@
       <c r="E831">
         <v>91</v>
       </c>
-      <c r="F831">
+      <c r="F831" s="6">
         <f t="shared" si="28"/>
         <v>36.452491587886556</v>
       </c>
@@ -19719,7 +19718,7 @@
       <c r="E832">
         <v>121</v>
       </c>
-      <c r="F832">
+      <c r="F832" s="6">
         <f t="shared" si="28"/>
         <v>33.873631757229646</v>
       </c>
@@ -19741,7 +19740,7 @@
       <c r="E833">
         <v>53</v>
       </c>
-      <c r="F833">
+      <c r="F833" s="6">
         <f t="shared" si="28"/>
         <v>21.501886486267189</v>
       </c>
@@ -19763,7 +19762,7 @@
       <c r="E834">
         <v>76</v>
       </c>
-      <c r="F834">
+      <c r="F834" s="6">
         <f t="shared" si="28"/>
         <v>22.694018931589476</v>
       </c>
@@ -19785,7 +19784,7 @@
       <c r="E835">
         <v>86</v>
       </c>
-      <c r="F835">
+      <c r="F835" s="6">
         <f t="shared" si="28"/>
         <v>27.143037495265748</v>
       </c>
@@ -19807,7 +19806,7 @@
       <c r="E836">
         <v>62</v>
       </c>
-      <c r="F836">
+      <c r="F836" s="6">
         <f t="shared" si="28"/>
         <v>24.21875</v>
       </c>
@@ -19829,7 +19828,7 @@
       <c r="E837">
         <v>74</v>
       </c>
-      <c r="F837">
+      <c r="F837" s="6">
         <f t="shared" si="28"/>
         <v>19.866305135708341</v>
       </c>
@@ -19851,7 +19850,7 @@
       <c r="E838">
         <v>56</v>
       </c>
-      <c r="F838">
+      <c r="F838" s="6">
         <f t="shared" si="28"/>
         <v>21.875</v>
       </c>
@@ -19873,7 +19872,7 @@
       <c r="E839">
         <v>70</v>
       </c>
-      <c r="F839">
+      <c r="F839" s="6">
         <f t="shared" si="28"/>
         <v>24.801587301587301</v>
       </c>
@@ -19895,12 +19894,12 @@
       <c r="E840">
         <v>52</v>
       </c>
-      <c r="F840">
+      <c r="F840" s="6">
         <f t="shared" ref="F840:F903" si="30">E840/(D840/100*D840/100)</f>
         <v>21.644120707596255</v>
       </c>
       <c r="G840" t="str">
-        <f t="shared" ref="G840:G903" si="31">IF(F840&lt;F$1,D$1,IF(AND(F840&gt;=E$2,F840&lt;F$2),D$2,IF(AND(F840&gt;=E$3,F840&lt;F$3),D$3,IF(F840&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G840:G903" si="31">IF(F840&lt;=F$1,D$1,IF(AND(F840&gt;=E$2,F840&lt;=F$2),D$2,IF(AND(F840&gt;=E$3,F840&lt;=F$3),D$3,IF(F840&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H840">
@@ -19917,7 +19916,7 @@
       <c r="E841">
         <v>63</v>
       </c>
-      <c r="F841">
+      <c r="F841" s="6">
         <f t="shared" si="30"/>
         <v>18.812147272238647</v>
       </c>
@@ -19939,7 +19938,7 @@
       <c r="E842">
         <v>47</v>
       </c>
-      <c r="F842">
+      <c r="F842" s="6">
         <f t="shared" si="30"/>
         <v>17.263544536271809</v>
       </c>
@@ -19961,7 +19960,7 @@
       <c r="E843">
         <v>45</v>
       </c>
-      <c r="F843">
+      <c r="F843" s="6">
         <f t="shared" si="30"/>
         <v>14.044505477357134</v>
       </c>
@@ -19983,7 +19982,7 @@
       <c r="E844">
         <v>66</v>
       </c>
-      <c r="F844">
+      <c r="F844" s="6">
         <f t="shared" si="30"/>
         <v>19.707963809011915</v>
       </c>
@@ -20005,7 +20004,7 @@
       <c r="E845">
         <v>95</v>
       </c>
-      <c r="F845">
+      <c r="F845" s="6">
         <f t="shared" si="30"/>
         <v>42.222222222222221</v>
       </c>
@@ -20027,7 +20026,7 @@
       <c r="E846">
         <v>76</v>
       </c>
-      <c r="F846">
+      <c r="F846" s="6">
         <f t="shared" si="30"/>
         <v>21.05263157894737</v>
       </c>
@@ -20049,7 +20048,7 @@
       <c r="E847">
         <v>45</v>
       </c>
-      <c r="F847">
+      <c r="F847" s="6">
         <f t="shared" si="30"/>
         <v>13.735844449192637</v>
       </c>
@@ -20071,7 +20070,7 @@
       <c r="E848">
         <v>100</v>
       </c>
-      <c r="F848">
+      <c r="F848" s="6">
         <f t="shared" si="30"/>
         <v>25.251887578596502</v>
       </c>
@@ -20093,7 +20092,7 @@
       <c r="E849">
         <v>86</v>
       </c>
-      <c r="F849">
+      <c r="F849" s="6">
         <f t="shared" si="30"/>
         <v>21.71662331759299</v>
       </c>
@@ -20115,7 +20114,7 @@
       <c r="E850">
         <v>96</v>
       </c>
-      <c r="F850">
+      <c r="F850" s="6">
         <f t="shared" si="30"/>
         <v>31.708283789139912</v>
       </c>
@@ -20137,7 +20136,7 @@
       <c r="E851">
         <v>68</v>
       </c>
-      <c r="F851">
+      <c r="F851" s="6">
         <f t="shared" si="30"/>
         <v>19.868517165814463</v>
       </c>
@@ -20159,7 +20158,7 @@
       <c r="E852">
         <v>90</v>
       </c>
-      <c r="F852">
+      <c r="F852" s="6">
         <f t="shared" si="30"/>
         <v>28.727377190462509</v>
       </c>
@@ -20181,7 +20180,7 @@
       <c r="E853">
         <v>72</v>
       </c>
-      <c r="F853">
+      <c r="F853" s="6">
         <f t="shared" si="30"/>
         <v>31.577562387614577</v>
       </c>
@@ -20203,7 +20202,7 @@
       <c r="E854">
         <v>49</v>
       </c>
-      <c r="F854">
+      <c r="F854" s="6">
         <f t="shared" si="30"/>
         <v>19.140625</v>
       </c>
@@ -20225,7 +20224,7 @@
       <c r="E855">
         <v>75</v>
       </c>
-      <c r="F855">
+      <c r="F855" s="6">
         <f t="shared" si="30"/>
         <v>18.938915683947375</v>
       </c>
@@ -20247,7 +20246,7 @@
       <c r="E856">
         <v>90</v>
       </c>
-      <c r="F856">
+      <c r="F856" s="6">
         <f t="shared" si="30"/>
         <v>30.778701138811947</v>
       </c>
@@ -20269,7 +20268,7 @@
       <c r="E857">
         <v>68</v>
       </c>
-      <c r="F857">
+      <c r="F857" s="6">
         <f t="shared" si="30"/>
         <v>24.382372978593711</v>
       </c>
@@ -20291,7 +20290,7 @@
       <c r="E858">
         <v>67</v>
       </c>
-      <c r="F858">
+      <c r="F858" s="6">
         <f t="shared" si="30"/>
         <v>25.217358575783809</v>
       </c>
@@ -20313,7 +20312,7 @@
       <c r="E859">
         <v>97</v>
       </c>
-      <c r="F859">
+      <c r="F859" s="6">
         <f t="shared" si="30"/>
         <v>36.06484235574063</v>
       </c>
@@ -20335,7 +20334,7 @@
       <c r="E860">
         <v>49</v>
       </c>
-      <c r="F860">
+      <c r="F860" s="6">
         <f t="shared" si="30"/>
         <v>17.15626203564301</v>
       </c>
@@ -20357,7 +20356,7 @@
       <c r="E861">
         <v>98</v>
       </c>
-      <c r="F861">
+      <c r="F861" s="6">
         <f t="shared" si="30"/>
         <v>32</v>
       </c>
@@ -20379,7 +20378,7 @@
       <c r="E862">
         <v>33</v>
       </c>
-      <c r="F862">
+      <c r="F862" s="6">
         <f t="shared" si="30"/>
         <v>13.053281120208851</v>
       </c>
@@ -20401,7 +20400,7 @@
       <c r="E863">
         <v>51</v>
       </c>
-      <c r="F863">
+      <c r="F863" s="6">
         <f t="shared" si="30"/>
         <v>17.856517628934562</v>
       </c>
@@ -20423,7 +20422,7 @@
       <c r="E864">
         <v>72</v>
       </c>
-      <c r="F864">
+      <c r="F864" s="6">
         <f t="shared" si="30"/>
         <v>18.934911242603548</v>
       </c>
@@ -20445,7 +20444,7 @@
       <c r="E865">
         <v>54</v>
       </c>
-      <c r="F865">
+      <c r="F865" s="6">
         <f t="shared" si="30"/>
         <v>18.906901018871888</v>
       </c>
@@ -20467,7 +20466,7 @@
       <c r="E866">
         <v>54</v>
       </c>
-      <c r="F866">
+      <c r="F866" s="6">
         <f t="shared" si="30"/>
         <v>18.685121107266436</v>
       </c>
@@ -20489,7 +20488,7 @@
       <c r="E867">
         <v>51</v>
       </c>
-      <c r="F867">
+      <c r="F867" s="6">
         <f t="shared" si="30"/>
         <v>14.127423822714682</v>
       </c>
@@ -20511,7 +20510,7 @@
       <c r="E868">
         <v>84</v>
       </c>
-      <c r="F868">
+      <c r="F868" s="6">
         <f t="shared" si="30"/>
         <v>23.515579071134628</v>
       </c>
@@ -20533,7 +20532,7 @@
       <c r="E869">
         <v>96</v>
       </c>
-      <c r="F869">
+      <c r="F869" s="6">
         <f t="shared" si="30"/>
         <v>35.693039857227838</v>
       </c>
@@ -20555,7 +20554,7 @@
       <c r="E870">
         <v>89</v>
       </c>
-      <c r="F870">
+      <c r="F870" s="6">
         <f t="shared" si="30"/>
         <v>28.089887640449437</v>
       </c>
@@ -20577,7 +20576,7 @@
       <c r="E871">
         <v>99</v>
       </c>
-      <c r="F871">
+      <c r="F871" s="6">
         <f t="shared" si="30"/>
         <v>26.85546875</v>
       </c>
@@ -20599,7 +20598,7 @@
       <c r="E872">
         <v>63</v>
       </c>
-      <c r="F872">
+      <c r="F872" s="6">
         <f t="shared" si="30"/>
         <v>26.91272587466359</v>
       </c>
@@ -20621,7 +20620,7 @@
       <c r="E873">
         <v>36</v>
       </c>
-      <c r="F873">
+      <c r="F873" s="6">
         <f t="shared" si="30"/>
         <v>14.0625</v>
       </c>
@@ -20643,7 +20642,7 @@
       <c r="E874">
         <v>66</v>
       </c>
-      <c r="F874">
+      <c r="F874" s="6">
         <f t="shared" si="30"/>
         <v>29.333333333333332</v>
       </c>
@@ -20665,7 +20664,7 @@
       <c r="E875">
         <v>90</v>
       </c>
-      <c r="F875">
+      <c r="F875" s="6">
         <f t="shared" si="30"/>
         <v>27.471688898385274</v>
       </c>
@@ -20687,7 +20686,7 @@
       <c r="E876">
         <v>133</v>
       </c>
-      <c r="F876">
+      <c r="F876" s="6">
         <f t="shared" si="30"/>
         <v>35.705656527692021</v>
       </c>
@@ -20709,7 +20708,7 @@
       <c r="E877">
         <v>88</v>
       </c>
-      <c r="F877">
+      <c r="F877" s="6">
         <f t="shared" si="30"/>
         <v>23.381868423849504</v>
       </c>
@@ -20731,7 +20730,7 @@
       <c r="E878">
         <v>73</v>
       </c>
-      <c r="F878">
+      <c r="F878" s="6">
         <f t="shared" si="30"/>
         <v>26.813590449954084</v>
       </c>
@@ -20753,7 +20752,7 @@
       <c r="E879">
         <v>89</v>
       </c>
-      <c r="F879">
+      <c r="F879" s="6">
         <f t="shared" si="30"/>
         <v>26.004382761139517</v>
       </c>
@@ -20775,7 +20774,7 @@
       <c r="E880">
         <v>101</v>
       </c>
-      <c r="F880">
+      <c r="F880" s="6">
         <f t="shared" si="30"/>
         <v>32.979591836734691</v>
       </c>
@@ -20797,7 +20796,7 @@
       <c r="E881">
         <v>97</v>
       </c>
-      <c r="F881">
+      <c r="F881" s="6">
         <f t="shared" si="30"/>
         <v>27.154894879762605</v>
       </c>
@@ -20819,7 +20818,7 @@
       <c r="E882">
         <v>62</v>
       </c>
-      <c r="F882">
+      <c r="F882" s="6">
         <f t="shared" si="30"/>
         <v>20.244897959183675</v>
       </c>
@@ -20841,7 +20840,7 @@
       <c r="E883">
         <v>65</v>
       </c>
-      <c r="F883">
+      <c r="F883" s="6">
         <f t="shared" si="30"/>
         <v>19.409358296754156</v>
       </c>
@@ -20863,7 +20862,7 @@
       <c r="E884">
         <v>95</v>
       </c>
-      <c r="F884">
+      <c r="F884" s="6">
         <f t="shared" si="30"/>
         <v>25.241789775746625</v>
       </c>
@@ -20885,7 +20884,7 @@
       <c r="E885">
         <v>91</v>
       </c>
-      <c r="F885">
+      <c r="F885" s="6">
         <f t="shared" si="30"/>
         <v>27.472527472527471</v>
       </c>
@@ -20907,7 +20906,7 @@
       <c r="E886">
         <v>71</v>
       </c>
-      <c r="F886">
+      <c r="F886" s="6">
         <f t="shared" si="30"/>
         <v>26.078971533516988</v>
       </c>
@@ -20929,7 +20928,7 @@
       <c r="E887">
         <v>98</v>
       </c>
-      <c r="F887">
+      <c r="F887" s="6">
         <f t="shared" si="30"/>
         <v>39.256529402339368</v>
       </c>
@@ -20951,7 +20950,7 @@
       <c r="E888">
         <v>55</v>
       </c>
-      <c r="F888">
+      <c r="F888" s="6">
         <f t="shared" si="30"/>
         <v>16.245274102079396</v>
       </c>
@@ -20973,7 +20972,7 @@
       <c r="E889">
         <v>121</v>
       </c>
-      <c r="F889">
+      <c r="F889" s="6">
         <f t="shared" si="30"/>
         <v>35.73960302457467</v>
       </c>
@@ -20995,7 +20994,7 @@
       <c r="E890">
         <v>93</v>
       </c>
-      <c r="F890">
+      <c r="F890" s="6">
         <f t="shared" si="30"/>
         <v>24.20866305705956</v>
       </c>
@@ -21017,7 +21016,7 @@
       <c r="E891">
         <v>85</v>
       </c>
-      <c r="F891">
+      <c r="F891" s="6">
         <f t="shared" si="30"/>
         <v>29.411764705882351</v>
       </c>
@@ -21039,7 +21038,7 @@
       <c r="E892">
         <v>70</v>
       </c>
-      <c r="F892">
+      <c r="F892" s="6">
         <f t="shared" si="30"/>
         <v>23.388686558187711</v>
       </c>
@@ -21061,7 +21060,7 @@
       <c r="E893">
         <v>101</v>
       </c>
-      <c r="F893">
+      <c r="F893" s="6">
         <f t="shared" si="30"/>
         <v>27.114821874412737</v>
       </c>
@@ -21083,7 +21082,7 @@
       <c r="E894">
         <v>98</v>
       </c>
-      <c r="F894">
+      <c r="F894" s="6">
         <f t="shared" si="30"/>
         <v>32.368873034746997</v>
       </c>
@@ -21105,7 +21104,7 @@
       <c r="E895">
         <v>56</v>
       </c>
-      <c r="F895">
+      <c r="F895" s="6">
         <f t="shared" si="30"/>
         <v>19.151191819705211</v>
       </c>
@@ -21127,7 +21126,7 @@
       <c r="E896">
         <v>78</v>
       </c>
-      <c r="F896">
+      <c r="F896" s="6">
         <f t="shared" si="30"/>
         <v>22.068809416025353</v>
       </c>
@@ -21149,7 +21148,7 @@
       <c r="E897">
         <v>64</v>
       </c>
-      <c r="F897">
+      <c r="F897" s="6">
         <f t="shared" si="30"/>
         <v>25.636917160711423</v>
       </c>
@@ -21171,7 +21170,7 @@
       <c r="E898">
         <v>70</v>
       </c>
-      <c r="F898">
+      <c r="F898" s="6">
         <f t="shared" si="30"/>
         <v>25.402816083611555</v>
       </c>
@@ -21193,7 +21192,7 @@
       <c r="E899">
         <v>92</v>
       </c>
-      <c r="F899">
+      <c r="F899" s="6">
         <f t="shared" si="30"/>
         <v>34.626820730927022</v>
       </c>
@@ -21215,7 +21214,7 @@
       <c r="E900">
         <v>43</v>
       </c>
-      <c r="F900">
+      <c r="F900" s="6">
         <f t="shared" si="30"/>
         <v>18.13121942992073</v>
       </c>
@@ -21237,7 +21236,7 @@
       <c r="E901">
         <v>73</v>
       </c>
-      <c r="F901">
+      <c r="F901" s="6">
         <f t="shared" si="30"/>
         <v>22.282592106468055</v>
       </c>
@@ -21259,7 +21258,7 @@
       <c r="E902">
         <v>74</v>
       </c>
-      <c r="F902">
+      <c r="F902" s="6">
         <f t="shared" si="30"/>
         <v>32.454716898381648</v>
       </c>
@@ -21281,7 +21280,7 @@
       <c r="E903">
         <v>95</v>
       </c>
-      <c r="F903">
+      <c r="F903" s="6">
         <f t="shared" si="30"/>
         <v>34.475250399187111</v>
       </c>
@@ -21303,12 +21302,12 @@
       <c r="E904">
         <v>62</v>
       </c>
-      <c r="F904">
+      <c r="F904" s="6">
         <f t="shared" ref="F904:F967" si="32">E904/(D904/100*D904/100)</f>
         <v>18.312854442344044</v>
       </c>
       <c r="G904" t="str">
-        <f t="shared" ref="G904:G967" si="33">IF(F904&lt;F$1,D$1,IF(AND(F904&gt;=E$2,F904&lt;F$2),D$2,IF(AND(F904&gt;=E$3,F904&lt;F$3),D$3,IF(F904&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G904:G967" si="33">IF(F904&lt;=F$1,D$1,IF(AND(F904&gt;=E$2,F904&lt;=F$2),D$2,IF(AND(F904&gt;=E$3,F904&lt;=F$3),D$3,IF(F904&gt;=E$5,D$5,D$4))))</f>
         <v>niedowaga</v>
       </c>
       <c r="H904">
@@ -21325,7 +21324,7 @@
       <c r="E905">
         <v>91</v>
       </c>
-      <c r="F905">
+      <c r="F905" s="6">
         <f t="shared" si="32"/>
         <v>27.472527472527471</v>
       </c>
@@ -21347,7 +21346,7 @@
       <c r="E906">
         <v>46</v>
       </c>
-      <c r="F906">
+      <c r="F906" s="6">
         <f t="shared" si="32"/>
         <v>18.902038132807363</v>
       </c>
@@ -21369,7 +21368,7 @@
       <c r="E907">
         <v>57</v>
       </c>
-      <c r="F907">
+      <c r="F907" s="6">
         <f t="shared" si="32"/>
         <v>23.422090729783037</v>
       </c>
@@ -21391,7 +21390,7 @@
       <c r="E908">
         <v>57</v>
       </c>
-      <c r="F908">
+      <c r="F908" s="6">
         <f t="shared" si="32"/>
         <v>17.789706937985702</v>
       </c>
@@ -21413,7 +21412,7 @@
       <c r="E909">
         <v>61</v>
       </c>
-      <c r="F909">
+      <c r="F909" s="6">
         <f t="shared" si="32"/>
         <v>16.207886066532044</v>
       </c>
@@ -21435,7 +21434,7 @@
       <c r="E910">
         <v>64</v>
       </c>
-      <c r="F910">
+      <c r="F910" s="6">
         <f t="shared" si="32"/>
         <v>25.315454293738377</v>
       </c>
@@ -21457,7 +21456,7 @@
       <c r="E911">
         <v>77</v>
       </c>
-      <c r="F911">
+      <c r="F911" s="6">
         <f t="shared" si="32"/>
         <v>20.887586805555557</v>
       </c>
@@ -21479,7 +21478,7 @@
       <c r="E912">
         <v>68</v>
       </c>
-      <c r="F912">
+      <c r="F912" s="6">
         <f t="shared" si="32"/>
         <v>29.43213296398892</v>
       </c>
@@ -21501,7 +21500,7 @@
       <c r="E913">
         <v>53</v>
       </c>
-      <c r="F913">
+      <c r="F913" s="6">
         <f t="shared" si="32"/>
         <v>23.244594535327398</v>
       </c>
@@ -21523,7 +21522,7 @@
       <c r="E914">
         <v>64</v>
       </c>
-      <c r="F914">
+      <c r="F914" s="6">
         <f t="shared" si="32"/>
         <v>28.068944344546292</v>
       </c>
@@ -21545,7 +21544,7 @@
       <c r="E915">
         <v>99</v>
       </c>
-      <c r="F915">
+      <c r="F915" s="6">
         <f t="shared" si="32"/>
         <v>29.887694722859557</v>
       </c>
@@ -21567,7 +21566,7 @@
       <c r="E916">
         <v>61</v>
       </c>
-      <c r="F916">
+      <c r="F916" s="6">
         <f t="shared" si="32"/>
         <v>22.405876951331496</v>
       </c>
@@ -21589,7 +21588,7 @@
       <c r="E917">
         <v>53</v>
       </c>
-      <c r="F917">
+      <c r="F917" s="6">
         <f t="shared" si="32"/>
         <v>21.501886486267189</v>
       </c>
@@ -21611,7 +21610,7 @@
       <c r="E918">
         <v>89</v>
       </c>
-      <c r="F918">
+      <c r="F918" s="6">
         <f t="shared" si="32"/>
         <v>29.737044338267232</v>
       </c>
@@ -21633,7 +21632,7 @@
       <c r="E919">
         <v>79</v>
       </c>
-      <c r="F919">
+      <c r="F919" s="6">
         <f t="shared" si="32"/>
         <v>21.655108138483047</v>
       </c>
@@ -21655,7 +21654,7 @@
       <c r="E920">
         <v>70</v>
       </c>
-      <c r="F920">
+      <c r="F920" s="6">
         <f t="shared" si="32"/>
         <v>21.132713440405748</v>
       </c>
@@ -21677,7 +21676,7 @@
       <c r="E921">
         <v>67</v>
       </c>
-      <c r="F921">
+      <c r="F921" s="6">
         <f t="shared" si="32"/>
         <v>26.838647652619773</v>
       </c>
@@ -21699,7 +21698,7 @@
       <c r="E922">
         <v>72</v>
       </c>
-      <c r="F922">
+      <c r="F922" s="6">
         <f t="shared" si="32"/>
         <v>28.125</v>
       </c>
@@ -21721,7 +21720,7 @@
       <c r="E923">
         <v>94</v>
       </c>
-      <c r="F923">
+      <c r="F923" s="6">
         <f t="shared" si="32"/>
         <v>25.235576794007894</v>
       </c>
@@ -21743,7 +21742,7 @@
       <c r="E924">
         <v>76</v>
       </c>
-      <c r="F924">
+      <c r="F924" s="6">
         <f t="shared" si="32"/>
         <v>22.205989773557341</v>
       </c>
@@ -21765,7 +21764,7 @@
       <c r="E925">
         <v>66</v>
       </c>
-      <c r="F925">
+      <c r="F925" s="6">
         <f t="shared" si="32"/>
         <v>17.006364503079183</v>
       </c>
@@ -21787,7 +21786,7 @@
       <c r="E926">
         <v>74</v>
       </c>
-      <c r="F926">
+      <c r="F926" s="6">
         <f t="shared" si="32"/>
         <v>29.270994027135</v>
       </c>
@@ -21809,7 +21808,7 @@
       <c r="E927">
         <v>82</v>
       </c>
-      <c r="F927">
+      <c r="F927" s="6">
         <f t="shared" si="32"/>
         <v>29.402273297715947</v>
       </c>
@@ -21831,7 +21830,7 @@
       <c r="E928">
         <v>63</v>
       </c>
-      <c r="F928">
+      <c r="F928" s="6">
         <f t="shared" si="32"/>
         <v>26.91272587466359</v>
       </c>
@@ -21853,7 +21852,7 @@
       <c r="E929">
         <v>65</v>
       </c>
-      <c r="F929">
+      <c r="F929" s="6">
         <f t="shared" si="32"/>
         <v>28.133656509695292</v>
       </c>
@@ -21875,7 +21874,7 @@
       <c r="E930">
         <v>67</v>
       </c>
-      <c r="F930">
+      <c r="F930" s="6">
         <f t="shared" si="32"/>
         <v>20.227025721531216</v>
       </c>
@@ -21897,7 +21896,7 @@
       <c r="E931">
         <v>69</v>
       </c>
-      <c r="F931">
+      <c r="F931" s="6">
         <f t="shared" si="32"/>
         <v>20.603780345785182</v>
       </c>
@@ -21919,7 +21918,7 @@
       <c r="E932">
         <v>40</v>
       </c>
-      <c r="F932">
+      <c r="F932" s="6">
         <f t="shared" si="32"/>
         <v>17.777777777777779</v>
       </c>
@@ -21941,7 +21940,7 @@
       <c r="E933">
         <v>107</v>
       </c>
-      <c r="F933">
+      <c r="F933" s="6">
         <f t="shared" si="32"/>
         <v>27.570924270143525</v>
       </c>
@@ -21963,7 +21962,7 @@
       <c r="E934">
         <v>55</v>
       </c>
-      <c r="F934">
+      <c r="F934" s="6">
         <f t="shared" si="32"/>
         <v>17.959183673469386</v>
       </c>
@@ -21985,7 +21984,7 @@
       <c r="E935">
         <v>64</v>
       </c>
-      <c r="F935">
+      <c r="F935" s="6">
         <f t="shared" si="32"/>
         <v>20.428357113217785</v>
       </c>
@@ -22007,7 +22006,7 @@
       <c r="E936">
         <v>74</v>
       </c>
-      <c r="F936">
+      <c r="F936" s="6">
         <f t="shared" si="32"/>
         <v>21.621621621621621</v>
       </c>
@@ -22029,7 +22028,7 @@
       <c r="E937">
         <v>63</v>
       </c>
-      <c r="F937">
+      <c r="F937" s="6">
         <f t="shared" si="32"/>
         <v>24.304617877396701</v>
       </c>
@@ -22051,7 +22050,7 @@
       <c r="E938">
         <v>68</v>
       </c>
-      <c r="F938">
+      <c r="F938" s="6">
         <f t="shared" si="32"/>
         <v>24.977043158861338</v>
       </c>
@@ -22073,7 +22072,7 @@
       <c r="E939">
         <v>76</v>
       </c>
-      <c r="F939">
+      <c r="F939" s="6">
         <f t="shared" si="32"/>
         <v>20.193431820597301</v>
       </c>
@@ -22095,7 +22094,7 @@
       <c r="E940">
         <v>46</v>
       </c>
-      <c r="F940">
+      <c r="F940" s="6">
         <f t="shared" si="32"/>
         <v>19.146722164412072</v>
       </c>
@@ -22117,7 +22116,7 @@
       <c r="E941">
         <v>55</v>
       </c>
-      <c r="F941">
+      <c r="F941" s="6">
         <f t="shared" si="32"/>
         <v>21.484375</v>
       </c>
@@ -22139,7 +22138,7 @@
       <c r="E942">
         <v>52</v>
       </c>
-      <c r="F942">
+      <c r="F942" s="6">
         <f t="shared" si="32"/>
         <v>16.979591836734695</v>
       </c>
@@ -22161,7 +22160,7 @@
       <c r="E943">
         <v>68</v>
       </c>
-      <c r="F943">
+      <c r="F943" s="6">
         <f t="shared" si="32"/>
         <v>17.700957934194086</v>
       </c>
@@ -22183,7 +22182,7 @@
       <c r="E944">
         <v>67</v>
       </c>
-      <c r="F944">
+      <c r="F944" s="6">
         <f t="shared" si="32"/>
         <v>25.529644871208657</v>
       </c>
@@ -22205,7 +22204,7 @@
       <c r="E945">
         <v>97</v>
       </c>
-      <c r="F945">
+      <c r="F945" s="6">
         <f t="shared" si="32"/>
         <v>34.367913832199548</v>
       </c>
@@ -22227,7 +22226,7 @@
       <c r="E946">
         <v>65</v>
       </c>
-      <c r="F946">
+      <c r="F946" s="6">
         <f t="shared" si="32"/>
         <v>20.515086478979924</v>
       </c>
@@ -22249,7 +22248,7 @@
       <c r="E947">
         <v>67</v>
       </c>
-      <c r="F947">
+      <c r="F947" s="6">
         <f t="shared" si="32"/>
         <v>17.090092847668604</v>
       </c>
@@ -22271,7 +22270,7 @@
       <c r="E948">
         <v>92</v>
       </c>
-      <c r="F948">
+      <c r="F948" s="6">
         <f t="shared" si="32"/>
         <v>23.705841428534622</v>
       </c>
@@ -22293,7 +22292,7 @@
       <c r="E949">
         <v>52</v>
       </c>
-      <c r="F949">
+      <c r="F949" s="6">
         <f t="shared" si="32"/>
         <v>20.3125</v>
       </c>
@@ -22315,7 +22314,7 @@
       <c r="E950">
         <v>73</v>
       </c>
-      <c r="F950">
+      <c r="F950" s="6">
         <f t="shared" si="32"/>
         <v>27.141582391433669</v>
       </c>
@@ -22337,7 +22336,7 @@
       <c r="E951">
         <v>75</v>
       </c>
-      <c r="F951">
+      <c r="F951" s="6">
         <f t="shared" si="32"/>
         <v>32.893294153765183</v>
       </c>
@@ -22359,7 +22358,7 @@
       <c r="E952">
         <v>51</v>
       </c>
-      <c r="F952">
+      <c r="F952" s="6">
         <f t="shared" si="32"/>
         <v>14.584346135148273</v>
       </c>
@@ -22381,7 +22380,7 @@
       <c r="E953">
         <v>44</v>
       </c>
-      <c r="F953">
+      <c r="F953" s="6">
         <f t="shared" si="32"/>
         <v>19.044321329639889</v>
       </c>
@@ -22403,7 +22402,7 @@
       <c r="E954">
         <v>79</v>
       </c>
-      <c r="F954">
+      <c r="F954" s="6">
         <f t="shared" si="32"/>
         <v>20.775805391190005</v>
       </c>
@@ -22425,7 +22424,7 @@
       <c r="E955">
         <v>77</v>
       </c>
-      <c r="F955">
+      <c r="F955" s="6">
         <f t="shared" si="32"/>
         <v>28.28282828282828</v>
       </c>
@@ -22447,7 +22446,7 @@
       <c r="E956">
         <v>88</v>
       </c>
-      <c r="F956">
+      <c r="F956" s="6">
         <f t="shared" si="32"/>
         <v>34.375</v>
       </c>
@@ -22469,7 +22468,7 @@
       <c r="E957">
         <v>108</v>
       </c>
-      <c r="F957">
+      <c r="F957" s="6">
         <f t="shared" si="32"/>
         <v>33.706813145657122</v>
       </c>
@@ -22491,7 +22490,7 @@
       <c r="E958">
         <v>73</v>
       </c>
-      <c r="F958">
+      <c r="F958" s="6">
         <f t="shared" si="32"/>
         <v>28.162493730951734</v>
       </c>
@@ -22513,7 +22512,7 @@
       <c r="E959">
         <v>46</v>
       </c>
-      <c r="F959">
+      <c r="F959" s="6">
         <f t="shared" si="32"/>
         <v>19.146722164412072</v>
       </c>
@@ -22535,7 +22534,7 @@
       <c r="E960">
         <v>55</v>
       </c>
-      <c r="F960">
+      <c r="F960" s="6">
         <f t="shared" si="32"/>
         <v>21.484375</v>
       </c>
@@ -22557,7 +22556,7 @@
       <c r="E961">
         <v>52</v>
       </c>
-      <c r="F961">
+      <c r="F961" s="6">
         <f t="shared" si="32"/>
         <v>16.979591836734695</v>
       </c>
@@ -22579,7 +22578,7 @@
       <c r="E962">
         <v>68</v>
       </c>
-      <c r="F962">
+      <c r="F962" s="6">
         <f t="shared" si="32"/>
         <v>17.700957934194086</v>
       </c>
@@ -22601,7 +22600,7 @@
       <c r="E963">
         <v>76</v>
       </c>
-      <c r="F963">
+      <c r="F963" s="6">
         <f t="shared" si="32"/>
         <v>28.95900015241579</v>
       </c>
@@ -22623,7 +22622,7 @@
       <c r="E964">
         <v>97</v>
       </c>
-      <c r="F964">
+      <c r="F964" s="6">
         <f t="shared" si="32"/>
         <v>34.367913832199548</v>
       </c>
@@ -22645,7 +22644,7 @@
       <c r="E965">
         <v>65</v>
       </c>
-      <c r="F965">
+      <c r="F965" s="6">
         <f t="shared" si="32"/>
         <v>20.515086478979924</v>
       </c>
@@ -22667,7 +22666,7 @@
       <c r="E966">
         <v>67</v>
       </c>
-      <c r="F966">
+      <c r="F966" s="6">
         <f t="shared" si="32"/>
         <v>17.090092847668604</v>
       </c>
@@ -22689,7 +22688,7 @@
       <c r="E967">
         <v>92</v>
       </c>
-      <c r="F967">
+      <c r="F967" s="6">
         <f t="shared" si="32"/>
         <v>23.705841428534622</v>
       </c>
@@ -22711,12 +22710,12 @@
       <c r="E968">
         <v>52</v>
       </c>
-      <c r="F968">
+      <c r="F968" s="6">
         <f t="shared" ref="F968:F1006" si="34">E968/(D968/100*D968/100)</f>
         <v>20.3125</v>
       </c>
       <c r="G968" t="str">
-        <f t="shared" ref="G968:G1006" si="35">IF(F968&lt;F$1,D$1,IF(AND(F968&gt;=E$2,F968&lt;F$2),D$2,IF(AND(F968&gt;=E$3,F968&lt;F$3),D$3,IF(F968&gt;E$5,D$5,D$4))))</f>
+        <f t="shared" ref="G968:G1006" si="35">IF(F968&lt;=F$1,D$1,IF(AND(F968&gt;=E$2,F968&lt;=F$2),D$2,IF(AND(F968&gt;=E$3,F968&lt;=F$3),D$3,IF(F968&gt;=E$5,D$5,D$4))))</f>
         <v>prawidlowa masa ciala</v>
       </c>
       <c r="H968">
@@ -22733,7 +22732,7 @@
       <c r="E969">
         <v>73</v>
       </c>
-      <c r="F969">
+      <c r="F969" s="6">
         <f t="shared" si="34"/>
         <v>27.141582391433669</v>
       </c>
@@ -22755,7 +22754,7 @@
       <c r="E970">
         <v>65</v>
       </c>
-      <c r="F970">
+      <c r="F970" s="6">
         <f t="shared" si="34"/>
         <v>28.507521599929827</v>
       </c>
@@ -22777,7 +22776,7 @@
       <c r="E971">
         <v>51</v>
       </c>
-      <c r="F971">
+      <c r="F971" s="6">
         <f t="shared" si="34"/>
         <v>14.584346135148273</v>
       </c>
@@ -22799,7 +22798,7 @@
       <c r="E972">
         <v>44</v>
       </c>
-      <c r="F972">
+      <c r="F972" s="6">
         <f t="shared" si="34"/>
         <v>19.044321329639889</v>
       </c>
@@ -22821,7 +22820,7 @@
       <c r="E973">
         <v>98</v>
       </c>
-      <c r="F973">
+      <c r="F973" s="6">
         <f t="shared" si="34"/>
         <v>25.772518080210386</v>
       </c>
@@ -22843,7 +22842,7 @@
       <c r="E974">
         <v>77</v>
       </c>
-      <c r="F974">
+      <c r="F974" s="6">
         <f t="shared" si="34"/>
         <v>28.28282828282828</v>
       </c>
@@ -22865,7 +22864,7 @@
       <c r="E975">
         <v>84</v>
       </c>
-      <c r="F975">
+      <c r="F975" s="6">
         <f t="shared" si="34"/>
         <v>23.515579071134628</v>
       </c>
@@ -22887,7 +22886,7 @@
       <c r="E976">
         <v>96</v>
       </c>
-      <c r="F976">
+      <c r="F976" s="6">
         <f t="shared" si="34"/>
         <v>35.693039857227838</v>
       </c>
@@ -22909,7 +22908,7 @@
       <c r="E977">
         <v>89</v>
       </c>
-      <c r="F977">
+      <c r="F977" s="6">
         <f t="shared" si="34"/>
         <v>28.089887640449437</v>
       </c>
@@ -22931,7 +22930,7 @@
       <c r="E978">
         <v>99</v>
       </c>
-      <c r="F978">
+      <c r="F978" s="6">
         <f t="shared" si="34"/>
         <v>26.85546875</v>
       </c>
@@ -22953,7 +22952,7 @@
       <c r="E979">
         <v>63</v>
       </c>
-      <c r="F979">
+      <c r="F979" s="6">
         <f t="shared" si="34"/>
         <v>26.91272587466359</v>
       </c>
@@ -22975,7 +22974,7 @@
       <c r="E980">
         <v>36</v>
       </c>
-      <c r="F980">
+      <c r="F980" s="6">
         <f t="shared" si="34"/>
         <v>14.0625</v>
       </c>
@@ -22997,7 +22996,7 @@
       <c r="E981">
         <v>66</v>
       </c>
-      <c r="F981">
+      <c r="F981" s="6">
         <f t="shared" si="34"/>
         <v>29.333333333333332</v>
       </c>
@@ -23019,7 +23018,7 @@
       <c r="E982">
         <v>90</v>
       </c>
-      <c r="F982">
+      <c r="F982" s="6">
         <f t="shared" si="34"/>
         <v>27.471688898385274</v>
       </c>
@@ -23041,7 +23040,7 @@
       <c r="E983">
         <v>103</v>
       </c>
-      <c r="F983">
+      <c r="F983" s="6">
         <f t="shared" si="34"/>
         <v>27.651749040242692</v>
       </c>
@@ -23063,7 +23062,7 @@
       <c r="E984">
         <v>88</v>
       </c>
-      <c r="F984">
+      <c r="F984" s="6">
         <f t="shared" si="34"/>
         <v>23.381868423849504</v>
       </c>
@@ -23085,7 +23084,7 @@
       <c r="E985">
         <v>73</v>
       </c>
-      <c r="F985">
+      <c r="F985" s="6">
         <f t="shared" si="34"/>
         <v>26.813590449954084</v>
       </c>
@@ -23107,7 +23106,7 @@
       <c r="E986">
         <v>89</v>
       </c>
-      <c r="F986">
+      <c r="F986" s="6">
         <f t="shared" si="34"/>
         <v>26.004382761139517</v>
       </c>
@@ -23129,7 +23128,7 @@
       <c r="E987">
         <v>101</v>
       </c>
-      <c r="F987">
+      <c r="F987" s="6">
         <f t="shared" si="34"/>
         <v>32.979591836734691</v>
       </c>
@@ -23151,7 +23150,7 @@
       <c r="E988">
         <v>97</v>
       </c>
-      <c r="F988">
+      <c r="F988" s="6">
         <f t="shared" si="34"/>
         <v>27.154894879762605</v>
       </c>
@@ -23173,7 +23172,7 @@
       <c r="E989">
         <v>62</v>
       </c>
-      <c r="F989">
+      <c r="F989" s="6">
         <f t="shared" si="34"/>
         <v>20.244897959183675</v>
       </c>
@@ -23195,7 +23194,7 @@
       <c r="E990">
         <v>65</v>
       </c>
-      <c r="F990">
+      <c r="F990" s="6">
         <f t="shared" si="34"/>
         <v>19.409358296754156</v>
       </c>
@@ -23217,7 +23216,7 @@
       <c r="E991">
         <v>95</v>
       </c>
-      <c r="F991">
+      <c r="F991" s="6">
         <f t="shared" si="34"/>
         <v>25.241789775746625</v>
       </c>
@@ -23239,7 +23238,7 @@
       <c r="E992">
         <v>91</v>
       </c>
-      <c r="F992">
+      <c r="F992" s="6">
         <f t="shared" si="34"/>
         <v>27.472527472527471</v>
       </c>
@@ -23261,7 +23260,7 @@
       <c r="E993">
         <v>71</v>
       </c>
-      <c r="F993">
+      <c r="F993" s="6">
         <f t="shared" si="34"/>
         <v>26.078971533516988</v>
       </c>
@@ -23283,7 +23282,7 @@
       <c r="E994">
         <v>98</v>
       </c>
-      <c r="F994">
+      <c r="F994" s="6">
         <f t="shared" si="34"/>
         <v>39.256529402339368</v>
       </c>
@@ -23305,7 +23304,7 @@
       <c r="E995">
         <v>55</v>
       </c>
-      <c r="F995">
+      <c r="F995" s="6">
         <f t="shared" si="34"/>
         <v>16.245274102079396</v>
       </c>
@@ -23327,7 +23326,7 @@
       <c r="E996">
         <v>121</v>
       </c>
-      <c r="F996">
+      <c r="F996" s="6">
         <f t="shared" si="34"/>
         <v>35.73960302457467</v>
       </c>
@@ -23349,7 +23348,7 @@
       <c r="E997">
         <v>93</v>
       </c>
-      <c r="F997">
+      <c r="F997" s="6">
         <f t="shared" si="34"/>
         <v>24.20866305705956</v>
       </c>
@@ -23371,7 +23370,7 @@
       <c r="E998">
         <v>85</v>
       </c>
-      <c r="F998">
+      <c r="F998" s="6">
         <f t="shared" si="34"/>
         <v>29.411764705882351</v>
       </c>
@@ -23393,7 +23392,7 @@
       <c r="E999">
         <v>70</v>
       </c>
-      <c r="F999">
+      <c r="F999" s="6">
         <f t="shared" si="34"/>
         <v>23.388686558187711</v>
       </c>
@@ -23415,7 +23414,7 @@
       <c r="E1000">
         <v>91</v>
       </c>
-      <c r="F1000">
+      <c r="F1000" s="6">
         <f t="shared" si="34"/>
         <v>24.43018604526296</v>
       </c>
@@ -23437,7 +23436,7 @@
       <c r="E1001">
         <v>98</v>
       </c>
-      <c r="F1001">
+      <c r="F1001" s="6">
         <f t="shared" si="34"/>
         <v>32.368873034746997</v>
       </c>
@@ -23459,7 +23458,7 @@
       <c r="E1002">
         <v>56</v>
       </c>
-      <c r="F1002">
+      <c r="F1002" s="6">
         <f t="shared" si="34"/>
         <v>19.151191819705211</v>
       </c>
@@ -23481,7 +23480,7 @@
       <c r="E1003">
         <v>78</v>
       </c>
-      <c r="F1003">
+      <c r="F1003" s="6">
         <f t="shared" si="34"/>
         <v>22.068809416025353</v>
       </c>
@@ -23503,7 +23502,7 @@
       <c r="E1004">
         <v>64</v>
       </c>
-      <c r="F1004">
+      <c r="F1004" s="6">
         <f t="shared" si="34"/>
         <v>25.636917160711423</v>
       </c>
@@ -23525,7 +23524,7 @@
       <c r="E1005">
         <v>70</v>
       </c>
-      <c r="F1005">
+      <c r="F1005" s="6">
         <f t="shared" si="34"/>
         <v>25.402816083611555</v>
       </c>
@@ -23547,7 +23546,7 @@
       <c r="E1006">
         <v>61</v>
       </c>
-      <c r="F1006">
+      <c r="F1006" s="6">
         <f t="shared" si="34"/>
         <v>18.017485822306238</v>
       </c>
@@ -23662,8 +23661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
